--- a/lab2.xlsx
+++ b/lab2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C670D252-F0DB-46FD-90C2-CE4FE3BBB927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B7F5C9-931B-4880-8615-5AA2D2B91D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>x1\x2</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>x2</t>
+  </si>
+  <si>
+    <t>f12(x1, x2)</t>
   </si>
 </sst>
 </file>
@@ -456,9 +459,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -470,16 +470,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
@@ -490,12 +484,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гарний" xfId="1" builtinId="26"/>
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -532,181 +535,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC8E6A5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8E6A5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8E6A5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8E6A5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8E6A5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8E6A5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC9E7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -994,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA80" sqref="AA80"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y75" sqref="Y75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,419 +834,419 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="Y1" s="21" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="Y1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="30"/>
+      <c r="AR1" s="30"/>
+      <c r="AS1" s="30"/>
+      <c r="AT1" s="30"/>
     </row>
     <row r="2" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>0</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <f>B2+0.1</f>
         <v>0.1</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <f t="shared" ref="D2:V2" si="0">C2+0.1</f>
         <v>0.2</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="13">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="13">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <f t="shared" si="0"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="13">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="13">
         <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="13">
         <f t="shared" si="0"/>
         <v>1.0999999999999999</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="13">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="O2" s="14">
+      <c r="O2" s="13">
         <f>N2+0.1</f>
         <v>1.3</v>
       </c>
-      <c r="P2" s="14">
+      <c r="P2" s="13">
         <f t="shared" si="0"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q2" s="14">
+      <c r="Q2" s="13">
         <f t="shared" si="0"/>
         <v>1.5000000000000002</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R2" s="13">
         <f t="shared" si="0"/>
         <v>1.6000000000000003</v>
       </c>
-      <c r="S2" s="14">
+      <c r="S2" s="13">
         <f t="shared" si="0"/>
         <v>1.7000000000000004</v>
       </c>
-      <c r="T2" s="14">
+      <c r="T2" s="13">
         <f t="shared" si="0"/>
         <v>1.8000000000000005</v>
       </c>
-      <c r="U2" s="14">
+      <c r="U2" s="13">
         <f>T2+0.1</f>
         <v>1.9000000000000006</v>
       </c>
-      <c r="V2" s="15">
+      <c r="V2" s="14">
         <f t="shared" si="0"/>
         <v>2.0000000000000004</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="23" t="s">
+      <c r="Y2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="24">
+      <c r="Z2" s="21">
         <v>0</v>
       </c>
-      <c r="AA2" s="25">
+      <c r="AA2" s="22">
         <f>Z2+0.1</f>
         <v>0.1</v>
       </c>
-      <c r="AB2" s="25">
+      <c r="AB2" s="22">
         <f t="shared" ref="AB2:AL2" si="1">AA2+0.1</f>
         <v>0.2</v>
       </c>
-      <c r="AC2" s="25">
+      <c r="AC2" s="22">
         <f t="shared" si="1"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AD2" s="25">
+      <c r="AD2" s="22">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="AE2" s="25">
+      <c r="AE2" s="22">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="AF2" s="25">
+      <c r="AF2" s="22">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="AG2" s="25">
+      <c r="AG2" s="22">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="AH2" s="25">
+      <c r="AH2" s="22">
         <f t="shared" si="1"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="AI2" s="25">
+      <c r="AI2" s="22">
         <f t="shared" si="1"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="AJ2" s="25">
+      <c r="AJ2" s="22">
         <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AK2" s="25">
+      <c r="AK2" s="22">
         <f t="shared" si="1"/>
         <v>1.0999999999999999</v>
       </c>
-      <c r="AL2" s="25">
+      <c r="AL2" s="22">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="AM2" s="25">
+      <c r="AM2" s="22">
         <f>AL2+0.1</f>
         <v>1.3</v>
       </c>
-      <c r="AN2" s="25">
+      <c r="AN2" s="22">
         <f t="shared" ref="AN2:AR2" si="2">AM2+0.1</f>
         <v>1.4000000000000001</v>
       </c>
-      <c r="AO2" s="25">
+      <c r="AO2" s="22">
         <f t="shared" si="2"/>
         <v>1.5000000000000002</v>
       </c>
-      <c r="AP2" s="25">
+      <c r="AP2" s="22">
         <f t="shared" si="2"/>
         <v>1.6000000000000003</v>
       </c>
-      <c r="AQ2" s="25">
+      <c r="AQ2" s="22">
         <f t="shared" si="2"/>
         <v>1.7000000000000004</v>
       </c>
-      <c r="AR2" s="25">
+      <c r="AR2" s="22">
         <f t="shared" si="2"/>
         <v>1.8000000000000005</v>
       </c>
-      <c r="AS2" s="25">
+      <c r="AS2" s="22">
         <f>AR2+0.1</f>
         <v>1.9000000000000006</v>
       </c>
-      <c r="AT2" s="26">
+      <c r="AT2" s="23">
         <f t="shared" ref="AT2" si="3">AS2+0.1</f>
         <v>2.0000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="16">
         <v>0</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <f>5 * POWER($A3,2) - 12 * $A3 * B$2 + 3 * POWER(B$2,2) + 15</f>
         <v>15</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <f t="shared" ref="C3:V15" si="4">5 * POWER($A3,2) - 12 * $A3 * C$2 + 3 * POWER(C$2,2) + 15</f>
         <v>15.03</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <f t="shared" si="4"/>
         <v>15.12</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <f t="shared" si="4"/>
         <v>15.27</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <f t="shared" si="4"/>
         <v>15.48</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <f t="shared" si="4"/>
         <v>15.75</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <f t="shared" si="4"/>
         <v>16.079999999999998</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <f t="shared" si="4"/>
         <v>16.47</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <f t="shared" si="4"/>
         <v>16.919999999999998</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <f t="shared" si="4"/>
         <v>17.43</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="10">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="10">
         <f t="shared" si="4"/>
         <v>18.63</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="10">
         <f t="shared" si="4"/>
         <v>19.32</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="10">
         <f t="shared" si="4"/>
         <v>20.07</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="10">
         <f t="shared" si="4"/>
         <v>20.880000000000003</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="10">
         <f t="shared" si="4"/>
         <v>21.750000000000004</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="10">
         <f t="shared" si="4"/>
         <v>22.680000000000003</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="10">
         <f t="shared" si="4"/>
         <v>23.670000000000005</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="10">
         <f t="shared" si="4"/>
         <v>24.720000000000006</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="10">
         <f t="shared" si="4"/>
         <v>25.830000000000005</v>
       </c>
-      <c r="V3" s="12">
+      <c r="V3" s="11">
         <f t="shared" si="4"/>
         <v>27.000000000000007</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W3" s="6">
         <f>MIN(B3:V3)</f>
         <v>15</v>
       </c>
       <c r="X3" s="3"/>
-      <c r="Y3" s="22">
+      <c r="Y3" s="19">
         <v>0</v>
       </c>
-      <c r="Z3" s="10">
+      <c r="Z3" s="9">
         <f xml:space="preserve"> (15 * POWER(Z$2, 2) - 6 * POWER(Z$2,3) - 7 * Z$2 + 10) * (5 * POWER($Y3,2) - 8 * $Y3 + 7)</f>
         <v>70</v>
       </c>
-      <c r="AA3" s="10">
+      <c r="AA3" s="9">
         <f t="shared" ref="AA3:AT15" si="5" xml:space="preserve"> (15 * POWER(AA$2, 2) - 6 * POWER(AA$2,3) - 7 * AA$2 + 10) * (5 * POWER($Y3,2) - 8 * $Y3 + 7)</f>
         <v>66.10799999999999</v>
       </c>
-      <c r="AB3" s="10">
+      <c r="AB3" s="9">
         <f t="shared" si="5"/>
         <v>64.063999999999993</v>
       </c>
-      <c r="AC3" s="10">
+      <c r="AC3" s="9">
         <f t="shared" si="5"/>
         <v>63.615999999999993</v>
       </c>
-      <c r="AD3" s="10">
+      <c r="AD3" s="9">
         <f t="shared" si="5"/>
         <v>64.512</v>
       </c>
-      <c r="AE3" s="10">
+      <c r="AE3" s="9">
         <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
-      <c r="AF3" s="10">
+      <c r="AF3" s="9">
         <f t="shared" si="5"/>
         <v>69.328000000000003</v>
       </c>
-      <c r="AG3" s="10">
+      <c r="AG3" s="9">
         <f t="shared" si="5"/>
         <v>72.744</v>
       </c>
-      <c r="AH3" s="10">
+      <c r="AH3" s="9">
         <f t="shared" si="5"/>
         <v>76.495999999999995</v>
       </c>
-      <c r="AI3" s="10">
+      <c r="AI3" s="9">
         <f t="shared" si="5"/>
         <v>80.331999999999994</v>
       </c>
-      <c r="AJ3" s="10">
+      <c r="AJ3" s="9">
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
-      <c r="AK3" s="10">
+      <c r="AK3" s="9">
         <f t="shared" si="5"/>
         <v>87.24799999999999</v>
       </c>
-      <c r="AL3" s="10">
+      <c r="AL3" s="9">
         <f t="shared" si="5"/>
         <v>89.823999999999984</v>
       </c>
-      <c r="AM3" s="10">
+      <c r="AM3" s="9">
         <f t="shared" si="5"/>
         <v>91.475999999999999</v>
       </c>
-      <c r="AN3" s="10">
+      <c r="AN3" s="9">
         <f t="shared" si="5"/>
         <v>91.951999999999998</v>
       </c>
-      <c r="AO3" s="10">
+      <c r="AO3" s="9">
         <f t="shared" si="5"/>
         <v>91.000000000000014</v>
       </c>
-      <c r="AP3" s="10">
+      <c r="AP3" s="9">
         <f t="shared" si="5"/>
         <v>88.367999999999995</v>
       </c>
-      <c r="AQ3" s="10">
+      <c r="AQ3" s="9">
         <f t="shared" si="5"/>
         <v>83.803999999999988</v>
       </c>
-      <c r="AR3" s="10">
+      <c r="AR3" s="9">
         <f t="shared" si="5"/>
         <v>77.055999999999955</v>
       </c>
-      <c r="AS3" s="10">
+      <c r="AS3" s="9">
         <f t="shared" si="5"/>
         <v>67.871999999999929</v>
       </c>
-      <c r="AT3" s="10">
+      <c r="AT3" s="9">
         <f t="shared" si="5"/>
         <v>55.999999999999972</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="17">
         <f>A3+0.1</f>
         <v>0.1</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <f t="shared" ref="B4:Q31" si="6">5 * POWER($A4,2) - 12 * $A4 * B$2 + 3 * POWER(B$2,2) + 15</f>
         <v>15.05</v>
       </c>
@@ -1498,110 +1326,110 @@
         <f t="shared" si="4"/>
         <v>23.600000000000005</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="4">
         <f t="shared" si="4"/>
         <v>24.650000000000006</v>
       </c>
-      <c r="W4" s="7">
+      <c r="W4" s="6">
         <f t="shared" ref="W4:W33" si="7">MIN(B4:V4)</f>
         <v>14.93</v>
       </c>
       <c r="X4" s="3"/>
-      <c r="Y4" s="19">
+      <c r="Y4" s="17">
         <f>Y3+0.1</f>
         <v>0.1</v>
       </c>
-      <c r="Z4" s="10">
-        <f t="shared" ref="Z4:AO33" si="8" xml:space="preserve"> (15 * POWER(Z$2, 2) - 6 * POWER(Z$2,3) - 7 * Z$2 + 10) * (5 * POWER($Y4,2) - 8 * $Y4 + 7)</f>
+      <c r="Z4" s="9">
+        <f t="shared" ref="Z4:AO31" si="8" xml:space="preserve"> (15 * POWER(Z$2, 2) - 6 * POWER(Z$2,3) - 7 * Z$2 + 10) * (5 * POWER($Y4,2) - 8 * $Y4 + 7)</f>
         <v>62.5</v>
       </c>
-      <c r="AA4" s="10">
+      <c r="AA4" s="9">
         <f t="shared" si="5"/>
         <v>59.024999999999991</v>
       </c>
-      <c r="AB4" s="10">
+      <c r="AB4" s="9">
         <f t="shared" si="5"/>
         <v>57.199999999999996</v>
       </c>
-      <c r="AC4" s="10">
+      <c r="AC4" s="9">
         <f t="shared" si="5"/>
         <v>56.8</v>
       </c>
-      <c r="AD4" s="10">
+      <c r="AD4" s="9">
         <f t="shared" si="5"/>
         <v>57.599999999999994</v>
       </c>
-      <c r="AE4" s="10">
+      <c r="AE4" s="9">
         <f t="shared" si="5"/>
         <v>59.375</v>
       </c>
-      <c r="AF4" s="10">
+      <c r="AF4" s="9">
         <f t="shared" si="5"/>
         <v>61.9</v>
       </c>
-      <c r="AG4" s="10">
+      <c r="AG4" s="9">
         <f t="shared" si="5"/>
         <v>64.95</v>
       </c>
-      <c r="AH4" s="10">
+      <c r="AH4" s="9">
         <f t="shared" si="5"/>
         <v>68.3</v>
       </c>
-      <c r="AI4" s="10">
+      <c r="AI4" s="9">
         <f t="shared" si="5"/>
         <v>71.724999999999994</v>
       </c>
-      <c r="AJ4" s="10">
+      <c r="AJ4" s="9">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="AK4" s="10">
+      <c r="AK4" s="9">
         <f t="shared" si="5"/>
         <v>77.899999999999991</v>
       </c>
-      <c r="AL4" s="10">
+      <c r="AL4" s="9">
         <f t="shared" si="5"/>
         <v>80.199999999999989</v>
       </c>
-      <c r="AM4" s="10">
+      <c r="AM4" s="9">
         <f t="shared" si="5"/>
         <v>81.674999999999997</v>
       </c>
-      <c r="AN4" s="10">
+      <c r="AN4" s="9">
         <f t="shared" si="5"/>
         <v>82.1</v>
       </c>
-      <c r="AO4" s="10">
+      <c r="AO4" s="9">
         <f t="shared" si="5"/>
         <v>81.250000000000014</v>
       </c>
-      <c r="AP4" s="10">
+      <c r="AP4" s="9">
         <f t="shared" si="5"/>
         <v>78.899999999999991</v>
       </c>
-      <c r="AQ4" s="10">
+      <c r="AQ4" s="9">
         <f t="shared" si="5"/>
         <v>74.824999999999989</v>
       </c>
-      <c r="AR4" s="10">
+      <c r="AR4" s="9">
         <f t="shared" si="5"/>
         <v>68.799999999999955</v>
       </c>
-      <c r="AS4" s="10">
+      <c r="AS4" s="9">
         <f t="shared" si="5"/>
         <v>60.599999999999945</v>
       </c>
-      <c r="AT4" s="10">
+      <c r="AT4" s="9">
         <f t="shared" si="5"/>
         <v>49.999999999999979</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="17">
         <f t="shared" ref="A5:A33" si="9">A4+0.1</f>
         <v>0.2</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <f t="shared" si="6"/>
         <v>15.2</v>
       </c>
@@ -1681,110 +1509,110 @@
         <f t="shared" si="4"/>
         <v>21.470000000000002</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="4">
         <f t="shared" si="4"/>
         <v>22.400000000000006</v>
       </c>
-      <c r="W5" s="7">
+      <c r="W5" s="6">
         <f t="shared" si="7"/>
         <v>14.72</v>
       </c>
       <c r="X5" s="3"/>
-      <c r="Y5" s="19">
+      <c r="Y5" s="17">
         <f t="shared" ref="Y5:Y23" si="10">Y4+0.1</f>
         <v>0.2</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="Z5" s="9">
         <f t="shared" si="8"/>
         <v>56</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AA5" s="9">
         <f t="shared" si="5"/>
         <v>52.886399999999995</v>
       </c>
-      <c r="AB5" s="10">
+      <c r="AB5" s="9">
         <f t="shared" si="5"/>
         <v>51.25119999999999</v>
       </c>
-      <c r="AC5" s="10">
+      <c r="AC5" s="9">
         <f t="shared" si="5"/>
         <v>50.892799999999994</v>
       </c>
-      <c r="AD5" s="10">
+      <c r="AD5" s="9">
         <f t="shared" si="5"/>
         <v>51.609599999999993</v>
       </c>
-      <c r="AE5" s="10">
+      <c r="AE5" s="9">
         <f t="shared" si="5"/>
         <v>53.199999999999996</v>
       </c>
-      <c r="AF5" s="10">
+      <c r="AF5" s="9">
         <f t="shared" si="5"/>
         <v>55.462399999999995</v>
       </c>
-      <c r="AG5" s="10">
+      <c r="AG5" s="9">
         <f t="shared" si="5"/>
         <v>58.195199999999993</v>
       </c>
-      <c r="AH5" s="10">
+      <c r="AH5" s="9">
         <f t="shared" si="5"/>
         <v>61.196799999999989</v>
       </c>
-      <c r="AI5" s="10">
+      <c r="AI5" s="9">
         <f t="shared" si="5"/>
         <v>64.265599999999992</v>
       </c>
-      <c r="AJ5" s="10">
+      <c r="AJ5" s="9">
         <f t="shared" si="5"/>
         <v>67.199999999999989</v>
       </c>
-      <c r="AK5" s="10">
+      <c r="AK5" s="9">
         <f t="shared" si="5"/>
         <v>69.798399999999987</v>
       </c>
-      <c r="AL5" s="10">
+      <c r="AL5" s="9">
         <f t="shared" si="5"/>
         <v>71.859199999999973</v>
       </c>
-      <c r="AM5" s="10">
+      <c r="AM5" s="9">
         <f t="shared" si="5"/>
         <v>73.180799999999991</v>
       </c>
-      <c r="AN5" s="10">
+      <c r="AN5" s="9">
         <f t="shared" si="5"/>
         <v>73.561599999999984</v>
       </c>
-      <c r="AO5" s="10">
+      <c r="AO5" s="9">
         <f t="shared" si="5"/>
         <v>72.800000000000011</v>
       </c>
-      <c r="AP5" s="10">
+      <c r="AP5" s="9">
         <f t="shared" si="5"/>
         <v>70.694399999999987</v>
       </c>
-      <c r="AQ5" s="10">
+      <c r="AQ5" s="9">
         <f t="shared" si="5"/>
         <v>67.043199999999985</v>
       </c>
-      <c r="AR5" s="10">
+      <c r="AR5" s="9">
         <f t="shared" si="5"/>
         <v>61.644799999999961</v>
       </c>
-      <c r="AS5" s="10">
+      <c r="AS5" s="9">
         <f t="shared" si="5"/>
         <v>54.297599999999946</v>
       </c>
-      <c r="AT5" s="10">
+      <c r="AT5" s="9">
         <f t="shared" si="5"/>
         <v>44.799999999999976</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="17">
         <f t="shared" si="9"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <f t="shared" si="6"/>
         <v>15.45</v>
       </c>
@@ -1864,110 +1692,110 @@
         <f t="shared" si="4"/>
         <v>19.440000000000001</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6" s="4">
         <f t="shared" si="4"/>
         <v>20.250000000000004</v>
       </c>
-      <c r="W6" s="7">
+      <c r="W6" s="6">
         <f t="shared" si="7"/>
         <v>14.370000000000001</v>
       </c>
       <c r="X6" s="3"/>
-      <c r="Y6" s="19">
+      <c r="Y6" s="17">
         <f t="shared" si="10"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="Z6" s="10">
+      <c r="Z6" s="9">
         <f t="shared" si="8"/>
         <v>50.5</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AA6" s="9">
         <f t="shared" si="5"/>
         <v>47.692199999999993</v>
       </c>
-      <c r="AB6" s="10">
+      <c r="AB6" s="9">
         <f t="shared" si="5"/>
         <v>46.217599999999997</v>
       </c>
-      <c r="AC6" s="10">
+      <c r="AC6" s="9">
         <f t="shared" si="5"/>
         <v>45.894399999999997</v>
       </c>
-      <c r="AD6" s="10">
+      <c r="AD6" s="9">
         <f t="shared" si="5"/>
         <v>46.540799999999997</v>
       </c>
-      <c r="AE6" s="10">
+      <c r="AE6" s="9">
         <f t="shared" si="5"/>
         <v>47.975000000000001</v>
       </c>
-      <c r="AF6" s="10">
+      <c r="AF6" s="9">
         <f t="shared" si="5"/>
         <v>50.0152</v>
       </c>
-      <c r="AG6" s="10">
+      <c r="AG6" s="9">
         <f t="shared" si="5"/>
         <v>52.479599999999998</v>
       </c>
-      <c r="AH6" s="10">
+      <c r="AH6" s="9">
         <f t="shared" si="5"/>
         <v>55.186399999999992</v>
       </c>
-      <c r="AI6" s="10">
+      <c r="AI6" s="9">
         <f t="shared" si="5"/>
         <v>57.953799999999994</v>
       </c>
-      <c r="AJ6" s="10">
+      <c r="AJ6" s="9">
         <f t="shared" si="5"/>
         <v>60.599999999999994</v>
       </c>
-      <c r="AK6" s="10">
+      <c r="AK6" s="9">
         <f t="shared" si="5"/>
         <v>62.94319999999999</v>
       </c>
-      <c r="AL6" s="10">
+      <c r="AL6" s="9">
         <f t="shared" si="5"/>
         <v>64.801599999999979</v>
       </c>
-      <c r="AM6" s="10">
+      <c r="AM6" s="9">
         <f t="shared" si="5"/>
         <v>65.993399999999994</v>
       </c>
-      <c r="AN6" s="10">
+      <c r="AN6" s="9">
         <f t="shared" si="5"/>
         <v>66.336799999999997</v>
       </c>
-      <c r="AO6" s="10">
+      <c r="AO6" s="9">
         <f t="shared" si="5"/>
         <v>65.650000000000006</v>
       </c>
-      <c r="AP6" s="10">
+      <c r="AP6" s="9">
         <f t="shared" si="5"/>
         <v>63.75119999999999</v>
       </c>
-      <c r="AQ6" s="10">
+      <c r="AQ6" s="9">
         <f t="shared" si="5"/>
         <v>60.45859999999999</v>
       </c>
-      <c r="AR6" s="10">
+      <c r="AR6" s="9">
         <f t="shared" si="5"/>
         <v>55.590399999999967</v>
       </c>
-      <c r="AS6" s="10">
+      <c r="AS6" s="9">
         <f t="shared" si="5"/>
         <v>48.964799999999954</v>
       </c>
-      <c r="AT6" s="10">
+      <c r="AT6" s="9">
         <f t="shared" si="5"/>
         <v>40.399999999999977</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="17">
         <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <f t="shared" si="6"/>
         <v>15.8</v>
       </c>
@@ -2047,110 +1875,110 @@
         <f t="shared" si="4"/>
         <v>17.510000000000002</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="4">
         <f t="shared" si="4"/>
         <v>18.200000000000003</v>
       </c>
-      <c r="W7" s="7">
+      <c r="W7" s="6">
         <f t="shared" si="7"/>
         <v>13.879999999999999</v>
       </c>
       <c r="X7" s="3"/>
-      <c r="Y7" s="19">
+      <c r="Y7" s="17">
         <f t="shared" si="10"/>
         <v>0.4</v>
       </c>
-      <c r="Z7" s="10">
+      <c r="Z7" s="9">
         <f t="shared" si="8"/>
         <v>46</v>
       </c>
-      <c r="AA7" s="10">
+      <c r="AA7" s="9">
         <f t="shared" si="5"/>
         <v>43.442399999999992</v>
       </c>
-      <c r="AB7" s="10">
+      <c r="AB7" s="9">
         <f t="shared" si="5"/>
         <v>42.099199999999996</v>
       </c>
-      <c r="AC7" s="10">
+      <c r="AC7" s="9">
         <f t="shared" si="5"/>
         <v>41.804799999999993</v>
       </c>
-      <c r="AD7" s="10">
+      <c r="AD7" s="9">
         <f t="shared" si="5"/>
         <v>42.393599999999992</v>
       </c>
-      <c r="AE7" s="10">
+      <c r="AE7" s="9">
         <f t="shared" si="5"/>
         <v>43.699999999999996</v>
       </c>
-      <c r="AF7" s="10">
+      <c r="AF7" s="9">
         <f t="shared" si="5"/>
         <v>45.558399999999999</v>
       </c>
-      <c r="AG7" s="10">
+      <c r="AG7" s="9">
         <f t="shared" si="5"/>
         <v>47.803199999999997</v>
       </c>
-      <c r="AH7" s="10">
+      <c r="AH7" s="9">
         <f t="shared" si="5"/>
         <v>50.268799999999992</v>
       </c>
-      <c r="AI7" s="10">
+      <c r="AI7" s="9">
         <f t="shared" si="5"/>
         <v>52.789599999999993</v>
       </c>
-      <c r="AJ7" s="10">
+      <c r="AJ7" s="9">
         <f t="shared" si="5"/>
         <v>55.199999999999996</v>
       </c>
-      <c r="AK7" s="10">
+      <c r="AK7" s="9">
         <f t="shared" si="5"/>
         <v>57.334399999999988</v>
       </c>
-      <c r="AL7" s="10">
+      <c r="AL7" s="9">
         <f t="shared" si="5"/>
         <v>59.027199999999979</v>
       </c>
-      <c r="AM7" s="10">
+      <c r="AM7" s="9">
         <f t="shared" si="5"/>
         <v>60.112799999999993</v>
       </c>
-      <c r="AN7" s="10">
+      <c r="AN7" s="9">
         <f t="shared" si="5"/>
         <v>60.425599999999989</v>
       </c>
-      <c r="AO7" s="10">
+      <c r="AO7" s="9">
         <f t="shared" si="5"/>
         <v>59.800000000000004</v>
       </c>
-      <c r="AP7" s="10">
+      <c r="AP7" s="9">
         <f t="shared" si="5"/>
         <v>58.070399999999992</v>
       </c>
-      <c r="AQ7" s="10">
+      <c r="AQ7" s="9">
         <f t="shared" si="5"/>
         <v>55.071199999999983</v>
       </c>
-      <c r="AR7" s="10">
+      <c r="AR7" s="9">
         <f t="shared" si="5"/>
         <v>50.636799999999965</v>
       </c>
-      <c r="AS7" s="10">
+      <c r="AS7" s="9">
         <f t="shared" si="5"/>
         <v>44.601599999999955</v>
       </c>
-      <c r="AT7" s="10">
+      <c r="AT7" s="9">
         <f t="shared" si="5"/>
         <v>36.799999999999983</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="17">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <f t="shared" si="6"/>
         <v>16.25</v>
       </c>
@@ -2230,110 +2058,110 @@
         <f t="shared" si="4"/>
         <v>15.680000000000001</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8" s="4">
         <f t="shared" si="4"/>
         <v>16.25</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W8" s="6">
         <f t="shared" si="7"/>
         <v>13.25</v>
       </c>
       <c r="X8" s="3"/>
-      <c r="Y8" s="19">
+      <c r="Y8" s="17">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="Z8" s="10">
+      <c r="Z8" s="9">
         <f t="shared" si="8"/>
         <v>42.5</v>
       </c>
-      <c r="AA8" s="10">
+      <c r="AA8" s="9">
         <f t="shared" si="5"/>
         <v>40.136999999999993</v>
       </c>
-      <c r="AB8" s="10">
+      <c r="AB8" s="9">
         <f t="shared" si="5"/>
         <v>38.895999999999994</v>
       </c>
-      <c r="AC8" s="10">
+      <c r="AC8" s="9">
         <f t="shared" si="5"/>
         <v>38.623999999999995</v>
       </c>
-      <c r="AD8" s="10">
+      <c r="AD8" s="9">
         <f t="shared" si="5"/>
         <v>39.167999999999999</v>
       </c>
-      <c r="AE8" s="10">
+      <c r="AE8" s="9">
         <f t="shared" si="5"/>
         <v>40.375</v>
       </c>
-      <c r="AF8" s="10">
+      <c r="AF8" s="9">
         <f t="shared" si="5"/>
         <v>42.091999999999999</v>
       </c>
-      <c r="AG8" s="10">
+      <c r="AG8" s="9">
         <f t="shared" si="5"/>
         <v>44.165999999999997</v>
       </c>
-      <c r="AH8" s="10">
+      <c r="AH8" s="9">
         <f t="shared" si="5"/>
         <v>46.443999999999996</v>
       </c>
-      <c r="AI8" s="10">
+      <c r="AI8" s="9">
         <f t="shared" si="5"/>
         <v>48.772999999999996</v>
       </c>
-      <c r="AJ8" s="10">
+      <c r="AJ8" s="9">
         <f t="shared" si="5"/>
         <v>51</v>
       </c>
-      <c r="AK8" s="10">
+      <c r="AK8" s="9">
         <f t="shared" si="5"/>
         <v>52.971999999999994</v>
       </c>
-      <c r="AL8" s="10">
+      <c r="AL8" s="9">
         <f t="shared" si="5"/>
         <v>54.535999999999987</v>
       </c>
-      <c r="AM8" s="10">
+      <c r="AM8" s="9">
         <f t="shared" si="5"/>
         <v>55.539000000000001</v>
       </c>
-      <c r="AN8" s="10">
+      <c r="AN8" s="9">
         <f t="shared" si="5"/>
         <v>55.827999999999996</v>
       </c>
-      <c r="AO8" s="10">
+      <c r="AO8" s="9">
         <f t="shared" si="5"/>
         <v>55.250000000000007</v>
       </c>
-      <c r="AP8" s="10">
+      <c r="AP8" s="9">
         <f t="shared" si="5"/>
         <v>53.651999999999994</v>
       </c>
-      <c r="AQ8" s="10">
+      <c r="AQ8" s="9">
         <f t="shared" si="5"/>
         <v>50.880999999999993</v>
       </c>
-      <c r="AR8" s="10">
+      <c r="AR8" s="9">
         <f t="shared" si="5"/>
         <v>46.78399999999997</v>
       </c>
-      <c r="AS8" s="10">
+      <c r="AS8" s="9">
         <f t="shared" si="5"/>
         <v>41.207999999999963</v>
       </c>
-      <c r="AT8" s="10">
+      <c r="AT8" s="9">
         <f t="shared" si="5"/>
         <v>33.999999999999986</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <f t="shared" si="6"/>
         <v>16.8</v>
       </c>
@@ -2413,110 +2241,110 @@
         <f t="shared" si="4"/>
         <v>13.950000000000003</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" s="4">
         <f t="shared" si="4"/>
         <v>14.400000000000004</v>
       </c>
-      <c r="W9" s="7">
+      <c r="W9" s="6">
         <f t="shared" si="7"/>
         <v>12.48</v>
       </c>
       <c r="X9" s="3"/>
-      <c r="Y9" s="19">
+      <c r="Y9" s="17">
         <f t="shared" si="10"/>
         <v>0.6</v>
       </c>
-      <c r="Z9" s="10">
+      <c r="Z9" s="9">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="AA9" s="10">
+      <c r="AA9" s="9">
         <f t="shared" si="5"/>
         <v>37.775999999999996</v>
       </c>
-      <c r="AB9" s="10">
+      <c r="AB9" s="9">
         <f t="shared" si="5"/>
         <v>36.607999999999997</v>
       </c>
-      <c r="AC9" s="10">
+      <c r="AC9" s="9">
         <f t="shared" si="5"/>
         <v>36.351999999999997</v>
       </c>
-      <c r="AD9" s="10">
+      <c r="AD9" s="9">
         <f t="shared" si="5"/>
         <v>36.863999999999997</v>
       </c>
-      <c r="AE9" s="10">
+      <c r="AE9" s="9">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
-      <c r="AF9" s="10">
+      <c r="AF9" s="9">
         <f t="shared" si="5"/>
         <v>39.616</v>
       </c>
-      <c r="AG9" s="10">
+      <c r="AG9" s="9">
         <f t="shared" si="5"/>
         <v>41.567999999999998</v>
       </c>
-      <c r="AH9" s="10">
+      <c r="AH9" s="9">
         <f t="shared" si="5"/>
         <v>43.711999999999996</v>
       </c>
-      <c r="AI9" s="10">
+      <c r="AI9" s="9">
         <f t="shared" si="5"/>
         <v>45.903999999999996</v>
       </c>
-      <c r="AJ9" s="10">
+      <c r="AJ9" s="9">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="AK9" s="10">
+      <c r="AK9" s="9">
         <f t="shared" si="5"/>
         <v>49.855999999999995</v>
       </c>
-      <c r="AL9" s="10">
+      <c r="AL9" s="9">
         <f t="shared" si="5"/>
         <v>51.327999999999989</v>
       </c>
-      <c r="AM9" s="10">
+      <c r="AM9" s="9">
         <f t="shared" si="5"/>
         <v>52.271999999999998</v>
       </c>
-      <c r="AN9" s="10">
+      <c r="AN9" s="9">
         <f t="shared" si="5"/>
         <v>52.543999999999997</v>
       </c>
-      <c r="AO9" s="10">
+      <c r="AO9" s="9">
         <f t="shared" si="5"/>
         <v>52.000000000000007</v>
       </c>
-      <c r="AP9" s="10">
+      <c r="AP9" s="9">
         <f t="shared" si="5"/>
         <v>50.495999999999995</v>
       </c>
-      <c r="AQ9" s="10">
+      <c r="AQ9" s="9">
         <f t="shared" si="5"/>
         <v>47.887999999999991</v>
       </c>
-      <c r="AR9" s="10">
+      <c r="AR9" s="9">
         <f t="shared" si="5"/>
         <v>44.031999999999975</v>
       </c>
-      <c r="AS9" s="10">
+      <c r="AS9" s="9">
         <f t="shared" si="5"/>
         <v>38.783999999999963</v>
       </c>
-      <c r="AT9" s="10">
+      <c r="AT9" s="9">
         <f t="shared" si="5"/>
         <v>31.999999999999986</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <f t="shared" si="6"/>
         <v>17.45</v>
       </c>
@@ -2596,110 +2424,110 @@
         <f t="shared" si="4"/>
         <v>12.320000000000002</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10" s="4">
         <f t="shared" si="4"/>
         <v>12.650000000000004</v>
       </c>
-      <c r="W10" s="7">
+      <c r="W10" s="6">
         <f t="shared" si="7"/>
         <v>11.57</v>
       </c>
       <c r="X10" s="3"/>
-      <c r="Y10" s="19">
+      <c r="Y10" s="17">
         <f t="shared" si="10"/>
         <v>0.7</v>
       </c>
-      <c r="Z10" s="10">
+      <c r="Z10" s="9">
         <f t="shared" si="8"/>
         <v>38.5</v>
       </c>
-      <c r="AA10" s="10">
+      <c r="AA10" s="9">
         <f t="shared" si="5"/>
         <v>36.359399999999994</v>
       </c>
-      <c r="AB10" s="10">
+      <c r="AB10" s="9">
         <f t="shared" si="5"/>
         <v>35.235199999999999</v>
       </c>
-      <c r="AC10" s="10">
+      <c r="AC10" s="9">
         <f t="shared" si="5"/>
         <v>34.988799999999998</v>
       </c>
-      <c r="AD10" s="10">
+      <c r="AD10" s="9">
         <f t="shared" si="5"/>
         <v>35.4816</v>
       </c>
-      <c r="AE10" s="10">
+      <c r="AE10" s="9">
         <f t="shared" si="5"/>
         <v>36.575000000000003</v>
       </c>
-      <c r="AF10" s="10">
+      <c r="AF10" s="9">
         <f t="shared" si="5"/>
         <v>38.130400000000002</v>
       </c>
-      <c r="AG10" s="10">
+      <c r="AG10" s="9">
         <f t="shared" si="5"/>
         <v>40.0092</v>
       </c>
-      <c r="AH10" s="10">
+      <c r="AH10" s="9">
         <f t="shared" si="5"/>
         <v>42.072799999999994</v>
       </c>
-      <c r="AI10" s="10">
+      <c r="AI10" s="9">
         <f t="shared" si="5"/>
         <v>44.182600000000001</v>
       </c>
-      <c r="AJ10" s="10">
+      <c r="AJ10" s="9">
         <f t="shared" si="5"/>
         <v>46.2</v>
       </c>
-      <c r="AK10" s="10">
+      <c r="AK10" s="9">
         <f t="shared" si="5"/>
         <v>47.986399999999996</v>
       </c>
-      <c r="AL10" s="10">
+      <c r="AL10" s="9">
         <f t="shared" si="5"/>
         <v>49.403199999999991</v>
       </c>
-      <c r="AM10" s="10">
+      <c r="AM10" s="9">
         <f t="shared" si="5"/>
         <v>50.311799999999998</v>
       </c>
-      <c r="AN10" s="10">
+      <c r="AN10" s="9">
         <f t="shared" si="5"/>
         <v>50.573599999999999</v>
       </c>
-      <c r="AO10" s="10">
+      <c r="AO10" s="9">
         <f t="shared" si="5"/>
         <v>50.050000000000011</v>
       </c>
-      <c r="AP10" s="10">
+      <c r="AP10" s="9">
         <f t="shared" si="5"/>
         <v>48.602399999999996</v>
       </c>
-      <c r="AQ10" s="10">
+      <c r="AQ10" s="9">
         <f t="shared" si="5"/>
         <v>46.092199999999991</v>
       </c>
-      <c r="AR10" s="10">
+      <c r="AR10" s="9">
         <f t="shared" si="5"/>
         <v>42.380799999999979</v>
       </c>
-      <c r="AS10" s="10">
+      <c r="AS10" s="9">
         <f t="shared" si="5"/>
         <v>37.329599999999964</v>
       </c>
-      <c r="AT10" s="10">
+      <c r="AT10" s="9">
         <f t="shared" si="5"/>
         <v>30.799999999999986</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <f t="shared" si="9"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <f t="shared" si="6"/>
         <v>18.2</v>
       </c>
@@ -2779,110 +2607,110 @@
         <f t="shared" si="4"/>
         <v>10.79</v>
       </c>
-      <c r="V11" s="5">
+      <c r="V11" s="4">
         <f t="shared" si="4"/>
         <v>11.000000000000002</v>
       </c>
-      <c r="W11" s="7">
+      <c r="W11" s="6">
         <f t="shared" si="7"/>
         <v>10.52</v>
       </c>
       <c r="X11" s="3"/>
-      <c r="Y11" s="19">
+      <c r="Y11" s="17">
         <f t="shared" si="10"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="Z11" s="10">
+      <c r="Z11" s="9">
         <f t="shared" si="8"/>
         <v>38</v>
       </c>
-      <c r="AA11" s="10">
+      <c r="AA11" s="9">
         <f t="shared" si="5"/>
         <v>35.887199999999993</v>
       </c>
-      <c r="AB11" s="10">
+      <c r="AB11" s="9">
         <f t="shared" si="5"/>
         <v>34.777599999999993</v>
       </c>
-      <c r="AC11" s="10">
+      <c r="AC11" s="9">
         <f t="shared" si="5"/>
         <v>34.534399999999998</v>
       </c>
-      <c r="AD11" s="10">
+      <c r="AD11" s="9">
         <f t="shared" si="5"/>
         <v>35.020799999999994</v>
       </c>
-      <c r="AE11" s="10">
+      <c r="AE11" s="9">
         <f t="shared" si="5"/>
         <v>36.1</v>
       </c>
-      <c r="AF11" s="10">
+      <c r="AF11" s="9">
         <f t="shared" si="5"/>
         <v>37.635199999999998</v>
       </c>
-      <c r="AG11" s="10">
+      <c r="AG11" s="9">
         <f t="shared" si="5"/>
         <v>39.489599999999996</v>
       </c>
-      <c r="AH11" s="10">
+      <c r="AH11" s="9">
         <f t="shared" si="5"/>
         <v>41.526399999999995</v>
       </c>
-      <c r="AI11" s="10">
+      <c r="AI11" s="9">
         <f t="shared" si="5"/>
         <v>43.608799999999995</v>
       </c>
-      <c r="AJ11" s="10">
+      <c r="AJ11" s="9">
         <f t="shared" si="5"/>
         <v>45.599999999999994</v>
       </c>
-      <c r="AK11" s="10">
+      <c r="AK11" s="9">
         <f t="shared" si="5"/>
         <v>47.363199999999992</v>
       </c>
-      <c r="AL11" s="10">
+      <c r="AL11" s="9">
         <f t="shared" si="5"/>
         <v>48.761599999999987</v>
       </c>
-      <c r="AM11" s="10">
+      <c r="AM11" s="9">
         <f t="shared" si="5"/>
         <v>49.658399999999993</v>
       </c>
-      <c r="AN11" s="10">
+      <c r="AN11" s="9">
         <f t="shared" si="5"/>
         <v>49.916799999999995</v>
       </c>
-      <c r="AO11" s="10">
+      <c r="AO11" s="9">
         <f t="shared" si="5"/>
         <v>49.400000000000006</v>
       </c>
-      <c r="AP11" s="10">
+      <c r="AP11" s="9">
         <f t="shared" si="5"/>
         <v>47.971199999999996</v>
       </c>
-      <c r="AQ11" s="10">
+      <c r="AQ11" s="9">
         <f t="shared" si="5"/>
         <v>45.493599999999986</v>
       </c>
-      <c r="AR11" s="10">
+      <c r="AR11" s="9">
         <f t="shared" si="5"/>
         <v>41.830399999999976</v>
       </c>
-      <c r="AS11" s="10">
+      <c r="AS11" s="9">
         <f t="shared" si="5"/>
         <v>36.844799999999964</v>
       </c>
-      <c r="AT11" s="10">
+      <c r="AT11" s="9">
         <f t="shared" si="5"/>
         <v>30.399999999999984</v>
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <f t="shared" si="9"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <f t="shared" si="6"/>
         <v>19.049999999999997</v>
       </c>
@@ -2962,110 +2790,110 @@
         <f t="shared" si="4"/>
         <v>9.36</v>
       </c>
-      <c r="V12" s="5">
+      <c r="V12" s="4">
         <f t="shared" si="4"/>
         <v>9.4500000000000011</v>
       </c>
-      <c r="W12" s="7">
+      <c r="W12" s="6">
         <f t="shared" si="7"/>
         <v>9.3299999999999983</v>
       </c>
       <c r="X12" s="3"/>
-      <c r="Y12" s="19">
+      <c r="Y12" s="17">
         <f t="shared" si="10"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="Z12" s="10">
+      <c r="Z12" s="9">
         <f t="shared" si="8"/>
         <v>38.5</v>
       </c>
-      <c r="AA12" s="10">
+      <c r="AA12" s="9">
         <f t="shared" si="5"/>
         <v>36.359399999999994</v>
       </c>
-      <c r="AB12" s="10">
+      <c r="AB12" s="9">
         <f t="shared" si="5"/>
         <v>35.235199999999992</v>
       </c>
-      <c r="AC12" s="10">
+      <c r="AC12" s="9">
         <f t="shared" si="5"/>
         <v>34.988799999999991</v>
       </c>
-      <c r="AD12" s="10">
+      <c r="AD12" s="9">
         <f t="shared" si="5"/>
         <v>35.481599999999993</v>
       </c>
-      <c r="AE12" s="10">
+      <c r="AE12" s="9">
         <f t="shared" si="5"/>
         <v>36.574999999999996</v>
       </c>
-      <c r="AF12" s="10">
+      <c r="AF12" s="9">
         <f t="shared" si="5"/>
         <v>38.130399999999995</v>
       </c>
-      <c r="AG12" s="10">
+      <c r="AG12" s="9">
         <f t="shared" si="5"/>
         <v>40.009199999999993</v>
       </c>
-      <c r="AH12" s="10">
+      <c r="AH12" s="9">
         <f t="shared" si="5"/>
         <v>42.072799999999994</v>
       </c>
-      <c r="AI12" s="10">
+      <c r="AI12" s="9">
         <f t="shared" si="5"/>
         <v>44.182599999999994</v>
       </c>
-      <c r="AJ12" s="10">
+      <c r="AJ12" s="9">
         <f t="shared" si="5"/>
         <v>46.199999999999996</v>
       </c>
-      <c r="AK12" s="10">
+      <c r="AK12" s="9">
         <f t="shared" si="5"/>
         <v>47.986399999999989</v>
       </c>
-      <c r="AL12" s="10">
+      <c r="AL12" s="9">
         <f t="shared" si="5"/>
         <v>49.403199999999984</v>
       </c>
-      <c r="AM12" s="10">
+      <c r="AM12" s="9">
         <f t="shared" si="5"/>
         <v>50.311799999999991</v>
       </c>
-      <c r="AN12" s="10">
+      <c r="AN12" s="9">
         <f t="shared" si="5"/>
         <v>50.573599999999992</v>
       </c>
-      <c r="AO12" s="10">
+      <c r="AO12" s="9">
         <f t="shared" si="5"/>
         <v>50.050000000000004</v>
       </c>
-      <c r="AP12" s="10">
+      <c r="AP12" s="9">
         <f t="shared" si="5"/>
         <v>48.602399999999989</v>
       </c>
-      <c r="AQ12" s="10">
+      <c r="AQ12" s="9">
         <f t="shared" si="5"/>
         <v>46.092199999999984</v>
       </c>
-      <c r="AR12" s="10">
+      <c r="AR12" s="9">
         <f t="shared" si="5"/>
         <v>42.380799999999972</v>
       </c>
-      <c r="AS12" s="10">
+      <c r="AS12" s="9">
         <f t="shared" si="5"/>
         <v>37.329599999999964</v>
       </c>
-      <c r="AT12" s="10">
+      <c r="AT12" s="9">
         <f t="shared" si="5"/>
         <v>30.799999999999983</v>
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <f t="shared" si="9"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
@@ -3145,110 +2973,110 @@
         <f t="shared" si="4"/>
         <v>8.0300000000000011</v>
       </c>
-      <c r="V13" s="5">
+      <c r="V13" s="4">
         <f t="shared" si="4"/>
         <v>8.0000000000000053</v>
       </c>
-      <c r="W13" s="7">
+      <c r="W13" s="6">
         <f t="shared" si="7"/>
         <v>8.0000000000000053</v>
       </c>
       <c r="X13" s="3"/>
-      <c r="Y13" s="19">
+      <c r="Y13" s="17">
         <f t="shared" si="10"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="Z13" s="10">
+      <c r="Z13" s="9">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="AA13" s="10">
+      <c r="AA13" s="9">
         <f t="shared" si="5"/>
         <v>37.775999999999996</v>
       </c>
-      <c r="AB13" s="10">
+      <c r="AB13" s="9">
         <f t="shared" si="5"/>
         <v>36.607999999999997</v>
       </c>
-      <c r="AC13" s="10">
+      <c r="AC13" s="9">
         <f t="shared" si="5"/>
         <v>36.351999999999997</v>
       </c>
-      <c r="AD13" s="10">
+      <c r="AD13" s="9">
         <f t="shared" si="5"/>
         <v>36.863999999999997</v>
       </c>
-      <c r="AE13" s="10">
+      <c r="AE13" s="9">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
-      <c r="AF13" s="10">
+      <c r="AF13" s="9">
         <f t="shared" si="5"/>
         <v>39.616</v>
       </c>
-      <c r="AG13" s="10">
+      <c r="AG13" s="9">
         <f t="shared" si="5"/>
         <v>41.567999999999998</v>
       </c>
-      <c r="AH13" s="10">
+      <c r="AH13" s="9">
         <f t="shared" si="5"/>
         <v>43.711999999999996</v>
       </c>
-      <c r="AI13" s="10">
+      <c r="AI13" s="9">
         <f t="shared" si="5"/>
         <v>45.903999999999996</v>
       </c>
-      <c r="AJ13" s="10">
+      <c r="AJ13" s="9">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="AK13" s="10">
+      <c r="AK13" s="9">
         <f t="shared" si="5"/>
         <v>49.855999999999995</v>
       </c>
-      <c r="AL13" s="10">
+      <c r="AL13" s="9">
         <f t="shared" si="5"/>
         <v>51.327999999999989</v>
       </c>
-      <c r="AM13" s="10">
+      <c r="AM13" s="9">
         <f t="shared" si="5"/>
         <v>52.271999999999998</v>
       </c>
-      <c r="AN13" s="10">
+      <c r="AN13" s="9">
         <f t="shared" si="5"/>
         <v>52.543999999999997</v>
       </c>
-      <c r="AO13" s="10">
+      <c r="AO13" s="9">
         <f t="shared" si="5"/>
         <v>52.000000000000007</v>
       </c>
-      <c r="AP13" s="10">
+      <c r="AP13" s="9">
         <f t="shared" si="5"/>
         <v>50.495999999999995</v>
       </c>
-      <c r="AQ13" s="10">
+      <c r="AQ13" s="9">
         <f t="shared" si="5"/>
         <v>47.887999999999991</v>
       </c>
-      <c r="AR13" s="10">
+      <c r="AR13" s="9">
         <f t="shared" si="5"/>
         <v>44.031999999999975</v>
       </c>
-      <c r="AS13" s="10">
+      <c r="AS13" s="9">
         <f t="shared" si="5"/>
         <v>38.783999999999963</v>
       </c>
-      <c r="AT13" s="10">
+      <c r="AT13" s="9">
         <f t="shared" si="5"/>
         <v>31.999999999999986</v>
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="17">
         <f t="shared" si="9"/>
         <v>1.0999999999999999</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <f t="shared" si="6"/>
         <v>21.049999999999997</v>
       </c>
@@ -3328,110 +3156,110 @@
         <f t="shared" si="4"/>
         <v>6.7999999999999972</v>
       </c>
-      <c r="V14" s="5">
+      <c r="V14" s="4">
         <f t="shared" si="4"/>
         <v>6.6499999999999968</v>
       </c>
-      <c r="W14" s="7">
+      <c r="W14" s="6">
         <f t="shared" si="7"/>
         <v>6.6499999999999968</v>
       </c>
       <c r="X14" s="3"/>
-      <c r="Y14" s="19">
+      <c r="Y14" s="17">
         <f t="shared" si="10"/>
         <v>1.0999999999999999</v>
       </c>
-      <c r="Z14" s="10">
+      <c r="Z14" s="9">
         <f t="shared" si="8"/>
         <v>42.5</v>
       </c>
-      <c r="AA14" s="10">
+      <c r="AA14" s="9">
         <f t="shared" si="5"/>
         <v>40.136999999999993</v>
       </c>
-      <c r="AB14" s="10">
+      <c r="AB14" s="9">
         <f t="shared" si="5"/>
         <v>38.895999999999994</v>
       </c>
-      <c r="AC14" s="10">
+      <c r="AC14" s="9">
         <f t="shared" si="5"/>
         <v>38.623999999999995</v>
       </c>
-      <c r="AD14" s="10">
+      <c r="AD14" s="9">
         <f t="shared" si="5"/>
         <v>39.167999999999999</v>
       </c>
-      <c r="AE14" s="10">
+      <c r="AE14" s="9">
         <f t="shared" si="5"/>
         <v>40.375</v>
       </c>
-      <c r="AF14" s="10">
+      <c r="AF14" s="9">
         <f t="shared" si="5"/>
         <v>42.091999999999999</v>
       </c>
-      <c r="AG14" s="10">
+      <c r="AG14" s="9">
         <f t="shared" si="5"/>
         <v>44.165999999999997</v>
       </c>
-      <c r="AH14" s="10">
+      <c r="AH14" s="9">
         <f t="shared" si="5"/>
         <v>46.443999999999996</v>
       </c>
-      <c r="AI14" s="10">
+      <c r="AI14" s="9">
         <f t="shared" si="5"/>
         <v>48.772999999999996</v>
       </c>
-      <c r="AJ14" s="10">
+      <c r="AJ14" s="9">
         <f t="shared" si="5"/>
         <v>51</v>
       </c>
-      <c r="AK14" s="10">
+      <c r="AK14" s="9">
         <f t="shared" si="5"/>
         <v>52.971999999999994</v>
       </c>
-      <c r="AL14" s="10">
+      <c r="AL14" s="9">
         <f t="shared" si="5"/>
         <v>54.535999999999987</v>
       </c>
-      <c r="AM14" s="10">
+      <c r="AM14" s="9">
         <f t="shared" si="5"/>
         <v>55.539000000000001</v>
       </c>
-      <c r="AN14" s="10">
+      <c r="AN14" s="9">
         <f t="shared" si="5"/>
         <v>55.827999999999996</v>
       </c>
-      <c r="AO14" s="10">
+      <c r="AO14" s="9">
         <f t="shared" si="5"/>
         <v>55.250000000000007</v>
       </c>
-      <c r="AP14" s="10">
+      <c r="AP14" s="9">
         <f t="shared" si="5"/>
         <v>53.651999999999994</v>
       </c>
-      <c r="AQ14" s="10">
+      <c r="AQ14" s="9">
         <f t="shared" si="5"/>
         <v>50.880999999999993</v>
       </c>
-      <c r="AR14" s="10">
+      <c r="AR14" s="9">
         <f t="shared" si="5"/>
         <v>46.78399999999997</v>
       </c>
-      <c r="AS14" s="10">
+      <c r="AS14" s="9">
         <f t="shared" si="5"/>
         <v>41.207999999999963</v>
       </c>
-      <c r="AT14" s="10">
+      <c r="AT14" s="9">
         <f t="shared" si="5"/>
         <v>33.999999999999986</v>
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <f t="shared" si="6"/>
         <v>22.2</v>
       </c>
@@ -3511,110 +3339,110 @@
         <f t="shared" si="11"/>
         <v>5.6699999999999982</v>
       </c>
-      <c r="V15" s="5">
+      <c r="V15" s="4">
         <f t="shared" si="11"/>
         <v>5.4</v>
       </c>
-      <c r="W15" s="7">
+      <c r="W15" s="6">
         <f t="shared" si="7"/>
         <v>5.4</v>
       </c>
       <c r="X15" s="3"/>
-      <c r="Y15" s="19">
+      <c r="Y15" s="17">
         <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
-      <c r="Z15" s="10">
+      <c r="Z15" s="9">
         <f t="shared" si="8"/>
         <v>46</v>
       </c>
-      <c r="AA15" s="10">
+      <c r="AA15" s="9">
         <f t="shared" si="5"/>
         <v>43.442399999999992</v>
       </c>
-      <c r="AB15" s="10">
+      <c r="AB15" s="9">
         <f t="shared" si="5"/>
         <v>42.099199999999996</v>
       </c>
-      <c r="AC15" s="10">
+      <c r="AC15" s="9">
         <f t="shared" si="5"/>
         <v>41.804799999999993</v>
       </c>
-      <c r="AD15" s="10">
+      <c r="AD15" s="9">
         <f t="shared" si="5"/>
         <v>42.393599999999992</v>
       </c>
-      <c r="AE15" s="10">
+      <c r="AE15" s="9">
         <f t="shared" si="5"/>
         <v>43.699999999999996</v>
       </c>
-      <c r="AF15" s="10">
+      <c r="AF15" s="9">
         <f t="shared" si="5"/>
         <v>45.558399999999999</v>
       </c>
-      <c r="AG15" s="10">
+      <c r="AG15" s="9">
         <f t="shared" si="5"/>
         <v>47.803199999999997</v>
       </c>
-      <c r="AH15" s="10">
+      <c r="AH15" s="9">
         <f t="shared" si="5"/>
         <v>50.268799999999992</v>
       </c>
-      <c r="AI15" s="10">
+      <c r="AI15" s="9">
         <f t="shared" si="5"/>
         <v>52.789599999999993</v>
       </c>
-      <c r="AJ15" s="10">
+      <c r="AJ15" s="9">
         <f t="shared" si="5"/>
         <v>55.199999999999996</v>
       </c>
-      <c r="AK15" s="10">
+      <c r="AK15" s="9">
         <f t="shared" si="5"/>
         <v>57.334399999999988</v>
       </c>
-      <c r="AL15" s="10">
+      <c r="AL15" s="9">
         <f t="shared" si="5"/>
         <v>59.027199999999979</v>
       </c>
-      <c r="AM15" s="10">
+      <c r="AM15" s="9">
         <f t="shared" si="5"/>
         <v>60.112799999999993</v>
       </c>
-      <c r="AN15" s="10">
+      <c r="AN15" s="9">
         <f t="shared" si="5"/>
         <v>60.425599999999989</v>
       </c>
-      <c r="AO15" s="10">
+      <c r="AO15" s="9">
         <f t="shared" si="5"/>
         <v>59.800000000000004</v>
       </c>
-      <c r="AP15" s="10">
+      <c r="AP15" s="9">
         <f t="shared" ref="AP15:AT33" si="12" xml:space="preserve"> (15 * POWER(AP$2, 2) - 6 * POWER(AP$2,3) - 7 * AP$2 + 10) * (5 * POWER($Y15,2) - 8 * $Y15 + 7)</f>
         <v>58.070399999999992</v>
       </c>
-      <c r="AQ15" s="10">
+      <c r="AQ15" s="9">
         <f t="shared" si="12"/>
         <v>55.071199999999983</v>
       </c>
-      <c r="AR15" s="10">
+      <c r="AR15" s="9">
         <f t="shared" si="12"/>
         <v>50.636799999999965</v>
       </c>
-      <c r="AS15" s="10">
+      <c r="AS15" s="9">
         <f t="shared" si="12"/>
         <v>44.601599999999955</v>
       </c>
-      <c r="AT15" s="10">
+      <c r="AT15" s="9">
         <f t="shared" si="12"/>
         <v>36.799999999999983</v>
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="17">
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <f t="shared" si="6"/>
         <v>23.450000000000003</v>
       </c>
@@ -3694,110 +3522,110 @@
         <f t="shared" si="11"/>
         <v>4.6399999999999935</v>
       </c>
-      <c r="V16" s="5">
+      <c r="V16" s="4">
         <f t="shared" si="11"/>
         <v>4.2499999999999982</v>
       </c>
-      <c r="W16" s="7">
+      <c r="W16" s="6">
         <f t="shared" si="7"/>
         <v>4.2499999999999982</v>
       </c>
       <c r="X16" s="3"/>
-      <c r="Y16" s="19">
+      <c r="Y16" s="17">
         <f t="shared" si="10"/>
         <v>1.3</v>
       </c>
-      <c r="Z16" s="10">
+      <c r="Z16" s="9">
         <f t="shared" si="8"/>
         <v>50.500000000000007</v>
       </c>
-      <c r="AA16" s="10">
+      <c r="AA16" s="9">
         <f t="shared" si="8"/>
         <v>47.6922</v>
       </c>
-      <c r="AB16" s="10">
+      <c r="AB16" s="9">
         <f t="shared" si="8"/>
         <v>46.217600000000004</v>
       </c>
-      <c r="AC16" s="10">
+      <c r="AC16" s="9">
         <f t="shared" si="8"/>
         <v>45.894400000000005</v>
       </c>
-      <c r="AD16" s="10">
+      <c r="AD16" s="9">
         <f t="shared" si="8"/>
         <v>46.540800000000004</v>
       </c>
-      <c r="AE16" s="10">
+      <c r="AE16" s="9">
         <f t="shared" si="8"/>
         <v>47.975000000000009</v>
       </c>
-      <c r="AF16" s="10">
+      <c r="AF16" s="9">
         <f t="shared" si="8"/>
         <v>50.015200000000007</v>
       </c>
-      <c r="AG16" s="10">
+      <c r="AG16" s="9">
         <f t="shared" si="8"/>
         <v>52.479600000000005</v>
       </c>
-      <c r="AH16" s="10">
+      <c r="AH16" s="9">
         <f t="shared" si="8"/>
         <v>55.186400000000006</v>
       </c>
-      <c r="AI16" s="10">
+      <c r="AI16" s="9">
         <f t="shared" si="8"/>
         <v>57.953800000000001</v>
       </c>
-      <c r="AJ16" s="10">
+      <c r="AJ16" s="9">
         <f t="shared" si="8"/>
         <v>60.600000000000009</v>
       </c>
-      <c r="AK16" s="10">
+      <c r="AK16" s="9">
         <f t="shared" si="8"/>
         <v>62.943200000000004</v>
       </c>
-      <c r="AL16" s="10">
+      <c r="AL16" s="9">
         <f t="shared" si="8"/>
         <v>64.801599999999993</v>
       </c>
-      <c r="AM16" s="10">
+      <c r="AM16" s="9">
         <f t="shared" si="8"/>
         <v>65.993400000000008</v>
       </c>
-      <c r="AN16" s="10">
+      <c r="AN16" s="9">
         <f t="shared" si="8"/>
         <v>66.336800000000011</v>
       </c>
-      <c r="AO16" s="10">
+      <c r="AO16" s="9">
         <f t="shared" si="8"/>
         <v>65.65000000000002</v>
       </c>
-      <c r="AP16" s="10">
+      <c r="AP16" s="9">
         <f t="shared" si="12"/>
         <v>63.751200000000004</v>
       </c>
-      <c r="AQ16" s="10">
+      <c r="AQ16" s="9">
         <f t="shared" si="12"/>
         <v>60.458599999999997</v>
       </c>
-      <c r="AR16" s="10">
+      <c r="AR16" s="9">
         <f t="shared" si="12"/>
         <v>55.590399999999974</v>
       </c>
-      <c r="AS16" s="10">
+      <c r="AS16" s="9">
         <f t="shared" si="12"/>
         <v>48.964799999999961</v>
       </c>
-      <c r="AT16" s="10">
+      <c r="AT16" s="9">
         <f t="shared" si="12"/>
         <v>40.399999999999984</v>
       </c>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="17">
         <f t="shared" si="9"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <f t="shared" si="6"/>
         <v>24.800000000000004</v>
       </c>
@@ -3877,110 +3705,110 @@
         <f t="shared" si="11"/>
         <v>3.7099999999999937</v>
       </c>
-      <c r="V17" s="5">
+      <c r="V17" s="4">
         <f t="shared" si="11"/>
         <v>3.2000000000000011</v>
       </c>
-      <c r="W17" s="7">
+      <c r="W17" s="6">
         <f t="shared" si="7"/>
         <v>3.2000000000000011</v>
       </c>
       <c r="X17" s="3"/>
-      <c r="Y17" s="19">
+      <c r="Y17" s="17">
         <f t="shared" si="10"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="Z17" s="10">
+      <c r="Z17" s="9">
         <f t="shared" si="8"/>
         <v>56.000000000000014</v>
       </c>
-      <c r="AA17" s="10">
+      <c r="AA17" s="9">
         <f t="shared" si="8"/>
         <v>52.886400000000009</v>
       </c>
-      <c r="AB17" s="10">
+      <c r="AB17" s="9">
         <f t="shared" si="8"/>
         <v>51.251200000000011</v>
       </c>
-      <c r="AC17" s="10">
+      <c r="AC17" s="9">
         <f t="shared" si="8"/>
         <v>50.892800000000008</v>
       </c>
-      <c r="AD17" s="10">
+      <c r="AD17" s="9">
         <f t="shared" si="8"/>
         <v>51.609600000000007</v>
       </c>
-      <c r="AE17" s="10">
+      <c r="AE17" s="9">
         <f t="shared" si="8"/>
         <v>53.200000000000017</v>
       </c>
-      <c r="AF17" s="10">
+      <c r="AF17" s="9">
         <f t="shared" si="8"/>
         <v>55.462400000000017</v>
       </c>
-      <c r="AG17" s="10">
+      <c r="AG17" s="9">
         <f t="shared" si="8"/>
         <v>58.195200000000014</v>
       </c>
-      <c r="AH17" s="10">
+      <c r="AH17" s="9">
         <f t="shared" si="8"/>
         <v>61.19680000000001</v>
       </c>
-      <c r="AI17" s="10">
+      <c r="AI17" s="9">
         <f t="shared" si="8"/>
         <v>64.265600000000006</v>
       </c>
-      <c r="AJ17" s="10">
+      <c r="AJ17" s="9">
         <f t="shared" si="8"/>
         <v>67.200000000000017</v>
       </c>
-      <c r="AK17" s="10">
+      <c r="AK17" s="9">
         <f t="shared" si="8"/>
         <v>69.798400000000015</v>
       </c>
-      <c r="AL17" s="10">
+      <c r="AL17" s="9">
         <f t="shared" si="8"/>
         <v>71.859200000000001</v>
       </c>
-      <c r="AM17" s="10">
+      <c r="AM17" s="9">
         <f t="shared" si="8"/>
         <v>73.180800000000019</v>
       </c>
-      <c r="AN17" s="10">
+      <c r="AN17" s="9">
         <f t="shared" si="8"/>
         <v>73.561600000000013</v>
       </c>
-      <c r="AO17" s="10">
+      <c r="AO17" s="9">
         <f t="shared" si="8"/>
         <v>72.800000000000026</v>
       </c>
-      <c r="AP17" s="10">
+      <c r="AP17" s="9">
         <f t="shared" si="12"/>
         <v>70.694400000000016</v>
       </c>
-      <c r="AQ17" s="10">
+      <c r="AQ17" s="9">
         <f t="shared" si="12"/>
         <v>67.043199999999999</v>
       </c>
-      <c r="AR17" s="10">
+      <c r="AR17" s="9">
         <f t="shared" si="12"/>
         <v>61.644799999999982</v>
       </c>
-      <c r="AS17" s="10">
+      <c r="AS17" s="9">
         <f t="shared" si="12"/>
         <v>54.29759999999996</v>
       </c>
-      <c r="AT17" s="10">
+      <c r="AT17" s="9">
         <f t="shared" si="12"/>
         <v>44.79999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <f t="shared" si="9"/>
         <v>1.5000000000000002</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <f t="shared" si="6"/>
         <v>26.250000000000004</v>
       </c>
@@ -4060,110 +3888,110 @@
         <f t="shared" si="11"/>
         <v>2.8799999999999919</v>
       </c>
-      <c r="V18" s="5">
+      <c r="V18" s="4">
         <f t="shared" si="11"/>
         <v>2.2499999999999947</v>
       </c>
-      <c r="W18" s="7">
+      <c r="W18" s="6">
         <f t="shared" si="7"/>
         <v>2.2499999999999947</v>
       </c>
       <c r="X18" s="3"/>
-      <c r="Y18" s="19">
+      <c r="Y18" s="17">
         <f t="shared" si="10"/>
         <v>1.5000000000000002</v>
       </c>
-      <c r="Z18" s="10">
+      <c r="Z18" s="9">
         <f t="shared" si="8"/>
         <v>62.500000000000014</v>
       </c>
-      <c r="AA18" s="10">
+      <c r="AA18" s="9">
         <f t="shared" si="8"/>
         <v>59.025000000000013</v>
       </c>
-      <c r="AB18" s="10">
+      <c r="AB18" s="9">
         <f t="shared" si="8"/>
         <v>57.20000000000001</v>
       </c>
-      <c r="AC18" s="10">
+      <c r="AC18" s="9">
         <f t="shared" si="8"/>
         <v>56.800000000000011</v>
       </c>
-      <c r="AD18" s="10">
+      <c r="AD18" s="9">
         <f t="shared" si="8"/>
         <v>57.600000000000009</v>
       </c>
-      <c r="AE18" s="10">
+      <c r="AE18" s="9">
         <f t="shared" si="8"/>
         <v>59.375000000000014</v>
       </c>
-      <c r="AF18" s="10">
+      <c r="AF18" s="9">
         <f t="shared" si="8"/>
         <v>61.90000000000002</v>
       </c>
-      <c r="AG18" s="10">
+      <c r="AG18" s="9">
         <f t="shared" si="8"/>
         <v>64.950000000000017</v>
       </c>
-      <c r="AH18" s="10">
+      <c r="AH18" s="9">
         <f t="shared" si="8"/>
         <v>68.300000000000011</v>
       </c>
-      <c r="AI18" s="10">
+      <c r="AI18" s="9">
         <f t="shared" si="8"/>
         <v>71.725000000000009</v>
       </c>
-      <c r="AJ18" s="10">
+      <c r="AJ18" s="9">
         <f t="shared" si="8"/>
         <v>75.000000000000028</v>
       </c>
-      <c r="AK18" s="10">
+      <c r="AK18" s="9">
         <f t="shared" si="8"/>
         <v>77.90000000000002</v>
       </c>
-      <c r="AL18" s="10">
+      <c r="AL18" s="9">
         <f t="shared" si="8"/>
         <v>80.2</v>
       </c>
-      <c r="AM18" s="10">
+      <c r="AM18" s="9">
         <f t="shared" si="8"/>
         <v>81.675000000000026</v>
       </c>
-      <c r="AN18" s="10">
+      <c r="AN18" s="9">
         <f t="shared" si="8"/>
         <v>82.100000000000023</v>
       </c>
-      <c r="AO18" s="10">
+      <c r="AO18" s="9">
         <f t="shared" si="8"/>
         <v>81.250000000000028</v>
       </c>
-      <c r="AP18" s="10">
+      <c r="AP18" s="9">
         <f t="shared" si="12"/>
         <v>78.90000000000002</v>
       </c>
-      <c r="AQ18" s="10">
+      <c r="AQ18" s="9">
         <f t="shared" si="12"/>
         <v>74.825000000000003</v>
       </c>
-      <c r="AR18" s="10">
+      <c r="AR18" s="9">
         <f t="shared" si="12"/>
         <v>68.799999999999983</v>
       </c>
-      <c r="AS18" s="10">
+      <c r="AS18" s="9">
         <f t="shared" si="12"/>
         <v>60.599999999999959</v>
       </c>
-      <c r="AT18" s="10">
+      <c r="AT18" s="9">
         <f t="shared" si="12"/>
         <v>49.999999999999993</v>
       </c>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="17">
         <f t="shared" si="9"/>
         <v>1.6000000000000003</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <f t="shared" si="6"/>
         <v>27.800000000000004</v>
       </c>
@@ -4243,110 +4071,110 @@
         <f t="shared" si="11"/>
         <v>2.1499999999999915</v>
       </c>
-      <c r="V19" s="5">
+      <c r="V19" s="4">
         <f t="shared" si="11"/>
         <v>1.3999999999999968</v>
       </c>
-      <c r="W19" s="7">
+      <c r="W19" s="6">
         <f t="shared" si="7"/>
         <v>1.3999999999999968</v>
       </c>
       <c r="X19" s="3"/>
-      <c r="Y19" s="19">
+      <c r="Y19" s="17">
         <f t="shared" si="10"/>
         <v>1.6000000000000003</v>
       </c>
-      <c r="Z19" s="10">
+      <c r="Z19" s="9">
         <f t="shared" si="8"/>
         <v>70.000000000000014</v>
       </c>
-      <c r="AA19" s="10">
+      <c r="AA19" s="9">
         <f t="shared" si="8"/>
         <v>66.108000000000004</v>
       </c>
-      <c r="AB19" s="10">
+      <c r="AB19" s="9">
         <f t="shared" si="8"/>
         <v>64.064000000000007</v>
       </c>
-      <c r="AC19" s="10">
+      <c r="AC19" s="9">
         <f t="shared" si="8"/>
         <v>63.616000000000014</v>
       </c>
-      <c r="AD19" s="10">
+      <c r="AD19" s="9">
         <f t="shared" si="8"/>
         <v>64.512000000000015</v>
       </c>
-      <c r="AE19" s="10">
+      <c r="AE19" s="9">
         <f t="shared" si="8"/>
         <v>66.500000000000014</v>
       </c>
-      <c r="AF19" s="10">
+      <c r="AF19" s="9">
         <f t="shared" si="8"/>
         <v>69.328000000000017</v>
       </c>
-      <c r="AG19" s="10">
+      <c r="AG19" s="9">
         <f t="shared" si="8"/>
         <v>72.744000000000014</v>
       </c>
-      <c r="AH19" s="10">
+      <c r="AH19" s="9">
         <f t="shared" si="8"/>
         <v>76.496000000000009</v>
       </c>
-      <c r="AI19" s="10">
+      <c r="AI19" s="9">
         <f t="shared" si="8"/>
         <v>80.332000000000008</v>
       </c>
-      <c r="AJ19" s="10">
+      <c r="AJ19" s="9">
         <f t="shared" si="8"/>
         <v>84.000000000000028</v>
       </c>
-      <c r="AK19" s="10">
+      <c r="AK19" s="9">
         <f t="shared" si="8"/>
         <v>87.248000000000019</v>
       </c>
-      <c r="AL19" s="10">
+      <c r="AL19" s="9">
         <f t="shared" si="8"/>
         <v>89.823999999999998</v>
       </c>
-      <c r="AM19" s="10">
+      <c r="AM19" s="9">
         <f t="shared" si="8"/>
         <v>91.476000000000028</v>
       </c>
-      <c r="AN19" s="10">
+      <c r="AN19" s="9">
         <f t="shared" si="8"/>
         <v>91.952000000000012</v>
       </c>
-      <c r="AO19" s="10">
+      <c r="AO19" s="9">
         <f t="shared" si="8"/>
         <v>91.000000000000028</v>
       </c>
-      <c r="AP19" s="10">
+      <c r="AP19" s="9">
         <f t="shared" si="12"/>
         <v>88.368000000000009</v>
       </c>
-      <c r="AQ19" s="10">
+      <c r="AQ19" s="9">
         <f t="shared" si="12"/>
         <v>83.804000000000002</v>
       </c>
-      <c r="AR19" s="10">
+      <c r="AR19" s="9">
         <f t="shared" si="12"/>
         <v>77.055999999999983</v>
       </c>
-      <c r="AS19" s="10">
+      <c r="AS19" s="9">
         <f t="shared" si="12"/>
         <v>67.871999999999957</v>
       </c>
-      <c r="AT19" s="10">
+      <c r="AT19" s="9">
         <f t="shared" si="12"/>
         <v>55.999999999999986</v>
       </c>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="17">
         <f t="shared" si="9"/>
         <v>1.7000000000000004</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <f t="shared" si="6"/>
         <v>29.450000000000006</v>
       </c>
@@ -4426,110 +4254,110 @@
         <f t="shared" si="11"/>
         <v>1.5199999999999925</v>
       </c>
-      <c r="V20" s="5">
+      <c r="V20" s="4">
         <f t="shared" si="11"/>
         <v>0.64999999999999325</v>
       </c>
-      <c r="W20" s="7">
+      <c r="W20" s="6">
         <f t="shared" si="7"/>
         <v>0.64999999999999325</v>
       </c>
       <c r="X20" s="3"/>
-      <c r="Y20" s="19">
+      <c r="Y20" s="17">
         <f t="shared" si="10"/>
         <v>1.7000000000000004</v>
       </c>
-      <c r="Z20" s="10">
+      <c r="Z20" s="9">
         <f t="shared" si="8"/>
         <v>78.500000000000028</v>
       </c>
-      <c r="AA20" s="10">
+      <c r="AA20" s="9">
         <f t="shared" si="8"/>
         <v>74.135400000000018</v>
       </c>
-      <c r="AB20" s="10">
+      <c r="AB20" s="9">
         <f t="shared" si="8"/>
         <v>71.843200000000024</v>
       </c>
-      <c r="AC20" s="10">
+      <c r="AC20" s="9">
         <f t="shared" si="8"/>
         <v>71.340800000000016</v>
       </c>
-      <c r="AD20" s="10">
+      <c r="AD20" s="9">
         <f t="shared" si="8"/>
         <v>72.345600000000019</v>
       </c>
-      <c r="AE20" s="10">
+      <c r="AE20" s="9">
         <f t="shared" si="8"/>
         <v>74.575000000000031</v>
       </c>
-      <c r="AF20" s="10">
+      <c r="AF20" s="9">
         <f t="shared" si="8"/>
         <v>77.746400000000037</v>
       </c>
-      <c r="AG20" s="10">
+      <c r="AG20" s="9">
         <f t="shared" si="8"/>
         <v>81.577200000000033</v>
       </c>
-      <c r="AH20" s="10">
+      <c r="AH20" s="9">
         <f t="shared" si="8"/>
         <v>85.784800000000033</v>
       </c>
-      <c r="AI20" s="10">
+      <c r="AI20" s="9">
         <f t="shared" si="8"/>
         <v>90.086600000000033</v>
       </c>
-      <c r="AJ20" s="10">
+      <c r="AJ20" s="9">
         <f t="shared" si="8"/>
         <v>94.200000000000045</v>
       </c>
-      <c r="AK20" s="10">
+      <c r="AK20" s="9">
         <f t="shared" si="8"/>
         <v>97.842400000000026</v>
       </c>
-      <c r="AL20" s="10">
+      <c r="AL20" s="9">
         <f t="shared" si="8"/>
         <v>100.73120000000002</v>
       </c>
-      <c r="AM20" s="10">
+      <c r="AM20" s="9">
         <f t="shared" si="8"/>
         <v>102.58380000000004</v>
       </c>
-      <c r="AN20" s="10">
+      <c r="AN20" s="9">
         <f t="shared" si="8"/>
         <v>103.11760000000004</v>
       </c>
-      <c r="AO20" s="10">
+      <c r="AO20" s="9">
         <f t="shared" si="8"/>
         <v>102.05000000000005</v>
       </c>
-      <c r="AP20" s="10">
+      <c r="AP20" s="9">
         <f t="shared" si="12"/>
         <v>99.098400000000026</v>
       </c>
-      <c r="AQ20" s="10">
+      <c r="AQ20" s="9">
         <f t="shared" si="12"/>
         <v>93.980200000000025</v>
       </c>
-      <c r="AR20" s="10">
+      <c r="AR20" s="9">
         <f t="shared" si="12"/>
         <v>86.41279999999999</v>
       </c>
-      <c r="AS20" s="10">
+      <c r="AS20" s="9">
         <f t="shared" si="12"/>
         <v>76.113599999999963</v>
       </c>
-      <c r="AT20" s="10">
+      <c r="AT20" s="9">
         <f t="shared" si="12"/>
         <v>62.8</v>
       </c>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+      <c r="A21" s="17">
         <f t="shared" si="9"/>
         <v>1.8000000000000005</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <f t="shared" si="6"/>
         <v>31.200000000000006</v>
       </c>
@@ -4609,110 +4437,110 @@
         <f t="shared" si="11"/>
         <v>0.98999999999999133</v>
       </c>
-      <c r="V21" s="5">
+      <c r="V21" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W21" s="7">
+      <c r="W21" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X21" s="3"/>
-      <c r="Y21" s="19">
+      <c r="Y21" s="17">
         <f t="shared" si="10"/>
         <v>1.8000000000000005</v>
       </c>
-      <c r="Z21" s="10">
+      <c r="Z21" s="9">
         <f t="shared" si="8"/>
         <v>88.000000000000028</v>
       </c>
-      <c r="AA21" s="10">
+      <c r="AA21" s="9">
         <f t="shared" si="8"/>
         <v>83.10720000000002</v>
       </c>
-      <c r="AB21" s="10">
+      <c r="AB21" s="9">
         <f t="shared" si="8"/>
         <v>80.537600000000012</v>
       </c>
-      <c r="AC21" s="10">
+      <c r="AC21" s="9">
         <f t="shared" si="8"/>
         <v>79.974400000000017</v>
       </c>
-      <c r="AD21" s="10">
+      <c r="AD21" s="9">
         <f t="shared" si="8"/>
         <v>81.100800000000021</v>
       </c>
-      <c r="AE21" s="10">
+      <c r="AE21" s="9">
         <f t="shared" si="8"/>
         <v>83.600000000000023</v>
       </c>
-      <c r="AF21" s="10">
+      <c r="AF21" s="9">
         <f t="shared" si="8"/>
         <v>87.155200000000022</v>
       </c>
-      <c r="AG21" s="10">
+      <c r="AG21" s="9">
         <f t="shared" si="8"/>
         <v>91.449600000000018</v>
       </c>
-      <c r="AH21" s="10">
+      <c r="AH21" s="9">
         <f t="shared" si="8"/>
         <v>96.166400000000024</v>
       </c>
-      <c r="AI21" s="10">
+      <c r="AI21" s="9">
         <f t="shared" si="8"/>
         <v>100.98880000000003</v>
       </c>
-      <c r="AJ21" s="10">
+      <c r="AJ21" s="9">
         <f t="shared" si="8"/>
         <v>105.60000000000002</v>
       </c>
-      <c r="AK21" s="10">
+      <c r="AK21" s="9">
         <f t="shared" si="8"/>
         <v>109.68320000000001</v>
       </c>
-      <c r="AL21" s="10">
+      <c r="AL21" s="9">
         <f t="shared" si="8"/>
         <v>112.92160000000001</v>
       </c>
-      <c r="AM21" s="10">
+      <c r="AM21" s="9">
         <f t="shared" si="8"/>
         <v>114.99840000000003</v>
       </c>
-      <c r="AN21" s="10">
+      <c r="AN21" s="9">
         <f t="shared" si="8"/>
         <v>115.59680000000003</v>
       </c>
-      <c r="AO21" s="10">
+      <c r="AO21" s="9">
         <f t="shared" si="8"/>
         <v>114.40000000000005</v>
       </c>
-      <c r="AP21" s="10">
+      <c r="AP21" s="9">
         <f t="shared" si="12"/>
         <v>111.09120000000001</v>
       </c>
-      <c r="AQ21" s="10">
+      <c r="AQ21" s="9">
         <f t="shared" si="12"/>
         <v>105.35360000000001</v>
       </c>
-      <c r="AR21" s="10">
+      <c r="AR21" s="9">
         <f t="shared" si="12"/>
         <v>96.870399999999975</v>
       </c>
-      <c r="AS21" s="10">
+      <c r="AS21" s="9">
         <f t="shared" si="12"/>
         <v>85.324799999999939</v>
       </c>
-      <c r="AT21" s="10">
+      <c r="AT21" s="9">
         <f t="shared" si="12"/>
         <v>70.399999999999991</v>
       </c>
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="17">
         <f t="shared" si="9"/>
         <v>1.9000000000000006</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <f t="shared" si="6"/>
         <v>33.050000000000011</v>
       </c>
@@ -4792,110 +4620,110 @@
         <f t="shared" si="11"/>
         <v>0.55999999999998806</v>
       </c>
-      <c r="V22" s="5">
+      <c r="V22" s="4">
         <f t="shared" si="11"/>
         <v>-0.55000000000000604</v>
       </c>
-      <c r="W22" s="7">
+      <c r="W22" s="6">
         <f t="shared" si="7"/>
         <v>-0.55000000000000604</v>
       </c>
       <c r="X22" s="3"/>
-      <c r="Y22" s="19">
+      <c r="Y22" s="17">
         <f t="shared" si="10"/>
         <v>1.9000000000000006</v>
       </c>
-      <c r="Z22" s="10">
+      <c r="Z22" s="9">
         <f t="shared" si="8"/>
         <v>98.500000000000071</v>
       </c>
-      <c r="AA22" s="10">
+      <c r="AA22" s="9">
         <f t="shared" si="8"/>
         <v>93.023400000000052</v>
       </c>
-      <c r="AB22" s="10">
+      <c r="AB22" s="9">
         <f t="shared" si="8"/>
         <v>90.147200000000055</v>
       </c>
-      <c r="AC22" s="10">
+      <c r="AC22" s="9">
         <f t="shared" si="8"/>
         <v>89.51680000000006</v>
       </c>
-      <c r="AD22" s="10">
+      <c r="AD22" s="9">
         <f t="shared" si="8"/>
         <v>90.777600000000049</v>
       </c>
-      <c r="AE22" s="10">
+      <c r="AE22" s="9">
         <f t="shared" si="8"/>
         <v>93.57500000000006</v>
       </c>
-      <c r="AF22" s="10">
+      <c r="AF22" s="9">
         <f t="shared" si="8"/>
         <v>97.554400000000072</v>
       </c>
-      <c r="AG22" s="10">
+      <c r="AG22" s="9">
         <f t="shared" si="8"/>
         <v>102.36120000000007</v>
       </c>
-      <c r="AH22" s="10">
+      <c r="AH22" s="9">
         <f t="shared" si="8"/>
         <v>107.64080000000007</v>
       </c>
-      <c r="AI22" s="10">
+      <c r="AI22" s="9">
         <f t="shared" si="8"/>
         <v>113.03860000000007</v>
       </c>
-      <c r="AJ22" s="10">
+      <c r="AJ22" s="9">
         <f t="shared" si="8"/>
         <v>118.20000000000007</v>
       </c>
-      <c r="AK22" s="10">
+      <c r="AK22" s="9">
         <f t="shared" si="8"/>
         <v>122.77040000000007</v>
       </c>
-      <c r="AL22" s="10">
+      <c r="AL22" s="9">
         <f t="shared" si="8"/>
         <v>126.39520000000006</v>
       </c>
-      <c r="AM22" s="10">
+      <c r="AM22" s="9">
         <f t="shared" si="8"/>
         <v>128.71980000000008</v>
       </c>
-      <c r="AN22" s="10">
+      <c r="AN22" s="9">
         <f t="shared" si="8"/>
         <v>129.38960000000009</v>
       </c>
-      <c r="AO22" s="10">
+      <c r="AO22" s="9">
         <f t="shared" si="8"/>
         <v>128.0500000000001</v>
       </c>
-      <c r="AP22" s="10">
+      <c r="AP22" s="9">
         <f t="shared" si="12"/>
         <v>124.34640000000007</v>
       </c>
-      <c r="AQ22" s="10">
+      <c r="AQ22" s="9">
         <f t="shared" si="12"/>
         <v>117.92420000000006</v>
       </c>
-      <c r="AR22" s="10">
+      <c r="AR22" s="9">
         <f t="shared" si="12"/>
         <v>108.42880000000001</v>
       </c>
-      <c r="AS22" s="10">
+      <c r="AS22" s="9">
         <f t="shared" si="12"/>
         <v>95.505599999999973</v>
       </c>
-      <c r="AT22" s="10">
+      <c r="AT22" s="9">
         <f t="shared" si="12"/>
         <v>78.800000000000026</v>
       </c>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <f t="shared" si="9"/>
         <v>2.0000000000000004</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <f t="shared" si="6"/>
         <v>35.000000000000007</v>
       </c>
@@ -4975,110 +4803,110 @@
         <f t="shared" si="11"/>
         <v>0.22999999999998266</v>
       </c>
-      <c r="V23" s="5">
+      <c r="V23" s="4">
         <f t="shared" si="11"/>
         <v>-1.0000000000000142</v>
       </c>
-      <c r="W23" s="7">
+      <c r="W23" s="6">
         <f t="shared" si="7"/>
         <v>-1.0000000000000142</v>
       </c>
       <c r="X23" s="3"/>
-      <c r="Y23" s="19">
+      <c r="Y23" s="17">
         <f t="shared" si="10"/>
         <v>2.0000000000000004</v>
       </c>
-      <c r="Z23" s="10">
+      <c r="Z23" s="9">
         <f t="shared" si="8"/>
         <v>110.00000000000003</v>
       </c>
-      <c r="AA23" s="10">
+      <c r="AA23" s="9">
         <f t="shared" si="8"/>
         <v>103.88400000000003</v>
       </c>
-      <c r="AB23" s="10">
+      <c r="AB23" s="9">
         <f t="shared" si="8"/>
         <v>100.67200000000003</v>
       </c>
-      <c r="AC23" s="10">
+      <c r="AC23" s="9">
         <f t="shared" si="8"/>
         <v>99.968000000000018</v>
       </c>
-      <c r="AD23" s="10">
+      <c r="AD23" s="9">
         <f t="shared" si="8"/>
         <v>101.37600000000002</v>
       </c>
-      <c r="AE23" s="10">
+      <c r="AE23" s="9">
         <f t="shared" si="8"/>
         <v>104.50000000000003</v>
       </c>
-      <c r="AF23" s="10">
+      <c r="AF23" s="9">
         <f t="shared" si="8"/>
         <v>108.94400000000003</v>
       </c>
-      <c r="AG23" s="10">
+      <c r="AG23" s="9">
         <f t="shared" si="8"/>
         <v>114.31200000000003</v>
       </c>
-      <c r="AH23" s="10">
+      <c r="AH23" s="9">
         <f t="shared" si="8"/>
         <v>120.20800000000003</v>
       </c>
-      <c r="AI23" s="10">
+      <c r="AI23" s="9">
         <f t="shared" si="8"/>
         <v>126.23600000000003</v>
       </c>
-      <c r="AJ23" s="10">
+      <c r="AJ23" s="9">
         <f t="shared" si="8"/>
         <v>132.00000000000006</v>
       </c>
-      <c r="AK23" s="10">
+      <c r="AK23" s="9">
         <f t="shared" si="8"/>
         <v>137.10400000000004</v>
       </c>
-      <c r="AL23" s="10">
+      <c r="AL23" s="9">
         <f t="shared" si="8"/>
         <v>141.15200000000002</v>
       </c>
-      <c r="AM23" s="10">
+      <c r="AM23" s="9">
         <f t="shared" si="8"/>
         <v>143.74800000000005</v>
       </c>
-      <c r="AN23" s="10">
+      <c r="AN23" s="9">
         <f t="shared" si="8"/>
         <v>144.49600000000004</v>
       </c>
-      <c r="AO23" s="10">
+      <c r="AO23" s="9">
         <f t="shared" si="8"/>
         <v>143.00000000000006</v>
       </c>
-      <c r="AP23" s="10">
+      <c r="AP23" s="9">
         <f t="shared" si="12"/>
         <v>138.86400000000003</v>
       </c>
-      <c r="AQ23" s="10">
+      <c r="AQ23" s="9">
         <f t="shared" si="12"/>
         <v>131.69200000000001</v>
       </c>
-      <c r="AR23" s="10">
+      <c r="AR23" s="9">
         <f t="shared" si="12"/>
         <v>121.08799999999997</v>
       </c>
-      <c r="AS23" s="10">
+      <c r="AS23" s="9">
         <f t="shared" si="12"/>
         <v>106.65599999999993</v>
       </c>
-      <c r="AT23" s="10">
+      <c r="AT23" s="9">
         <f t="shared" si="12"/>
         <v>87.999999999999986</v>
       </c>
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="17">
         <f>A23+0.1</f>
         <v>2.1000000000000005</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <f t="shared" si="6"/>
         <v>37.050000000000011</v>
       </c>
@@ -5158,110 +4986,110 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V24" s="5">
+      <c r="V24" s="4">
         <f t="shared" si="11"/>
         <v>-1.3500000000000085</v>
       </c>
-      <c r="W24" s="7">
+      <c r="W24" s="6">
         <f t="shared" si="7"/>
         <v>-1.3500000000000085</v>
       </c>
       <c r="X24" s="3"/>
-      <c r="Y24" s="19">
+      <c r="Y24" s="17">
         <f>Y23+0.1</f>
         <v>2.1000000000000005</v>
       </c>
-      <c r="Z24" s="10">
+      <c r="Z24" s="9">
         <f t="shared" si="8"/>
         <v>122.50000000000007</v>
       </c>
-      <c r="AA24" s="10">
+      <c r="AA24" s="9">
         <f t="shared" si="8"/>
         <v>115.68900000000005</v>
       </c>
-      <c r="AB24" s="10">
+      <c r="AB24" s="9">
         <f t="shared" si="8"/>
         <v>112.11200000000005</v>
       </c>
-      <c r="AC24" s="10">
+      <c r="AC24" s="9">
         <f t="shared" si="8"/>
         <v>111.32800000000006</v>
       </c>
-      <c r="AD24" s="10">
+      <c r="AD24" s="9">
         <f t="shared" si="8"/>
         <v>112.89600000000006</v>
       </c>
-      <c r="AE24" s="10">
+      <c r="AE24" s="9">
         <f t="shared" si="8"/>
         <v>116.37500000000007</v>
       </c>
-      <c r="AF24" s="10">
+      <c r="AF24" s="9">
         <f t="shared" si="8"/>
         <v>121.32400000000007</v>
       </c>
-      <c r="AG24" s="10">
+      <c r="AG24" s="9">
         <f t="shared" si="8"/>
         <v>127.30200000000006</v>
       </c>
-      <c r="AH24" s="10">
+      <c r="AH24" s="9">
         <f t="shared" si="8"/>
         <v>133.86800000000005</v>
       </c>
-      <c r="AI24" s="10">
+      <c r="AI24" s="9">
         <f t="shared" si="8"/>
         <v>140.58100000000007</v>
       </c>
-      <c r="AJ24" s="10">
+      <c r="AJ24" s="9">
         <f t="shared" si="8"/>
         <v>147.00000000000009</v>
       </c>
-      <c r="AK24" s="10">
+      <c r="AK24" s="9">
         <f t="shared" si="8"/>
         <v>152.68400000000008</v>
       </c>
-      <c r="AL24" s="10">
+      <c r="AL24" s="9">
         <f t="shared" si="8"/>
         <v>157.19200000000006</v>
       </c>
-      <c r="AM24" s="10">
+      <c r="AM24" s="9">
         <f t="shared" si="8"/>
         <v>160.08300000000008</v>
       </c>
-      <c r="AN24" s="10">
+      <c r="AN24" s="9">
         <f t="shared" si="8"/>
         <v>160.91600000000008</v>
       </c>
-      <c r="AO24" s="10">
+      <c r="AO24" s="9">
         <f t="shared" si="8"/>
         <v>159.25000000000011</v>
       </c>
-      <c r="AP24" s="10">
+      <c r="AP24" s="9">
         <f t="shared" si="12"/>
         <v>154.64400000000006</v>
       </c>
-      <c r="AQ24" s="10">
+      <c r="AQ24" s="9">
         <f t="shared" si="12"/>
         <v>146.65700000000007</v>
       </c>
-      <c r="AR24" s="10">
+      <c r="AR24" s="9">
         <f t="shared" si="12"/>
         <v>134.84800000000001</v>
       </c>
-      <c r="AS24" s="10">
+      <c r="AS24" s="9">
         <f t="shared" si="12"/>
         <v>118.77599999999995</v>
       </c>
-      <c r="AT24" s="10">
+      <c r="AT24" s="9">
         <f t="shared" si="12"/>
         <v>98.000000000000014</v>
       </c>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+      <c r="A25" s="17">
         <f t="shared" si="9"/>
         <v>2.2000000000000006</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <f t="shared" si="6"/>
         <v>39.200000000000017</v>
       </c>
@@ -5341,110 +5169,110 @@
         <f t="shared" si="11"/>
         <v>-0.13000000000000611</v>
       </c>
-      <c r="V25" s="5">
+      <c r="V25" s="4">
         <f t="shared" si="11"/>
         <v>-1.6000000000000085</v>
       </c>
-      <c r="W25" s="7">
+      <c r="W25" s="6">
         <f t="shared" si="7"/>
         <v>-1.6000000000000085</v>
       </c>
       <c r="X25" s="3"/>
-      <c r="Y25" s="19">
+      <c r="Y25" s="17">
         <f t="shared" ref="Y25:Y33" si="13">Y24+0.1</f>
         <v>2.2000000000000006</v>
       </c>
-      <c r="Z25" s="10">
+      <c r="Z25" s="9">
         <f t="shared" si="8"/>
         <v>136.00000000000009</v>
       </c>
-      <c r="AA25" s="10">
+      <c r="AA25" s="9">
         <f t="shared" si="8"/>
         <v>128.43840000000006</v>
       </c>
-      <c r="AB25" s="10">
+      <c r="AB25" s="9">
         <f t="shared" si="8"/>
         <v>124.46720000000006</v>
       </c>
-      <c r="AC25" s="10">
+      <c r="AC25" s="9">
         <f t="shared" si="8"/>
         <v>123.59680000000007</v>
       </c>
-      <c r="AD25" s="10">
+      <c r="AD25" s="9">
         <f t="shared" si="8"/>
         <v>125.33760000000007</v>
       </c>
-      <c r="AE25" s="10">
+      <c r="AE25" s="9">
         <f t="shared" si="8"/>
         <v>129.20000000000007</v>
       </c>
-      <c r="AF25" s="10">
+      <c r="AF25" s="9">
         <f t="shared" si="8"/>
         <v>134.69440000000009</v>
       </c>
-      <c r="AG25" s="10">
+      <c r="AG25" s="9">
         <f t="shared" si="8"/>
         <v>141.33120000000008</v>
       </c>
-      <c r="AH25" s="10">
+      <c r="AH25" s="9">
         <f t="shared" si="8"/>
         <v>148.62080000000009</v>
       </c>
-      <c r="AI25" s="10">
+      <c r="AI25" s="9">
         <f t="shared" si="8"/>
         <v>156.07360000000008</v>
       </c>
-      <c r="AJ25" s="10">
+      <c r="AJ25" s="9">
         <f t="shared" si="8"/>
         <v>163.2000000000001</v>
       </c>
-      <c r="AK25" s="10">
+      <c r="AK25" s="9">
         <f t="shared" si="8"/>
         <v>169.51040000000009</v>
       </c>
-      <c r="AL25" s="10">
+      <c r="AL25" s="9">
         <f t="shared" si="8"/>
         <v>174.51520000000008</v>
       </c>
-      <c r="AM25" s="10">
+      <c r="AM25" s="9">
         <f t="shared" si="8"/>
         <v>177.7248000000001</v>
       </c>
-      <c r="AN25" s="10">
+      <c r="AN25" s="9">
         <f t="shared" si="8"/>
         <v>178.64960000000011</v>
       </c>
-      <c r="AO25" s="10">
+      <c r="AO25" s="9">
         <f t="shared" si="8"/>
         <v>176.80000000000013</v>
       </c>
-      <c r="AP25" s="10">
+      <c r="AP25" s="9">
         <f t="shared" si="12"/>
         <v>171.68640000000008</v>
       </c>
-      <c r="AQ25" s="10">
+      <c r="AQ25" s="9">
         <f t="shared" si="12"/>
         <v>162.81920000000008</v>
       </c>
-      <c r="AR25" s="10">
+      <c r="AR25" s="9">
         <f t="shared" si="12"/>
         <v>149.7088</v>
       </c>
-      <c r="AS25" s="10">
+      <c r="AS25" s="9">
         <f t="shared" si="12"/>
         <v>131.86559999999997</v>
       </c>
-      <c r="AT25" s="10">
+      <c r="AT25" s="9">
         <f t="shared" si="12"/>
         <v>108.80000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="17">
         <f t="shared" si="9"/>
         <v>2.3000000000000007</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <f t="shared" si="6"/>
         <v>41.450000000000017</v>
       </c>
@@ -5524,110 +5352,110 @@
         <f t="shared" si="11"/>
         <v>-0.1600000000000108</v>
       </c>
-      <c r="V26" s="5">
+      <c r="V26" s="4">
         <f t="shared" si="11"/>
         <v>-1.7500000000000071</v>
       </c>
-      <c r="W26" s="7">
+      <c r="W26" s="6">
         <f t="shared" si="7"/>
         <v>-1.7500000000000071</v>
       </c>
       <c r="X26" s="3"/>
-      <c r="Y26" s="19">
+      <c r="Y26" s="17">
         <f t="shared" si="13"/>
         <v>2.3000000000000007</v>
       </c>
-      <c r="Z26" s="10">
+      <c r="Z26" s="9">
         <f t="shared" si="8"/>
         <v>150.50000000000011</v>
       </c>
-      <c r="AA26" s="10">
+      <c r="AA26" s="9">
         <f t="shared" si="8"/>
         <v>142.1322000000001</v>
       </c>
-      <c r="AB26" s="10">
+      <c r="AB26" s="9">
         <f t="shared" si="8"/>
         <v>137.7376000000001</v>
       </c>
-      <c r="AC26" s="10">
+      <c r="AC26" s="9">
         <f t="shared" si="8"/>
         <v>136.7744000000001</v>
       </c>
-      <c r="AD26" s="10">
+      <c r="AD26" s="9">
         <f t="shared" si="8"/>
         <v>138.7008000000001</v>
       </c>
-      <c r="AE26" s="10">
+      <c r="AE26" s="9">
         <f t="shared" si="8"/>
         <v>142.97500000000011</v>
       </c>
-      <c r="AF26" s="10">
+      <c r="AF26" s="9">
         <f t="shared" si="8"/>
         <v>149.0552000000001</v>
       </c>
-      <c r="AG26" s="10">
+      <c r="AG26" s="9">
         <f t="shared" si="8"/>
         <v>156.39960000000011</v>
       </c>
-      <c r="AH26" s="10">
+      <c r="AH26" s="9">
         <f t="shared" si="8"/>
         <v>164.46640000000011</v>
       </c>
-      <c r="AI26" s="10">
+      <c r="AI26" s="9">
         <f t="shared" si="8"/>
         <v>172.71380000000011</v>
       </c>
-      <c r="AJ26" s="10">
+      <c r="AJ26" s="9">
         <f t="shared" si="8"/>
         <v>180.60000000000014</v>
       </c>
-      <c r="AK26" s="10">
+      <c r="AK26" s="9">
         <f t="shared" si="8"/>
         <v>187.58320000000012</v>
       </c>
-      <c r="AL26" s="10">
+      <c r="AL26" s="9">
         <f t="shared" si="8"/>
         <v>193.12160000000011</v>
       </c>
-      <c r="AM26" s="10">
+      <c r="AM26" s="9">
         <f t="shared" si="8"/>
         <v>196.67340000000013</v>
       </c>
-      <c r="AN26" s="10">
+      <c r="AN26" s="9">
         <f t="shared" si="8"/>
         <v>197.69680000000014</v>
       </c>
-      <c r="AO26" s="10">
+      <c r="AO26" s="9">
         <f t="shared" si="8"/>
         <v>195.65000000000018</v>
       </c>
-      <c r="AP26" s="10">
+      <c r="AP26" s="9">
         <f t="shared" si="12"/>
         <v>189.99120000000013</v>
       </c>
-      <c r="AQ26" s="10">
+      <c r="AQ26" s="9">
         <f t="shared" si="12"/>
         <v>180.1786000000001</v>
       </c>
-      <c r="AR26" s="10">
+      <c r="AR26" s="9">
         <f t="shared" si="12"/>
         <v>165.67040000000003</v>
       </c>
-      <c r="AS26" s="10">
+      <c r="AS26" s="9">
         <f t="shared" si="12"/>
         <v>145.92479999999998</v>
       </c>
-      <c r="AT26" s="10">
+      <c r="AT26" s="9">
         <f t="shared" si="12"/>
         <v>120.40000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
+      <c r="A27" s="17">
         <f t="shared" si="9"/>
         <v>2.4000000000000008</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <f t="shared" si="6"/>
         <v>43.800000000000026</v>
       </c>
@@ -5707,110 +5535,110 @@
         <f t="shared" si="11"/>
         <v>-9.0000000000014069E-2</v>
       </c>
-      <c r="V27" s="5">
+      <c r="V27" s="4">
         <f t="shared" si="11"/>
         <v>-1.8000000000000114</v>
       </c>
-      <c r="W27" s="7">
+      <c r="W27" s="6">
         <f t="shared" si="7"/>
         <v>-1.8000000000000114</v>
       </c>
       <c r="X27" s="3"/>
-      <c r="Y27" s="19">
+      <c r="Y27" s="17">
         <f t="shared" si="13"/>
         <v>2.4000000000000008</v>
       </c>
-      <c r="Z27" s="10">
+      <c r="Z27" s="9">
         <f t="shared" si="8"/>
         <v>166.00000000000017</v>
       </c>
-      <c r="AA27" s="10">
+      <c r="AA27" s="9">
         <f t="shared" si="8"/>
         <v>156.77040000000014</v>
       </c>
-      <c r="AB27" s="10">
+      <c r="AB27" s="9">
         <f t="shared" si="8"/>
         <v>151.92320000000012</v>
       </c>
-      <c r="AC27" s="10">
+      <c r="AC27" s="9">
         <f t="shared" si="8"/>
         <v>150.86080000000013</v>
       </c>
-      <c r="AD27" s="10">
+      <c r="AD27" s="9">
         <f t="shared" si="8"/>
         <v>152.98560000000012</v>
       </c>
-      <c r="AE27" s="10">
+      <c r="AE27" s="9">
         <f t="shared" si="8"/>
         <v>157.70000000000016</v>
       </c>
-      <c r="AF27" s="10">
+      <c r="AF27" s="9">
         <f t="shared" si="8"/>
         <v>164.40640000000016</v>
       </c>
-      <c r="AG27" s="10">
+      <c r="AG27" s="9">
         <f t="shared" si="8"/>
         <v>172.50720000000015</v>
       </c>
-      <c r="AH27" s="10">
+      <c r="AH27" s="9">
         <f t="shared" si="8"/>
         <v>181.40480000000017</v>
       </c>
-      <c r="AI27" s="10">
+      <c r="AI27" s="9">
         <f t="shared" si="8"/>
         <v>190.50160000000017</v>
       </c>
-      <c r="AJ27" s="10">
+      <c r="AJ27" s="9">
         <f t="shared" si="8"/>
         <v>199.20000000000019</v>
       </c>
-      <c r="AK27" s="10">
+      <c r="AK27" s="9">
         <f t="shared" si="8"/>
         <v>206.90240000000017</v>
       </c>
-      <c r="AL27" s="10">
+      <c r="AL27" s="9">
         <f t="shared" si="8"/>
         <v>213.01120000000014</v>
       </c>
-      <c r="AM27" s="10">
+      <c r="AM27" s="9">
         <f t="shared" si="8"/>
         <v>216.92880000000019</v>
       </c>
-      <c r="AN27" s="10">
+      <c r="AN27" s="9">
         <f t="shared" si="8"/>
         <v>218.05760000000021</v>
       </c>
-      <c r="AO27" s="10">
+      <c r="AO27" s="9">
         <f t="shared" si="8"/>
         <v>215.80000000000024</v>
       </c>
-      <c r="AP27" s="10">
+      <c r="AP27" s="9">
         <f t="shared" si="12"/>
         <v>209.55840000000018</v>
       </c>
-      <c r="AQ27" s="10">
+      <c r="AQ27" s="9">
         <f t="shared" si="12"/>
         <v>198.73520000000016</v>
       </c>
-      <c r="AR27" s="10">
+      <c r="AR27" s="9">
         <f t="shared" si="12"/>
         <v>182.73280000000008</v>
       </c>
-      <c r="AS27" s="10">
+      <c r="AS27" s="9">
         <f t="shared" si="12"/>
         <v>160.95359999999999</v>
       </c>
-      <c r="AT27" s="10">
+      <c r="AT27" s="9">
         <f t="shared" si="12"/>
         <v>132.80000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="17">
         <f t="shared" si="9"/>
         <v>2.5000000000000009</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <f t="shared" si="6"/>
         <v>46.250000000000021</v>
       </c>
@@ -5890,110 +5718,110 @@
         <f t="shared" si="11"/>
         <v>7.9999999999991189E-2</v>
       </c>
-      <c r="V28" s="5">
+      <c r="V28" s="4">
         <f t="shared" si="11"/>
         <v>-1.7500000000000071</v>
       </c>
-      <c r="W28" s="7">
+      <c r="W28" s="6">
         <f t="shared" si="7"/>
         <v>-1.7500000000000071</v>
       </c>
       <c r="X28" s="3"/>
-      <c r="Y28" s="19">
+      <c r="Y28" s="17">
         <f t="shared" si="13"/>
         <v>2.5000000000000009</v>
       </c>
-      <c r="Z28" s="10">
+      <c r="Z28" s="9">
         <f t="shared" si="8"/>
         <v>182.50000000000014</v>
       </c>
-      <c r="AA28" s="10">
+      <c r="AA28" s="9">
         <f t="shared" si="8"/>
         <v>172.35300000000012</v>
       </c>
-      <c r="AB28" s="10">
+      <c r="AB28" s="9">
         <f t="shared" si="8"/>
         <v>167.02400000000011</v>
       </c>
-      <c r="AC28" s="10">
+      <c r="AC28" s="9">
         <f t="shared" si="8"/>
         <v>165.85600000000011</v>
       </c>
-      <c r="AD28" s="10">
+      <c r="AD28" s="9">
         <f t="shared" si="8"/>
         <v>168.19200000000012</v>
       </c>
-      <c r="AE28" s="10">
+      <c r="AE28" s="9">
         <f t="shared" si="8"/>
         <v>173.37500000000014</v>
       </c>
-      <c r="AF28" s="10">
+      <c r="AF28" s="9">
         <f t="shared" si="8"/>
         <v>180.74800000000013</v>
       </c>
-      <c r="AG28" s="10">
+      <c r="AG28" s="9">
         <f t="shared" si="8"/>
         <v>189.65400000000014</v>
       </c>
-      <c r="AH28" s="10">
+      <c r="AH28" s="9">
         <f t="shared" si="8"/>
         <v>199.43600000000015</v>
       </c>
-      <c r="AI28" s="10">
+      <c r="AI28" s="9">
         <f t="shared" si="8"/>
         <v>209.43700000000015</v>
       </c>
-      <c r="AJ28" s="10">
+      <c r="AJ28" s="9">
         <f t="shared" si="8"/>
         <v>219.00000000000017</v>
       </c>
-      <c r="AK28" s="10">
+      <c r="AK28" s="9">
         <f t="shared" si="8"/>
         <v>227.46800000000016</v>
       </c>
-      <c r="AL28" s="10">
+      <c r="AL28" s="9">
         <f t="shared" si="8"/>
         <v>234.18400000000014</v>
       </c>
-      <c r="AM28" s="10">
+      <c r="AM28" s="9">
         <f t="shared" si="8"/>
         <v>238.49100000000018</v>
       </c>
-      <c r="AN28" s="10">
+      <c r="AN28" s="9">
         <f t="shared" si="8"/>
         <v>239.73200000000017</v>
       </c>
-      <c r="AO28" s="10">
+      <c r="AO28" s="9">
         <f t="shared" si="8"/>
         <v>237.25000000000023</v>
       </c>
-      <c r="AP28" s="10">
+      <c r="AP28" s="9">
         <f t="shared" si="12"/>
         <v>230.38800000000015</v>
       </c>
-      <c r="AQ28" s="10">
+      <c r="AQ28" s="9">
         <f t="shared" si="12"/>
         <v>218.48900000000012</v>
       </c>
-      <c r="AR28" s="10">
+      <c r="AR28" s="9">
         <f t="shared" si="12"/>
         <v>200.89600000000004</v>
       </c>
-      <c r="AS28" s="10">
+      <c r="AS28" s="9">
         <f t="shared" si="12"/>
         <v>176.95199999999997</v>
       </c>
-      <c r="AT28" s="10">
+      <c r="AT28" s="9">
         <f t="shared" si="12"/>
         <v>146.00000000000006</v>
       </c>
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A29" s="19">
+      <c r="A29" s="17">
         <f t="shared" si="9"/>
         <v>2.600000000000001</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <f t="shared" si="6"/>
         <v>48.800000000000026</v>
       </c>
@@ -6073,110 +5901,110 @@
         <f t="shared" si="11"/>
         <v>0.34999999999999432</v>
       </c>
-      <c r="V29" s="5">
+      <c r="V29" s="4">
         <f t="shared" si="11"/>
         <v>-1.6000000000000014</v>
       </c>
-      <c r="W29" s="7">
+      <c r="W29" s="6">
         <f t="shared" si="7"/>
         <v>-1.6000000000000014</v>
       </c>
       <c r="X29" s="3"/>
-      <c r="Y29" s="19">
+      <c r="Y29" s="17">
         <f t="shared" si="13"/>
         <v>2.600000000000001</v>
       </c>
-      <c r="Z29" s="10">
+      <c r="Z29" s="9">
         <f t="shared" si="8"/>
         <v>200.00000000000017</v>
       </c>
-      <c r="AA29" s="10">
+      <c r="AA29" s="9">
         <f t="shared" si="8"/>
         <v>188.88000000000014</v>
       </c>
-      <c r="AB29" s="10">
+      <c r="AB29" s="9">
         <f t="shared" si="8"/>
         <v>183.04000000000013</v>
       </c>
-      <c r="AC29" s="10">
+      <c r="AC29" s="9">
         <f t="shared" si="8"/>
         <v>181.76000000000013</v>
       </c>
-      <c r="AD29" s="10">
+      <c r="AD29" s="9">
         <f t="shared" si="8"/>
         <v>184.32000000000016</v>
       </c>
-      <c r="AE29" s="10">
+      <c r="AE29" s="9">
         <f t="shared" si="8"/>
         <v>190.00000000000017</v>
       </c>
-      <c r="AF29" s="10">
+      <c r="AF29" s="9">
         <f t="shared" si="8"/>
         <v>198.08000000000018</v>
       </c>
-      <c r="AG29" s="10">
+      <c r="AG29" s="9">
         <f t="shared" si="8"/>
         <v>207.84000000000017</v>
       </c>
-      <c r="AH29" s="10">
+      <c r="AH29" s="9">
         <f t="shared" si="8"/>
         <v>218.56000000000017</v>
       </c>
-      <c r="AI29" s="10">
+      <c r="AI29" s="9">
         <f t="shared" si="8"/>
         <v>229.52000000000018</v>
       </c>
-      <c r="AJ29" s="10">
+      <c r="AJ29" s="9">
         <f t="shared" si="8"/>
         <v>240.00000000000023</v>
       </c>
-      <c r="AK29" s="10">
+      <c r="AK29" s="9">
         <f t="shared" si="8"/>
         <v>249.2800000000002</v>
       </c>
-      <c r="AL29" s="10">
+      <c r="AL29" s="9">
         <f t="shared" si="8"/>
         <v>256.64000000000016</v>
       </c>
-      <c r="AM29" s="10">
+      <c r="AM29" s="9">
         <f t="shared" si="8"/>
         <v>261.36000000000024</v>
       </c>
-      <c r="AN29" s="10">
+      <c r="AN29" s="9">
         <f t="shared" si="8"/>
         <v>262.7200000000002</v>
       </c>
-      <c r="AO29" s="10">
+      <c r="AO29" s="9">
         <f t="shared" si="8"/>
         <v>260.00000000000028</v>
       </c>
-      <c r="AP29" s="10">
+      <c r="AP29" s="9">
         <f t="shared" si="12"/>
         <v>252.48000000000019</v>
       </c>
-      <c r="AQ29" s="10">
+      <c r="AQ29" s="9">
         <f t="shared" si="12"/>
         <v>239.44000000000017</v>
       </c>
-      <c r="AR29" s="10">
+      <c r="AR29" s="9">
         <f t="shared" si="12"/>
         <v>220.16000000000008</v>
       </c>
-      <c r="AS29" s="10">
+      <c r="AS29" s="9">
         <f t="shared" si="12"/>
         <v>193.92</v>
       </c>
-      <c r="AT29" s="10">
+      <c r="AT29" s="9">
         <f t="shared" si="12"/>
         <v>160.00000000000006</v>
       </c>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+      <c r="A30" s="17">
         <f t="shared" si="9"/>
         <v>2.7000000000000011</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="8">
         <f t="shared" si="6"/>
         <v>51.450000000000024</v>
       </c>
@@ -6256,110 +6084,110 @@
         <f t="shared" si="11"/>
         <v>0.71999999999998465</v>
       </c>
-      <c r="V30" s="5">
+      <c r="V30" s="4">
         <f t="shared" si="11"/>
         <v>-1.3500000000000085</v>
       </c>
-      <c r="W30" s="7">
+      <c r="W30" s="6">
         <f t="shared" si="7"/>
         <v>-1.3500000000000085</v>
       </c>
       <c r="X30" s="3"/>
-      <c r="Y30" s="19">
+      <c r="Y30" s="17">
         <f t="shared" si="13"/>
         <v>2.7000000000000011</v>
       </c>
-      <c r="Z30" s="10">
+      <c r="Z30" s="9">
         <f t="shared" si="8"/>
         <v>218.50000000000017</v>
       </c>
-      <c r="AA30" s="10">
+      <c r="AA30" s="9">
         <f t="shared" si="8"/>
         <v>206.35140000000013</v>
       </c>
-      <c r="AB30" s="10">
+      <c r="AB30" s="9">
         <f t="shared" si="8"/>
         <v>199.97120000000012</v>
       </c>
-      <c r="AC30" s="10">
+      <c r="AC30" s="9">
         <f t="shared" si="8"/>
         <v>198.57280000000011</v>
       </c>
-      <c r="AD30" s="10">
+      <c r="AD30" s="9">
         <f t="shared" si="8"/>
         <v>201.36960000000013</v>
       </c>
-      <c r="AE30" s="10">
+      <c r="AE30" s="9">
         <f t="shared" si="8"/>
         <v>207.57500000000016</v>
       </c>
-      <c r="AF30" s="10">
+      <c r="AF30" s="9">
         <f t="shared" si="8"/>
         <v>216.40240000000014</v>
       </c>
-      <c r="AG30" s="10">
+      <c r="AG30" s="9">
         <f t="shared" si="8"/>
         <v>227.06520000000015</v>
       </c>
-      <c r="AH30" s="10">
+      <c r="AH30" s="9">
         <f t="shared" si="8"/>
         <v>238.77680000000015</v>
       </c>
-      <c r="AI30" s="10">
+      <c r="AI30" s="9">
         <f t="shared" si="8"/>
         <v>250.75060000000016</v>
       </c>
-      <c r="AJ30" s="10">
+      <c r="AJ30" s="9">
         <f t="shared" si="8"/>
         <v>262.20000000000016</v>
       </c>
-      <c r="AK30" s="10">
+      <c r="AK30" s="9">
         <f t="shared" si="8"/>
         <v>272.33840000000015</v>
       </c>
-      <c r="AL30" s="10">
+      <c r="AL30" s="9">
         <f t="shared" si="8"/>
         <v>280.37920000000014</v>
       </c>
-      <c r="AM30" s="10">
+      <c r="AM30" s="9">
         <f t="shared" si="8"/>
         <v>285.53580000000022</v>
       </c>
-      <c r="AN30" s="10">
+      <c r="AN30" s="9">
         <f t="shared" si="8"/>
         <v>287.02160000000021</v>
       </c>
-      <c r="AO30" s="10">
+      <c r="AO30" s="9">
         <f t="shared" si="8"/>
         <v>284.05000000000024</v>
       </c>
-      <c r="AP30" s="10">
+      <c r="AP30" s="9">
         <f t="shared" si="12"/>
         <v>275.83440000000019</v>
       </c>
-      <c r="AQ30" s="10">
+      <c r="AQ30" s="9">
         <f t="shared" si="12"/>
         <v>261.58820000000014</v>
       </c>
-      <c r="AR30" s="10">
+      <c r="AR30" s="9">
         <f t="shared" si="12"/>
         <v>240.52480000000003</v>
       </c>
-      <c r="AS30" s="10">
+      <c r="AS30" s="9">
         <f t="shared" si="12"/>
         <v>211.85759999999996</v>
       </c>
-      <c r="AT30" s="10">
+      <c r="AT30" s="9">
         <f t="shared" si="12"/>
         <v>174.80000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
+      <c r="A31" s="17">
         <f t="shared" si="9"/>
         <v>2.8000000000000012</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="8">
         <f t="shared" si="6"/>
         <v>54.200000000000031</v>
       </c>
@@ -6439,110 +6267,110 @@
         <f t="shared" si="11"/>
         <v>1.1899999999999906</v>
       </c>
-      <c r="V31" s="5">
+      <c r="V31" s="4">
         <f t="shared" si="11"/>
         <v>-1.0000000000000071</v>
       </c>
-      <c r="W31" s="7">
+      <c r="W31" s="6">
         <f t="shared" si="7"/>
         <v>-1.0000000000000071</v>
       </c>
       <c r="X31" s="3"/>
-      <c r="Y31" s="19">
+      <c r="Y31" s="17">
         <f t="shared" si="13"/>
         <v>2.8000000000000012</v>
       </c>
-      <c r="Z31" s="10">
+      <c r="Z31" s="9">
         <f t="shared" si="8"/>
         <v>238.00000000000023</v>
       </c>
-      <c r="AA31" s="10">
+      <c r="AA31" s="9">
         <f t="shared" si="8"/>
         <v>224.76720000000017</v>
       </c>
-      <c r="AB31" s="10">
+      <c r="AB31" s="9">
         <f t="shared" si="8"/>
         <v>217.8176000000002</v>
       </c>
-      <c r="AC31" s="10">
+      <c r="AC31" s="9">
         <f t="shared" ref="AC31:AR33" si="15" xml:space="preserve"> (15 * POWER(AC$2, 2) - 6 * POWER(AC$2,3) - 7 * AC$2 + 10) * (5 * POWER($Y31,2) - 8 * $Y31 + 7)</f>
         <v>216.29440000000019</v>
       </c>
-      <c r="AD31" s="10">
+      <c r="AD31" s="9">
         <f t="shared" si="15"/>
         <v>219.3408000000002</v>
       </c>
-      <c r="AE31" s="10">
+      <c r="AE31" s="9">
         <f t="shared" si="15"/>
         <v>226.10000000000022</v>
       </c>
-      <c r="AF31" s="10">
+      <c r="AF31" s="9">
         <f t="shared" si="15"/>
         <v>235.71520000000021</v>
       </c>
-      <c r="AG31" s="10">
+      <c r="AG31" s="9">
         <f t="shared" si="15"/>
         <v>247.32960000000023</v>
       </c>
-      <c r="AH31" s="10">
+      <c r="AH31" s="9">
         <f t="shared" si="15"/>
         <v>260.0864000000002</v>
       </c>
-      <c r="AI31" s="10">
+      <c r="AI31" s="9">
         <f t="shared" si="15"/>
         <v>273.12880000000024</v>
       </c>
-      <c r="AJ31" s="10">
+      <c r="AJ31" s="9">
         <f t="shared" si="15"/>
         <v>285.60000000000025</v>
       </c>
-      <c r="AK31" s="10">
+      <c r="AK31" s="9">
         <f t="shared" si="15"/>
         <v>296.64320000000026</v>
       </c>
-      <c r="AL31" s="10">
+      <c r="AL31" s="9">
         <f t="shared" si="15"/>
         <v>305.4016000000002</v>
       </c>
-      <c r="AM31" s="10">
+      <c r="AM31" s="9">
         <f t="shared" si="15"/>
         <v>311.01840000000027</v>
       </c>
-      <c r="AN31" s="10">
+      <c r="AN31" s="9">
         <f t="shared" si="15"/>
         <v>312.63680000000028</v>
       </c>
-      <c r="AO31" s="10">
+      <c r="AO31" s="9">
         <f t="shared" si="15"/>
         <v>309.40000000000032</v>
       </c>
-      <c r="AP31" s="10">
+      <c r="AP31" s="9">
         <f t="shared" si="15"/>
         <v>300.45120000000026</v>
       </c>
-      <c r="AQ31" s="10">
+      <c r="AQ31" s="9">
         <f t="shared" si="15"/>
         <v>284.93360000000018</v>
       </c>
-      <c r="AR31" s="10">
+      <c r="AR31" s="9">
         <f t="shared" si="15"/>
         <v>261.99040000000008</v>
       </c>
-      <c r="AS31" s="10">
+      <c r="AS31" s="9">
         <f t="shared" si="12"/>
         <v>230.76480000000001</v>
       </c>
-      <c r="AT31" s="10">
+      <c r="AT31" s="9">
         <f t="shared" si="12"/>
         <v>190.40000000000009</v>
       </c>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+      <c r="A32" s="17">
         <f t="shared" si="9"/>
         <v>2.9000000000000012</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <f t="shared" ref="B32:Q33" si="16">5 * POWER($A32,2) - 12 * $A32 * B$2 + 3 * POWER(B$2,2) + 15</f>
         <v>57.05000000000004</v>
       </c>
@@ -6622,110 +6450,110 @@
         <f t="shared" si="11"/>
         <v>1.759999999999998</v>
       </c>
-      <c r="V32" s="5">
+      <c r="V32" s="4">
         <f t="shared" si="11"/>
         <v>-0.54999999999999183</v>
       </c>
-      <c r="W32" s="7">
+      <c r="W32" s="6">
         <f t="shared" si="7"/>
         <v>-0.54999999999999183</v>
       </c>
       <c r="X32" s="3"/>
-      <c r="Y32" s="19">
+      <c r="Y32" s="17">
         <f t="shared" si="13"/>
         <v>2.9000000000000012</v>
       </c>
-      <c r="Z32" s="10">
+      <c r="Z32" s="9">
         <f t="shared" ref="Z32:AO33" si="17" xml:space="preserve"> (15 * POWER(Z$2, 2) - 6 * POWER(Z$2,3) - 7 * Z$2 + 10) * (5 * POWER($Y32,2) - 8 * $Y32 + 7)</f>
         <v>258.50000000000028</v>
       </c>
-      <c r="AA32" s="10">
+      <c r="AA32" s="9">
         <f t="shared" si="17"/>
         <v>244.12740000000025</v>
       </c>
-      <c r="AB32" s="10">
+      <c r="AB32" s="9">
         <f t="shared" si="17"/>
         <v>236.57920000000024</v>
       </c>
-      <c r="AC32" s="10">
+      <c r="AC32" s="9">
         <f t="shared" si="17"/>
         <v>234.92480000000026</v>
       </c>
-      <c r="AD32" s="10">
+      <c r="AD32" s="9">
         <f t="shared" si="17"/>
         <v>238.23360000000025</v>
       </c>
-      <c r="AE32" s="10">
+      <c r="AE32" s="9">
         <f t="shared" si="17"/>
         <v>245.57500000000027</v>
       </c>
-      <c r="AF32" s="10">
+      <c r="AF32" s="9">
         <f t="shared" si="17"/>
         <v>256.01840000000027</v>
       </c>
-      <c r="AG32" s="10">
+      <c r="AG32" s="9">
         <f t="shared" si="17"/>
         <v>268.63320000000027</v>
       </c>
-      <c r="AH32" s="10">
+      <c r="AH32" s="9">
         <f t="shared" si="17"/>
         <v>282.48880000000031</v>
       </c>
-      <c r="AI32" s="10">
+      <c r="AI32" s="9">
         <f t="shared" si="17"/>
         <v>296.6546000000003</v>
       </c>
-      <c r="AJ32" s="10">
+      <c r="AJ32" s="9">
         <f t="shared" si="17"/>
         <v>310.20000000000039</v>
       </c>
-      <c r="AK32" s="10">
+      <c r="AK32" s="9">
         <f t="shared" si="17"/>
         <v>322.19440000000031</v>
       </c>
-      <c r="AL32" s="10">
+      <c r="AL32" s="9">
         <f t="shared" si="17"/>
         <v>331.70720000000028</v>
       </c>
-      <c r="AM32" s="10">
+      <c r="AM32" s="9">
         <f t="shared" si="17"/>
         <v>337.80780000000038</v>
       </c>
-      <c r="AN32" s="10">
+      <c r="AN32" s="9">
         <f t="shared" si="17"/>
         <v>339.56560000000036</v>
       </c>
-      <c r="AO32" s="10">
+      <c r="AO32" s="9">
         <f t="shared" si="17"/>
         <v>336.05000000000041</v>
       </c>
-      <c r="AP32" s="10">
+      <c r="AP32" s="9">
         <f t="shared" si="15"/>
         <v>326.33040000000034</v>
       </c>
-      <c r="AQ32" s="10">
+      <c r="AQ32" s="9">
         <f t="shared" si="15"/>
         <v>309.47620000000029</v>
       </c>
-      <c r="AR32" s="10">
+      <c r="AR32" s="9">
         <f t="shared" si="15"/>
         <v>284.55680000000018</v>
       </c>
-      <c r="AS32" s="10">
+      <c r="AS32" s="9">
         <f t="shared" si="12"/>
         <v>250.64160000000004</v>
       </c>
-      <c r="AT32" s="10">
+      <c r="AT32" s="9">
         <f t="shared" si="12"/>
         <v>206.80000000000015</v>
       </c>
     </row>
     <row r="33" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20">
+      <c r="A33" s="18">
         <f t="shared" si="9"/>
         <v>3.0000000000000013</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="8">
         <f t="shared" si="16"/>
         <v>60.000000000000036</v>
       </c>
@@ -6805,100 +6633,100 @@
         <f t="shared" si="11"/>
         <v>2.4299999999999926</v>
       </c>
-      <c r="V33" s="5">
+      <c r="V33" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W33" s="8">
+      <c r="W33" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X33" s="3"/>
-      <c r="Y33" s="29">
+      <c r="Y33" s="26">
         <f t="shared" si="13"/>
         <v>3.0000000000000013</v>
       </c>
-      <c r="Z33" s="10">
+      <c r="Z33" s="9">
         <f t="shared" si="17"/>
         <v>280.00000000000023</v>
       </c>
-      <c r="AA33" s="10">
+      <c r="AA33" s="9">
         <f t="shared" si="17"/>
         <v>264.43200000000019</v>
       </c>
-      <c r="AB33" s="10">
+      <c r="AB33" s="9">
         <f t="shared" si="17"/>
         <v>256.2560000000002</v>
       </c>
-      <c r="AC33" s="10">
+      <c r="AC33" s="9">
         <f t="shared" si="17"/>
         <v>254.4640000000002</v>
       </c>
-      <c r="AD33" s="10">
+      <c r="AD33" s="9">
         <f t="shared" si="17"/>
         <v>258.04800000000023</v>
       </c>
-      <c r="AE33" s="10">
+      <c r="AE33" s="9">
         <f t="shared" si="17"/>
         <v>266.00000000000023</v>
       </c>
-      <c r="AF33" s="10">
+      <c r="AF33" s="9">
         <f t="shared" si="17"/>
         <v>277.31200000000024</v>
       </c>
-      <c r="AG33" s="10">
+      <c r="AG33" s="9">
         <f t="shared" si="17"/>
         <v>290.97600000000023</v>
       </c>
-      <c r="AH33" s="10">
+      <c r="AH33" s="9">
         <f t="shared" si="17"/>
         <v>305.98400000000026</v>
       </c>
-      <c r="AI33" s="10">
+      <c r="AI33" s="9">
         <f t="shared" si="17"/>
         <v>321.32800000000026</v>
       </c>
-      <c r="AJ33" s="10">
+      <c r="AJ33" s="9">
         <f t="shared" si="17"/>
         <v>336.00000000000028</v>
       </c>
-      <c r="AK33" s="10">
+      <c r="AK33" s="9">
         <f t="shared" si="17"/>
         <v>348.99200000000025</v>
       </c>
-      <c r="AL33" s="10">
+      <c r="AL33" s="9">
         <f t="shared" si="17"/>
         <v>359.29600000000022</v>
       </c>
-      <c r="AM33" s="10">
+      <c r="AM33" s="9">
         <f t="shared" si="17"/>
         <v>365.90400000000034</v>
       </c>
-      <c r="AN33" s="10">
+      <c r="AN33" s="9">
         <f t="shared" si="17"/>
         <v>367.80800000000028</v>
       </c>
-      <c r="AO33" s="10">
+      <c r="AO33" s="9">
         <f t="shared" si="17"/>
         <v>364.0000000000004</v>
       </c>
-      <c r="AP33" s="10">
+      <c r="AP33" s="9">
         <f t="shared" si="15"/>
         <v>353.47200000000026</v>
       </c>
-      <c r="AQ33" s="10">
+      <c r="AQ33" s="9">
         <f t="shared" si="15"/>
         <v>335.21600000000024</v>
       </c>
-      <c r="AR33" s="10">
+      <c r="AR33" s="9">
         <f t="shared" si="15"/>
         <v>308.2240000000001</v>
       </c>
-      <c r="AS33" s="10">
+      <c r="AS33" s="9">
         <f t="shared" si="12"/>
         <v>271.488</v>
       </c>
-      <c r="AT33" s="10">
+      <c r="AT33" s="9">
         <f t="shared" si="12"/>
         <v>224.00000000000011</v>
       </c>
@@ -6915,90 +6743,90 @@
         <v>15</v>
       </c>
       <c r="X34" s="3"/>
-      <c r="Y34" s="30" t="s">
+      <c r="Y34" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="Z34" s="27">
+      <c r="Z34" s="24">
         <f>MIN(Z3:Z33)</f>
         <v>38</v>
       </c>
-      <c r="AA34" s="27">
+      <c r="AA34" s="24">
         <f t="shared" ref="AA34:AT34" si="18">MIN(AA3:AA33)</f>
         <v>35.887199999999993</v>
       </c>
-      <c r="AB34" s="27">
+      <c r="AB34" s="24">
         <f t="shared" si="18"/>
         <v>34.777599999999993</v>
       </c>
-      <c r="AC34" s="27">
+      <c r="AC34" s="24">
         <f t="shared" si="18"/>
         <v>34.534399999999998</v>
       </c>
-      <c r="AD34" s="27">
+      <c r="AD34" s="24">
         <f t="shared" si="18"/>
         <v>35.020799999999994</v>
       </c>
-      <c r="AE34" s="27">
+      <c r="AE34" s="24">
         <f t="shared" si="18"/>
         <v>36.1</v>
       </c>
-      <c r="AF34" s="27">
+      <c r="AF34" s="24">
         <f t="shared" si="18"/>
         <v>37.635199999999998</v>
       </c>
-      <c r="AG34" s="27">
+      <c r="AG34" s="24">
         <f t="shared" si="18"/>
         <v>39.489599999999996</v>
       </c>
-      <c r="AH34" s="27">
+      <c r="AH34" s="24">
         <f t="shared" si="18"/>
         <v>41.526399999999995</v>
       </c>
-      <c r="AI34" s="27">
+      <c r="AI34" s="24">
         <f t="shared" si="18"/>
         <v>43.608799999999995</v>
       </c>
-      <c r="AJ34" s="27">
+      <c r="AJ34" s="24">
         <f t="shared" si="18"/>
         <v>45.599999999999994</v>
       </c>
-      <c r="AK34" s="27">
+      <c r="AK34" s="24">
         <f t="shared" si="18"/>
         <v>47.363199999999992</v>
       </c>
-      <c r="AL34" s="27">
+      <c r="AL34" s="24">
         <f t="shared" si="18"/>
         <v>48.761599999999987</v>
       </c>
-      <c r="AM34" s="27">
+      <c r="AM34" s="24">
         <f t="shared" si="18"/>
         <v>49.658399999999993</v>
       </c>
-      <c r="AN34" s="27">
+      <c r="AN34" s="24">
         <f t="shared" si="18"/>
         <v>49.916799999999995</v>
       </c>
-      <c r="AO34" s="27">
+      <c r="AO34" s="24">
         <f t="shared" si="18"/>
         <v>49.400000000000006</v>
       </c>
-      <c r="AP34" s="27">
+      <c r="AP34" s="24">
         <f t="shared" si="18"/>
         <v>47.971199999999996</v>
       </c>
-      <c r="AQ34" s="27">
+      <c r="AQ34" s="24">
         <f t="shared" si="18"/>
         <v>45.493599999999986</v>
       </c>
-      <c r="AR34" s="27">
+      <c r="AR34" s="24">
         <f t="shared" si="18"/>
         <v>41.830399999999976</v>
       </c>
-      <c r="AS34" s="27">
+      <c r="AS34" s="24">
         <f t="shared" si="18"/>
         <v>36.844799999999964</v>
       </c>
-      <c r="AT34" s="28">
+      <c r="AT34" s="25">
         <f t="shared" si="18"/>
         <v>30.399999999999984</v>
       </c>
@@ -7008,54 +6836,54 @@
       </c>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="Y38" s="4" t="s">
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="Y38" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="4"/>
-      <c r="AB38" s="4"/>
-      <c r="AC38" s="4"/>
-      <c r="AD38" s="4"/>
-      <c r="AE38" s="4"/>
-      <c r="AF38" s="4"/>
-      <c r="AG38" s="4"/>
-      <c r="AH38" s="4"/>
-      <c r="AI38" s="4"/>
-      <c r="AJ38" s="4"/>
-      <c r="AK38" s="4"/>
-      <c r="AL38" s="4"/>
-      <c r="AM38" s="4"/>
-      <c r="AN38" s="4"/>
-      <c r="AO38" s="4"/>
-      <c r="AP38" s="4"/>
-      <c r="AQ38" s="4"/>
-      <c r="AR38" s="4"/>
-      <c r="AS38" s="4"/>
-      <c r="AT38" s="4"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
+      <c r="AB38" s="31"/>
+      <c r="AC38" s="31"/>
+      <c r="AD38" s="31"/>
+      <c r="AE38" s="31"/>
+      <c r="AF38" s="31"/>
+      <c r="AG38" s="31"/>
+      <c r="AH38" s="31"/>
+      <c r="AI38" s="31"/>
+      <c r="AJ38" s="31"/>
+      <c r="AK38" s="31"/>
+      <c r="AL38" s="31"/>
+      <c r="AM38" s="31"/>
+      <c r="AN38" s="31"/>
+      <c r="AO38" s="31"/>
+      <c r="AP38" s="31"/>
+      <c r="AQ38" s="31"/>
+      <c r="AR38" s="31"/>
+      <c r="AS38" s="31"/>
+      <c r="AT38" s="31"/>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -12748,30 +12576,30 @@
       </c>
     </row>
     <row r="74" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
-      <c r="S74" s="4"/>
-      <c r="T74" s="4"/>
-      <c r="U74" s="4"/>
-      <c r="V74" s="4"/>
+      <c r="A74" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="31"/>
+      <c r="M74" s="31"/>
+      <c r="N74" s="31"/>
+      <c r="O74" s="31"/>
+      <c r="P74" s="31"/>
+      <c r="Q74" s="31"/>
+      <c r="R74" s="31"/>
+      <c r="S74" s="31"/>
+      <c r="T74" s="31"/>
+      <c r="U74" s="31"/>
+      <c r="V74" s="31"/>
     </row>
     <row r="75" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -12873,87 +12701,87 @@
         <v>0</v>
       </c>
       <c r="B76" s="2">
-        <f>IF(AND(B40&gt;=0, Z40&gt;=0), MAX(B40,Z40), "")</f>
+        <f t="shared" ref="B76:V76" si="94">IF(AND(B40&gt;=0, Z40&gt;=0), MAX(B40,Z40), "")</f>
         <v>20.083200000000005</v>
       </c>
       <c r="C76" s="2">
-        <f>IF(AND(C40&gt;=0, AA40&gt;=0), MAX(C40,AA40), "")</f>
+        <f t="shared" si="94"/>
         <v>16.191199999999995</v>
       </c>
       <c r="D76" s="2">
-        <f>IF(AND(D40&gt;=0, AB40&gt;=0), MAX(D40,AB40), "")</f>
+        <f t="shared" si="94"/>
         <v>14.147199999999998</v>
       </c>
       <c r="E76" s="2">
-        <f>IF(AND(E40&gt;=0, AC40&gt;=0), MAX(E40,AC40), "")</f>
+        <f t="shared" si="94"/>
         <v>13.699199999999998</v>
       </c>
       <c r="F76" s="2">
-        <f>IF(AND(F40&gt;=0, AD40&gt;=0), MAX(F40,AD40), "")</f>
+        <f t="shared" si="94"/>
         <v>14.595200000000006</v>
       </c>
       <c r="G76" s="2">
-        <f>IF(AND(G40&gt;=0, AE40&gt;=0), MAX(G40,AE40), "")</f>
+        <f t="shared" si="94"/>
         <v>16.583200000000005</v>
       </c>
       <c r="H76" s="2">
-        <f>IF(AND(H40&gt;=0, AF40&gt;=0), MAX(H40,AF40), "")</f>
+        <f t="shared" si="94"/>
         <v>19.411200000000008</v>
       </c>
       <c r="I76" s="2">
-        <f>IF(AND(I40&gt;=0, AG40&gt;=0), MAX(I40,AG40), "")</f>
+        <f t="shared" si="94"/>
         <v>22.827200000000005</v>
       </c>
       <c r="J76" s="2">
-        <f>IF(AND(J40&gt;=0, AH40&gt;=0), MAX(J40,AH40), "")</f>
+        <f t="shared" si="94"/>
         <v>26.5792</v>
       </c>
       <c r="K76" s="2">
-        <f>IF(AND(K40&gt;=0, AI40&gt;=0), MAX(K40,AI40), "")</f>
+        <f t="shared" si="94"/>
         <v>30.415199999999999</v>
       </c>
       <c r="L76" s="2">
-        <f>IF(AND(L40&gt;=0, AJ40&gt;=0), MAX(L40,AJ40), "")</f>
+        <f t="shared" si="94"/>
         <v>34.083200000000005</v>
       </c>
       <c r="M76" s="2">
-        <f>IF(AND(M40&gt;=0, AK40&gt;=0), MAX(M40,AK40), "")</f>
+        <f t="shared" si="94"/>
         <v>37.331199999999995</v>
       </c>
       <c r="N76" s="2">
-        <f>IF(AND(N40&gt;=0, AL40&gt;=0), MAX(N40,AL40), "")</f>
+        <f t="shared" si="94"/>
         <v>39.907199999999989</v>
       </c>
       <c r="O76" s="2">
-        <f>IF(AND(O40&gt;=0, AM40&gt;=0), MAX(O40,AM40), "")</f>
+        <f t="shared" si="94"/>
         <v>41.559200000000004</v>
       </c>
       <c r="P76" s="2">
-        <f>IF(AND(P40&gt;=0, AN40&gt;=0), MAX(P40,AN40), "")</f>
+        <f t="shared" si="94"/>
         <v>42.035200000000003</v>
       </c>
       <c r="Q76" s="2">
-        <f>IF(AND(Q40&gt;=0, AO40&gt;=0), MAX(Q40,AO40), "")</f>
+        <f t="shared" si="94"/>
         <v>41.083200000000019</v>
       </c>
       <c r="R76" s="2">
-        <f>IF(AND(R40&gt;=0, AP40&gt;=0), MAX(R40,AP40), "")</f>
+        <f t="shared" si="94"/>
         <v>38.4512</v>
       </c>
       <c r="S76" s="2">
-        <f>IF(AND(S40&gt;=0, AQ40&gt;=0), MAX(S40,AQ40), "")</f>
+        <f t="shared" si="94"/>
         <v>33.887199999999993</v>
       </c>
       <c r="T76" s="2">
-        <f>IF(AND(T40&gt;=0, AR40&gt;=0), MAX(T40,AR40), "")</f>
+        <f t="shared" si="94"/>
         <v>27.13919999999996</v>
       </c>
       <c r="U76" s="2">
-        <f>IF(AND(U40&gt;=0, AS40&gt;=0), MAX(U40,AS40), "")</f>
+        <f t="shared" si="94"/>
         <v>17.955199999999934</v>
       </c>
       <c r="V76" s="2">
-        <f>IF(AND(V40&gt;=0, AT40&gt;=0), MAX(V40,AT40), "")</f>
+        <f t="shared" si="94"/>
         <v>12.000000000000007</v>
       </c>
       <c r="Y76" t="s">
@@ -12969,87 +12797,87 @@
         <v>0.1</v>
       </c>
       <c r="B77" s="2">
-        <f t="shared" ref="B77:B106" si="94">IF(AND(B41&gt;=0, Z41&gt;=0), MAX(B41,Z41), "")</f>
+        <f t="shared" ref="B77:B106" si="95">IF(AND(B41&gt;=0, Z41&gt;=0), MAX(B41,Z41), "")</f>
         <v>12.583200000000005</v>
       </c>
       <c r="C77" s="2" t="str">
-        <f t="shared" ref="C77:C106" si="95">IF(AND(C41&gt;=0, AA41&gt;=0), MAX(C41,AA41), "")</f>
+        <f t="shared" ref="C77:C106" si="96">IF(AND(C41&gt;=0, AA41&gt;=0), MAX(C41,AA41), "")</f>
         <v/>
       </c>
       <c r="D77" s="2" t="str">
-        <f t="shared" ref="D77:D106" si="96">IF(AND(D41&gt;=0, AB41&gt;=0), MAX(D41,AB41), "")</f>
+        <f t="shared" ref="D77:D106" si="97">IF(AND(D41&gt;=0, AB41&gt;=0), MAX(D41,AB41), "")</f>
         <v/>
       </c>
       <c r="E77" s="2" t="str">
-        <f t="shared" ref="E77:E106" si="97">IF(AND(E41&gt;=0, AC41&gt;=0), MAX(E41,AC41), "")</f>
+        <f t="shared" ref="E77:E106" si="98">IF(AND(E41&gt;=0, AC41&gt;=0), MAX(E41,AC41), "")</f>
         <v/>
       </c>
       <c r="F77" s="2">
-        <f t="shared" ref="F77:F106" si="98">IF(AND(F41&gt;=0, AD41&gt;=0), MAX(F41,AD41), "")</f>
+        <f t="shared" ref="F77:F106" si="99">IF(AND(F41&gt;=0, AD41&gt;=0), MAX(F41,AD41), "")</f>
         <v>7.6831999999999994</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" ref="G77:G106" si="99">IF(AND(G41&gt;=0, AE41&gt;=0), MAX(G41,AE41), "")</f>
+        <f t="shared" ref="G77:G106" si="100">IF(AND(G41&gt;=0, AE41&gt;=0), MAX(G41,AE41), "")</f>
         <v>9.458200000000005</v>
       </c>
       <c r="H77" s="2">
-        <f t="shared" ref="H77:H106" si="100">IF(AND(H41&gt;=0, AF41&gt;=0), MAX(H41,AF41), "")</f>
+        <f t="shared" ref="H77:H106" si="101">IF(AND(H41&gt;=0, AF41&gt;=0), MAX(H41,AF41), "")</f>
         <v>11.983200000000004</v>
       </c>
       <c r="I77" s="2">
-        <f t="shared" ref="I77:I106" si="101">IF(AND(I41&gt;=0, AG41&gt;=0), MAX(I41,AG41), "")</f>
+        <f t="shared" ref="I77:I106" si="102">IF(AND(I41&gt;=0, AG41&gt;=0), MAX(I41,AG41), "")</f>
         <v>15.033200000000008</v>
       </c>
       <c r="J77" s="2">
-        <f t="shared" ref="J77:J106" si="102">IF(AND(J41&gt;=0, AH41&gt;=0), MAX(J41,AH41), "")</f>
+        <f t="shared" ref="J77:J106" si="103">IF(AND(J41&gt;=0, AH41&gt;=0), MAX(J41,AH41), "")</f>
         <v>18.383200000000002</v>
       </c>
       <c r="K77" s="2">
-        <f t="shared" ref="K77:K106" si="103">IF(AND(K41&gt;=0, AI41&gt;=0), MAX(K41,AI41), "")</f>
+        <f t="shared" ref="K77:K106" si="104">IF(AND(K41&gt;=0, AI41&gt;=0), MAX(K41,AI41), "")</f>
         <v>21.808199999999999</v>
       </c>
       <c r="L77" s="2">
-        <f t="shared" ref="L77:L106" si="104">IF(AND(L41&gt;=0, AJ41&gt;=0), MAX(L41,AJ41), "")</f>
+        <f t="shared" ref="L77:L106" si="105">IF(AND(L41&gt;=0, AJ41&gt;=0), MAX(L41,AJ41), "")</f>
         <v>25.083200000000005</v>
       </c>
       <c r="M77" s="2">
-        <f t="shared" ref="M77:M106" si="105">IF(AND(M41&gt;=0, AK41&gt;=0), MAX(M41,AK41), "")</f>
+        <f t="shared" ref="M77:M106" si="106">IF(AND(M41&gt;=0, AK41&gt;=0), MAX(M41,AK41), "")</f>
         <v>27.983199999999997</v>
       </c>
       <c r="N77" s="2">
-        <f t="shared" ref="N77:N106" si="106">IF(AND(N41&gt;=0, AL41&gt;=0), MAX(N41,AL41), "")</f>
+        <f t="shared" ref="N77:N106" si="107">IF(AND(N41&gt;=0, AL41&gt;=0), MAX(N41,AL41), "")</f>
         <v>30.283199999999994</v>
       </c>
       <c r="O77" s="2">
-        <f t="shared" ref="O77:O106" si="107">IF(AND(O41&gt;=0, AM41&gt;=0), MAX(O41,AM41), "")</f>
+        <f t="shared" ref="O77:O106" si="108">IF(AND(O41&gt;=0, AM41&gt;=0), MAX(O41,AM41), "")</f>
         <v>31.758200000000002</v>
       </c>
       <c r="P77" s="2">
-        <f t="shared" ref="P77:P106" si="108">IF(AND(P41&gt;=0, AN41&gt;=0), MAX(P41,AN41), "")</f>
+        <f t="shared" ref="P77:P106" si="109">IF(AND(P41&gt;=0, AN41&gt;=0), MAX(P41,AN41), "")</f>
         <v>32.183199999999999</v>
       </c>
       <c r="Q77" s="2">
-        <f t="shared" ref="Q77:Q106" si="109">IF(AND(Q41&gt;=0, AO41&gt;=0), MAX(Q41,AO41), "")</f>
+        <f t="shared" ref="Q77:Q106" si="110">IF(AND(Q41&gt;=0, AO41&gt;=0), MAX(Q41,AO41), "")</f>
         <v>31.333200000000019</v>
       </c>
       <c r="R77" s="2">
-        <f t="shared" ref="R77:R106" si="110">IF(AND(R41&gt;=0, AP41&gt;=0), MAX(R41,AP41), "")</f>
+        <f t="shared" ref="R77:R106" si="111">IF(AND(R41&gt;=0, AP41&gt;=0), MAX(R41,AP41), "")</f>
         <v>28.983199999999997</v>
       </c>
       <c r="S77" s="2">
-        <f t="shared" ref="S77:S106" si="111">IF(AND(S41&gt;=0, AQ41&gt;=0), MAX(S41,AQ41), "")</f>
+        <f t="shared" ref="S77:S106" si="112">IF(AND(S41&gt;=0, AQ41&gt;=0), MAX(S41,AQ41), "")</f>
         <v>24.908199999999994</v>
       </c>
       <c r="T77" s="2">
-        <f t="shared" ref="T77:T106" si="112">IF(AND(T41&gt;=0, AR41&gt;=0), MAX(T41,AR41), "")</f>
+        <f t="shared" ref="T77:T106" si="113">IF(AND(T41&gt;=0, AR41&gt;=0), MAX(T41,AR41), "")</f>
         <v>18.88319999999996</v>
       </c>
       <c r="U77" s="2">
-        <f t="shared" ref="U77:U106" si="113">IF(AND(U41&gt;=0, AS41&gt;=0), MAX(U41,AS41), "")</f>
+        <f t="shared" ref="U77:U106" si="114">IF(AND(U41&gt;=0, AS41&gt;=0), MAX(U41,AS41), "")</f>
         <v>10.68319999999995</v>
       </c>
       <c r="V77" s="2">
-        <f t="shared" ref="V77:V106" si="114">IF(AND(V41&gt;=0, AT41&gt;=0), MAX(V41,AT41), "")</f>
+        <f t="shared" ref="V77:V106" si="115">IF(AND(V41&gt;=0, AT41&gt;=0), MAX(V41,AT41), "")</f>
         <v>9.6500000000000057</v>
       </c>
       <c r="Y77" t="s">
@@ -13061,1711 +12889,1711 @@
     </row>
     <row r="78" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <f t="shared" ref="A78:A96" si="115">A77+0.1</f>
+        <f t="shared" ref="A78:A96" si="116">A77+0.1</f>
         <v>0.2</v>
       </c>
       <c r="B78" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>6.083200000000005</v>
       </c>
       <c r="C78" s="2" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="D78" s="2" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="E78" s="2" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="F78" s="2" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="G78" s="2" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="H78" s="2" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="I78" s="2" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="J78" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>11.279999999999994</v>
       </c>
       <c r="K78" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>14.348799999999997</v>
       </c>
       <c r="L78" s="2">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>17.283199999999994</v>
       </c>
       <c r="M78" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>19.881599999999992</v>
       </c>
       <c r="N78" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>21.942399999999978</v>
       </c>
       <c r="O78" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>23.263999999999996</v>
       </c>
       <c r="P78" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>23.644799999999989</v>
       </c>
       <c r="Q78" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>22.883200000000016</v>
       </c>
       <c r="R78" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>20.777599999999993</v>
       </c>
       <c r="S78" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>17.12639999999999</v>
       </c>
       <c r="T78" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>11.727999999999966</v>
       </c>
       <c r="U78" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>6.4700000000000024</v>
       </c>
       <c r="V78" s="2" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
+        <f t="shared" si="116"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="B79" s="2">
+        <f t="shared" si="95"/>
+        <v>0.58320000000000505</v>
+      </c>
+      <c r="C79" s="2" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="D79" s="2" t="str">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+      <c r="E79" s="2" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="F79" s="2" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="G79" s="2" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+      <c r="H79" s="2" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="I79" s="2" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="J79" s="2" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
+      <c r="K79" s="2" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="L79" s="2" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="M79" s="2">
+        <f t="shared" si="106"/>
+        <v>13.026399999999995</v>
+      </c>
+      <c r="N79" s="2">
+        <f t="shared" si="107"/>
+        <v>14.884799999999984</v>
+      </c>
+      <c r="O79" s="2">
+        <f t="shared" si="108"/>
+        <v>16.076599999999999</v>
+      </c>
+      <c r="P79" s="2">
+        <f t="shared" si="109"/>
+        <v>16.420000000000002</v>
+      </c>
+      <c r="Q79" s="2">
+        <f t="shared" si="110"/>
+        <v>15.733200000000011</v>
+      </c>
+      <c r="R79" s="2">
+        <f t="shared" si="111"/>
+        <v>13.834399999999995</v>
+      </c>
+      <c r="S79" s="2">
+        <f t="shared" si="112"/>
+        <v>10.541799999999995</v>
+      </c>
+      <c r="T79" s="2">
+        <f t="shared" si="113"/>
+        <v>5.673599999999972</v>
+      </c>
+      <c r="U79" s="2" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="V79" s="2" t="str">
         <f t="shared" si="115"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="B79" s="2">
-        <f t="shared" si="94"/>
-        <v>0.58320000000000505</v>
-      </c>
-      <c r="C79" s="2" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-      <c r="D79" s="2" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-      <c r="E79" s="2" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-      <c r="F79" s="2" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-      <c r="G79" s="2" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-      <c r="H79" s="2" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-      <c r="I79" s="2" t="str">
-        <f t="shared" si="101"/>
-        <v/>
-      </c>
-      <c r="J79" s="2" t="str">
-        <f t="shared" si="102"/>
-        <v/>
-      </c>
-      <c r="K79" s="2" t="str">
-        <f t="shared" si="103"/>
-        <v/>
-      </c>
-      <c r="L79" s="2" t="str">
-        <f t="shared" si="104"/>
-        <v/>
-      </c>
-      <c r="M79" s="2">
-        <f t="shared" si="105"/>
-        <v>13.026399999999995</v>
-      </c>
-      <c r="N79" s="2">
-        <f t="shared" si="106"/>
-        <v>14.884799999999984</v>
-      </c>
-      <c r="O79" s="2">
-        <f t="shared" si="107"/>
-        <v>16.076599999999999</v>
-      </c>
-      <c r="P79" s="2">
-        <f t="shared" si="108"/>
-        <v>16.420000000000002</v>
-      </c>
-      <c r="Q79" s="2">
-        <f t="shared" si="109"/>
-        <v>15.733200000000011</v>
-      </c>
-      <c r="R79" s="2">
-        <f t="shared" si="110"/>
-        <v>13.834399999999995</v>
-      </c>
-      <c r="S79" s="2">
-        <f t="shared" si="111"/>
-        <v>10.541799999999995</v>
-      </c>
-      <c r="T79" s="2">
-        <f t="shared" si="112"/>
-        <v>5.673599999999972</v>
-      </c>
-      <c r="U79" s="2" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="V79" s="2" t="str">
-        <f t="shared" si="114"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
+        <f t="shared" si="116"/>
+        <v>0.4</v>
+      </c>
+      <c r="B80" s="2" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="C80" s="2" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="D80" s="2" t="str">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+      <c r="E80" s="2" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="F80" s="2" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="G80" s="2" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+      <c r="H80" s="2" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="I80" s="2" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="J80" s="2" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
+      <c r="K80" s="2" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="L80" s="2" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="M80" s="2" t="str">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+      <c r="N80" s="2" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+      <c r="O80" s="2" t="str">
+        <f t="shared" si="108"/>
+        <v/>
+      </c>
+      <c r="P80" s="2" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="Q80" s="2">
+        <f t="shared" si="110"/>
+        <v>9.8832000000000093</v>
+      </c>
+      <c r="R80" s="2">
+        <f t="shared" si="111"/>
+        <v>8.1535999999999973</v>
+      </c>
+      <c r="S80" s="2">
+        <f t="shared" si="112"/>
+        <v>5.1543999999999883</v>
+      </c>
+      <c r="T80" s="2">
+        <f t="shared" si="113"/>
+        <v>1.879999999999999</v>
+      </c>
+      <c r="U80" s="2" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="V80" s="2" t="str">
         <f t="shared" si="115"/>
-        <v>0.4</v>
-      </c>
-      <c r="B80" s="2" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-      <c r="C80" s="2" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-      <c r="D80" s="2" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-      <c r="E80" s="2" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-      <c r="F80" s="2" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-      <c r="G80" s="2" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-      <c r="H80" s="2" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-      <c r="I80" s="2" t="str">
-        <f t="shared" si="101"/>
-        <v/>
-      </c>
-      <c r="J80" s="2" t="str">
-        <f t="shared" si="102"/>
-        <v/>
-      </c>
-      <c r="K80" s="2" t="str">
-        <f t="shared" si="103"/>
-        <v/>
-      </c>
-      <c r="L80" s="2" t="str">
-        <f t="shared" si="104"/>
-        <v/>
-      </c>
-      <c r="M80" s="2" t="str">
-        <f t="shared" si="105"/>
-        <v/>
-      </c>
-      <c r="N80" s="2" t="str">
-        <f t="shared" si="106"/>
-        <v/>
-      </c>
-      <c r="O80" s="2" t="str">
-        <f t="shared" si="107"/>
-        <v/>
-      </c>
-      <c r="P80" s="2" t="str">
-        <f t="shared" si="108"/>
-        <v/>
-      </c>
-      <c r="Q80" s="2">
-        <f t="shared" si="109"/>
-        <v>9.8832000000000093</v>
-      </c>
-      <c r="R80" s="2">
-        <f t="shared" si="110"/>
-        <v>8.1535999999999973</v>
-      </c>
-      <c r="S80" s="2">
-        <f t="shared" si="111"/>
-        <v>5.1543999999999883</v>
-      </c>
-      <c r="T80" s="2">
-        <f t="shared" si="112"/>
-        <v>1.879999999999999</v>
-      </c>
-      <c r="U80" s="2" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="V80" s="2" t="str">
-        <f t="shared" si="114"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
+        <f t="shared" si="116"/>
+        <v>0.5</v>
+      </c>
+      <c r="B81" s="2" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="C81" s="2" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="D81" s="2" t="str">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+      <c r="E81" s="2" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="F81" s="2" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="G81" s="2" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+      <c r="H81" s="2" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="I81" s="2" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="J81" s="2" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
+      <c r="K81" s="2" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="L81" s="2" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="M81" s="2" t="str">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+      <c r="N81" s="2" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+      <c r="O81" s="2" t="str">
+        <f t="shared" si="108"/>
+        <v/>
+      </c>
+      <c r="P81" s="2" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="Q81" s="2" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="R81" s="2" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="S81" s="2" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="T81" s="2" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="U81" s="2" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="V81" s="2" t="str">
         <f t="shared" si="115"/>
-        <v>0.5</v>
-      </c>
-      <c r="B81" s="2" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-      <c r="C81" s="2" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-      <c r="D81" s="2" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-      <c r="E81" s="2" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-      <c r="F81" s="2" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-      <c r="G81" s="2" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-      <c r="H81" s="2" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-      <c r="I81" s="2" t="str">
-        <f t="shared" si="101"/>
-        <v/>
-      </c>
-      <c r="J81" s="2" t="str">
-        <f t="shared" si="102"/>
-        <v/>
-      </c>
-      <c r="K81" s="2" t="str">
-        <f t="shared" si="103"/>
-        <v/>
-      </c>
-      <c r="L81" s="2" t="str">
-        <f t="shared" si="104"/>
-        <v/>
-      </c>
-      <c r="M81" s="2" t="str">
-        <f t="shared" si="105"/>
-        <v/>
-      </c>
-      <c r="N81" s="2" t="str">
-        <f t="shared" si="106"/>
-        <v/>
-      </c>
-      <c r="O81" s="2" t="str">
-        <f t="shared" si="107"/>
-        <v/>
-      </c>
-      <c r="P81" s="2" t="str">
-        <f t="shared" si="108"/>
-        <v/>
-      </c>
-      <c r="Q81" s="2" t="str">
-        <f t="shared" si="109"/>
-        <v/>
-      </c>
-      <c r="R81" s="2" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
-      <c r="S81" s="2" t="str">
-        <f t="shared" si="111"/>
-        <v/>
-      </c>
-      <c r="T81" s="2" t="str">
-        <f t="shared" si="112"/>
-        <v/>
-      </c>
-      <c r="U81" s="2" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="V81" s="2" t="str">
-        <f t="shared" si="114"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
+        <f t="shared" si="116"/>
+        <v>0.6</v>
+      </c>
+      <c r="B82" s="2" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="C82" s="2" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="D82" s="2" t="str">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+      <c r="E82" s="2" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="F82" s="2" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="G82" s="2" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+      <c r="H82" s="2" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="I82" s="2" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="J82" s="2" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
+      <c r="K82" s="2" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="L82" s="2" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="M82" s="2" t="str">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+      <c r="N82" s="2" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+      <c r="O82" s="2" t="str">
+        <f t="shared" si="108"/>
+        <v/>
+      </c>
+      <c r="P82" s="2" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="Q82" s="2" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="R82" s="2" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="S82" s="2" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="T82" s="2" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="U82" s="2" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="V82" s="2" t="str">
         <f t="shared" si="115"/>
-        <v>0.6</v>
-      </c>
-      <c r="B82" s="2" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-      <c r="C82" s="2" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-      <c r="D82" s="2" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-      <c r="E82" s="2" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-      <c r="F82" s="2" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-      <c r="G82" s="2" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-      <c r="H82" s="2" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-      <c r="I82" s="2" t="str">
-        <f t="shared" si="101"/>
-        <v/>
-      </c>
-      <c r="J82" s="2" t="str">
-        <f t="shared" si="102"/>
-        <v/>
-      </c>
-      <c r="K82" s="2" t="str">
-        <f t="shared" si="103"/>
-        <v/>
-      </c>
-      <c r="L82" s="2" t="str">
-        <f t="shared" si="104"/>
-        <v/>
-      </c>
-      <c r="M82" s="2" t="str">
-        <f t="shared" si="105"/>
-        <v/>
-      </c>
-      <c r="N82" s="2" t="str">
-        <f t="shared" si="106"/>
-        <v/>
-      </c>
-      <c r="O82" s="2" t="str">
-        <f t="shared" si="107"/>
-        <v/>
-      </c>
-      <c r="P82" s="2" t="str">
-        <f t="shared" si="108"/>
-        <v/>
-      </c>
-      <c r="Q82" s="2" t="str">
-        <f t="shared" si="109"/>
-        <v/>
-      </c>
-      <c r="R82" s="2" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
-      <c r="S82" s="2" t="str">
-        <f t="shared" si="111"/>
-        <v/>
-      </c>
-      <c r="T82" s="2" t="str">
-        <f t="shared" si="112"/>
-        <v/>
-      </c>
-      <c r="U82" s="2" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="V82" s="2" t="str">
-        <f t="shared" si="114"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
+        <f t="shared" si="116"/>
+        <v>0.7</v>
+      </c>
+      <c r="B83" s="2" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="C83" s="2" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="D83" s="2" t="str">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+      <c r="E83" s="2" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="F83" s="2" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="G83" s="2" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+      <c r="H83" s="2" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="I83" s="2" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="J83" s="2" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
+      <c r="K83" s="2" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="L83" s="2" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="M83" s="2" t="str">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+      <c r="N83" s="2" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+      <c r="O83" s="2" t="str">
+        <f t="shared" si="108"/>
+        <v/>
+      </c>
+      <c r="P83" s="2" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="Q83" s="2" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="R83" s="2" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="S83" s="2" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="T83" s="2" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="U83" s="2" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="V83" s="2" t="str">
         <f t="shared" si="115"/>
-        <v>0.7</v>
-      </c>
-      <c r="B83" s="2" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-      <c r="C83" s="2" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-      <c r="D83" s="2" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-      <c r="E83" s="2" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-      <c r="F83" s="2" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-      <c r="G83" s="2" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-      <c r="H83" s="2" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-      <c r="I83" s="2" t="str">
-        <f t="shared" si="101"/>
-        <v/>
-      </c>
-      <c r="J83" s="2" t="str">
-        <f t="shared" si="102"/>
-        <v/>
-      </c>
-      <c r="K83" s="2" t="str">
-        <f t="shared" si="103"/>
-        <v/>
-      </c>
-      <c r="L83" s="2" t="str">
-        <f t="shared" si="104"/>
-        <v/>
-      </c>
-      <c r="M83" s="2" t="str">
-        <f t="shared" si="105"/>
-        <v/>
-      </c>
-      <c r="N83" s="2" t="str">
-        <f t="shared" si="106"/>
-        <v/>
-      </c>
-      <c r="O83" s="2" t="str">
-        <f t="shared" si="107"/>
-        <v/>
-      </c>
-      <c r="P83" s="2" t="str">
-        <f t="shared" si="108"/>
-        <v/>
-      </c>
-      <c r="Q83" s="2" t="str">
-        <f t="shared" si="109"/>
-        <v/>
-      </c>
-      <c r="R83" s="2" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
-      <c r="S83" s="2" t="str">
-        <f t="shared" si="111"/>
-        <v/>
-      </c>
-      <c r="T83" s="2" t="str">
-        <f t="shared" si="112"/>
-        <v/>
-      </c>
-      <c r="U83" s="2" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="V83" s="2" t="str">
-        <f t="shared" si="114"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
+        <f t="shared" si="116"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="B84" s="2" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="C84" s="2" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="D84" s="2" t="str">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+      <c r="E84" s="2" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="F84" s="2" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="G84" s="2" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+      <c r="H84" s="2" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="I84" s="2" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="J84" s="2" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
+      <c r="K84" s="2" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="L84" s="2" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="M84" s="2" t="str">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+      <c r="N84" s="2" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+      <c r="O84" s="2" t="str">
+        <f t="shared" si="108"/>
+        <v/>
+      </c>
+      <c r="P84" s="2" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="Q84" s="2" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="R84" s="2" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="S84" s="2" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="T84" s="2" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="U84" s="2" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="V84" s="2" t="str">
         <f t="shared" si="115"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="B84" s="2" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-      <c r="C84" s="2" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-      <c r="D84" s="2" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-      <c r="E84" s="2" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-      <c r="F84" s="2" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-      <c r="G84" s="2" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-      <c r="H84" s="2" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-      <c r="I84" s="2" t="str">
-        <f t="shared" si="101"/>
-        <v/>
-      </c>
-      <c r="J84" s="2" t="str">
-        <f t="shared" si="102"/>
-        <v/>
-      </c>
-      <c r="K84" s="2" t="str">
-        <f t="shared" si="103"/>
-        <v/>
-      </c>
-      <c r="L84" s="2" t="str">
-        <f t="shared" si="104"/>
-        <v/>
-      </c>
-      <c r="M84" s="2" t="str">
-        <f t="shared" si="105"/>
-        <v/>
-      </c>
-      <c r="N84" s="2" t="str">
-        <f t="shared" si="106"/>
-        <v/>
-      </c>
-      <c r="O84" s="2" t="str">
-        <f t="shared" si="107"/>
-        <v/>
-      </c>
-      <c r="P84" s="2" t="str">
-        <f t="shared" si="108"/>
-        <v/>
-      </c>
-      <c r="Q84" s="2" t="str">
-        <f t="shared" si="109"/>
-        <v/>
-      </c>
-      <c r="R84" s="2" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
-      <c r="S84" s="2" t="str">
-        <f t="shared" si="111"/>
-        <v/>
-      </c>
-      <c r="T84" s="2" t="str">
-        <f t="shared" si="112"/>
-        <v/>
-      </c>
-      <c r="U84" s="2" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="V84" s="2" t="str">
-        <f t="shared" si="114"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
+        <f t="shared" si="116"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="B85" s="2" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="C85" s="2" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="D85" s="2" t="str">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+      <c r="E85" s="2" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="F85" s="2" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="G85" s="2" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+      <c r="H85" s="2" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="I85" s="2" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="J85" s="2" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
+      <c r="K85" s="2" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="L85" s="2" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="M85" s="2" t="str">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+      <c r="N85" s="2" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+      <c r="O85" s="2" t="str">
+        <f t="shared" si="108"/>
+        <v/>
+      </c>
+      <c r="P85" s="2" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="Q85" s="2" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="R85" s="2" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="S85" s="2" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="T85" s="2" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="U85" s="2" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="V85" s="2" t="str">
         <f t="shared" si="115"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="B85" s="2" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-      <c r="C85" s="2" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-      <c r="D85" s="2" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-      <c r="E85" s="2" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-      <c r="F85" s="2" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-      <c r="G85" s="2" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-      <c r="H85" s="2" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-      <c r="I85" s="2" t="str">
-        <f t="shared" si="101"/>
-        <v/>
-      </c>
-      <c r="J85" s="2" t="str">
-        <f t="shared" si="102"/>
-        <v/>
-      </c>
-      <c r="K85" s="2" t="str">
-        <f t="shared" si="103"/>
-        <v/>
-      </c>
-      <c r="L85" s="2" t="str">
-        <f t="shared" si="104"/>
-        <v/>
-      </c>
-      <c r="M85" s="2" t="str">
-        <f t="shared" si="105"/>
-        <v/>
-      </c>
-      <c r="N85" s="2" t="str">
-        <f t="shared" si="106"/>
-        <v/>
-      </c>
-      <c r="O85" s="2" t="str">
-        <f t="shared" si="107"/>
-        <v/>
-      </c>
-      <c r="P85" s="2" t="str">
-        <f t="shared" si="108"/>
-        <v/>
-      </c>
-      <c r="Q85" s="2" t="str">
-        <f t="shared" si="109"/>
-        <v/>
-      </c>
-      <c r="R85" s="2" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
-      <c r="S85" s="2" t="str">
-        <f t="shared" si="111"/>
-        <v/>
-      </c>
-      <c r="T85" s="2" t="str">
-        <f t="shared" si="112"/>
-        <v/>
-      </c>
-      <c r="U85" s="2" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="V85" s="2" t="str">
-        <f t="shared" si="114"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
+        <f t="shared" si="116"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="B86" s="2" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="C86" s="2" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="D86" s="2" t="str">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+      <c r="E86" s="2" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="F86" s="2" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="G86" s="2" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+      <c r="H86" s="2" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="I86" s="2" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="J86" s="2" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
+      <c r="K86" s="2" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="L86" s="2" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="M86" s="2" t="str">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+      <c r="N86" s="2" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+      <c r="O86" s="2" t="str">
+        <f t="shared" si="108"/>
+        <v/>
+      </c>
+      <c r="P86" s="2" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="Q86" s="2" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="R86" s="2" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="S86" s="2" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="T86" s="2" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="U86" s="2" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="V86" s="2" t="str">
         <f t="shared" si="115"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="B86" s="2" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-      <c r="C86" s="2" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-      <c r="D86" s="2" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-      <c r="E86" s="2" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-      <c r="F86" s="2" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-      <c r="G86" s="2" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-      <c r="H86" s="2" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-      <c r="I86" s="2" t="str">
-        <f t="shared" si="101"/>
-        <v/>
-      </c>
-      <c r="J86" s="2" t="str">
-        <f t="shared" si="102"/>
-        <v/>
-      </c>
-      <c r="K86" s="2" t="str">
-        <f t="shared" si="103"/>
-        <v/>
-      </c>
-      <c r="L86" s="2" t="str">
-        <f t="shared" si="104"/>
-        <v/>
-      </c>
-      <c r="M86" s="2" t="str">
-        <f t="shared" si="105"/>
-        <v/>
-      </c>
-      <c r="N86" s="2" t="str">
-        <f t="shared" si="106"/>
-        <v/>
-      </c>
-      <c r="O86" s="2" t="str">
-        <f t="shared" si="107"/>
-        <v/>
-      </c>
-      <c r="P86" s="2" t="str">
-        <f t="shared" si="108"/>
-        <v/>
-      </c>
-      <c r="Q86" s="2" t="str">
-        <f t="shared" si="109"/>
-        <v/>
-      </c>
-      <c r="R86" s="2" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
-      <c r="S86" s="2" t="str">
-        <f t="shared" si="111"/>
-        <v/>
-      </c>
-      <c r="T86" s="2" t="str">
-        <f t="shared" si="112"/>
-        <v/>
-      </c>
-      <c r="U86" s="2" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="V86" s="2" t="str">
-        <f t="shared" si="114"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
+        <f t="shared" si="116"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="B87" s="2" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="C87" s="2" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="D87" s="2" t="str">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+      <c r="E87" s="2" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="F87" s="2" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="G87" s="2" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+      <c r="H87" s="2" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="I87" s="2" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="J87" s="2" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
+      <c r="K87" s="2" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="L87" s="2" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="M87" s="2" t="str">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+      <c r="N87" s="2" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+      <c r="O87" s="2" t="str">
+        <f t="shared" si="108"/>
+        <v/>
+      </c>
+      <c r="P87" s="2" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="Q87" s="2" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="R87" s="2" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="S87" s="2" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="T87" s="2" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="U87" s="2" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="V87" s="2" t="str">
         <f t="shared" si="115"/>
-        <v>1.0999999999999999</v>
-      </c>
-      <c r="B87" s="2" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-      <c r="C87" s="2" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-      <c r="D87" s="2" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-      <c r="E87" s="2" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-      <c r="F87" s="2" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-      <c r="G87" s="2" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-      <c r="H87" s="2" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-      <c r="I87" s="2" t="str">
-        <f t="shared" si="101"/>
-        <v/>
-      </c>
-      <c r="J87" s="2" t="str">
-        <f t="shared" si="102"/>
-        <v/>
-      </c>
-      <c r="K87" s="2" t="str">
-        <f t="shared" si="103"/>
-        <v/>
-      </c>
-      <c r="L87" s="2" t="str">
-        <f t="shared" si="104"/>
-        <v/>
-      </c>
-      <c r="M87" s="2" t="str">
-        <f t="shared" si="105"/>
-        <v/>
-      </c>
-      <c r="N87" s="2" t="str">
-        <f t="shared" si="106"/>
-        <v/>
-      </c>
-      <c r="O87" s="2" t="str">
-        <f t="shared" si="107"/>
-        <v/>
-      </c>
-      <c r="P87" s="2" t="str">
-        <f t="shared" si="108"/>
-        <v/>
-      </c>
-      <c r="Q87" s="2" t="str">
-        <f t="shared" si="109"/>
-        <v/>
-      </c>
-      <c r="R87" s="2" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
-      <c r="S87" s="2" t="str">
-        <f t="shared" si="111"/>
-        <v/>
-      </c>
-      <c r="T87" s="2" t="str">
-        <f t="shared" si="112"/>
-        <v/>
-      </c>
-      <c r="U87" s="2" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="V87" s="2" t="str">
-        <f t="shared" si="114"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
+        <f t="shared" si="116"/>
+        <v>1.2</v>
+      </c>
+      <c r="B88" s="2" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="C88" s="2" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="D88" s="2" t="str">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+      <c r="E88" s="2" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="F88" s="2" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="G88" s="2" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+      <c r="H88" s="2" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="I88" s="2" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="J88" s="2" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
+      <c r="K88" s="2" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="L88" s="2" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="M88" s="2" t="str">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+      <c r="N88" s="2" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+      <c r="O88" s="2" t="str">
+        <f t="shared" si="108"/>
+        <v/>
+      </c>
+      <c r="P88" s="2" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="Q88" s="2" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="R88" s="2" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="S88" s="2" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="T88" s="2" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="U88" s="2" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="V88" s="2" t="str">
         <f t="shared" si="115"/>
-        <v>1.2</v>
-      </c>
-      <c r="B88" s="2" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-      <c r="C88" s="2" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-      <c r="D88" s="2" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-      <c r="E88" s="2" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-      <c r="F88" s="2" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-      <c r="G88" s="2" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-      <c r="H88" s="2" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-      <c r="I88" s="2" t="str">
-        <f t="shared" si="101"/>
-        <v/>
-      </c>
-      <c r="J88" s="2" t="str">
-        <f t="shared" si="102"/>
-        <v/>
-      </c>
-      <c r="K88" s="2" t="str">
-        <f t="shared" si="103"/>
-        <v/>
-      </c>
-      <c r="L88" s="2" t="str">
-        <f t="shared" si="104"/>
-        <v/>
-      </c>
-      <c r="M88" s="2" t="str">
-        <f t="shared" si="105"/>
-        <v/>
-      </c>
-      <c r="N88" s="2" t="str">
-        <f t="shared" si="106"/>
-        <v/>
-      </c>
-      <c r="O88" s="2" t="str">
-        <f t="shared" si="107"/>
-        <v/>
-      </c>
-      <c r="P88" s="2" t="str">
-        <f t="shared" si="108"/>
-        <v/>
-      </c>
-      <c r="Q88" s="2" t="str">
-        <f t="shared" si="109"/>
-        <v/>
-      </c>
-      <c r="R88" s="2" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
-      <c r="S88" s="2" t="str">
-        <f t="shared" si="111"/>
-        <v/>
-      </c>
-      <c r="T88" s="2" t="str">
-        <f t="shared" si="112"/>
-        <v/>
-      </c>
-      <c r="U88" s="2" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="V88" s="2" t="str">
-        <f t="shared" si="114"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
+        <f t="shared" si="116"/>
+        <v>1.3</v>
+      </c>
+      <c r="B89" s="2">
+        <f t="shared" si="95"/>
+        <v>8.4500000000000028</v>
+      </c>
+      <c r="C89" s="2" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="D89" s="2" t="str">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+      <c r="E89" s="2" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="F89" s="2" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="G89" s="2" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+      <c r="H89" s="28">
+        <f t="shared" si="101"/>
+        <v>0.16999999999999993</v>
+      </c>
+      <c r="I89" s="2" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="J89" s="2" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
+      <c r="K89" s="2" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="L89" s="2" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="M89" s="2" t="str">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+      <c r="N89" s="2" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+      <c r="O89" s="2" t="str">
+        <f t="shared" si="108"/>
+        <v/>
+      </c>
+      <c r="P89" s="2" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="Q89" s="2" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="R89" s="2" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="S89" s="2" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="T89" s="2" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="U89" s="2" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="V89" s="2" t="str">
         <f t="shared" si="115"/>
-        <v>1.3</v>
-      </c>
-      <c r="B89" s="2">
-        <f t="shared" si="94"/>
-        <v>8.4500000000000028</v>
-      </c>
-      <c r="C89" s="2" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-      <c r="D89" s="2" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-      <c r="E89" s="2" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-      <c r="F89" s="2" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-      <c r="G89" s="2" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-      <c r="H89" s="31">
-        <f t="shared" si="100"/>
-        <v>0.16999999999999993</v>
-      </c>
-      <c r="I89" s="2" t="str">
-        <f t="shared" si="101"/>
-        <v/>
-      </c>
-      <c r="J89" s="2" t="str">
-        <f t="shared" si="102"/>
-        <v/>
-      </c>
-      <c r="K89" s="2" t="str">
-        <f t="shared" si="103"/>
-        <v/>
-      </c>
-      <c r="L89" s="2" t="str">
-        <f t="shared" si="104"/>
-        <v/>
-      </c>
-      <c r="M89" s="2" t="str">
-        <f t="shared" si="105"/>
-        <v/>
-      </c>
-      <c r="N89" s="2" t="str">
-        <f t="shared" si="106"/>
-        <v/>
-      </c>
-      <c r="O89" s="2" t="str">
-        <f t="shared" si="107"/>
-        <v/>
-      </c>
-      <c r="P89" s="2" t="str">
-        <f t="shared" si="108"/>
-        <v/>
-      </c>
-      <c r="Q89" s="2" t="str">
-        <f t="shared" si="109"/>
-        <v/>
-      </c>
-      <c r="R89" s="2" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
-      <c r="S89" s="2" t="str">
-        <f t="shared" si="111"/>
-        <v/>
-      </c>
-      <c r="T89" s="2" t="str">
-        <f t="shared" si="112"/>
-        <v/>
-      </c>
-      <c r="U89" s="2" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="V89" s="2" t="str">
-        <f t="shared" si="114"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
+        <f t="shared" si="116"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="B90" s="2">
+        <f t="shared" si="95"/>
+        <v>9.8000000000000043</v>
+      </c>
+      <c r="C90" s="2">
+        <f t="shared" si="96"/>
+        <v>8.1500000000000021</v>
+      </c>
+      <c r="D90" s="2">
+        <f t="shared" si="97"/>
+        <v>6.5600000000000023</v>
+      </c>
+      <c r="E90" s="2">
+        <f t="shared" si="98"/>
+        <v>5.0300000000000011</v>
+      </c>
+      <c r="F90" s="2">
+        <f t="shared" si="99"/>
+        <v>3.5600000000000023</v>
+      </c>
+      <c r="G90" s="2">
+        <f t="shared" si="100"/>
+        <v>3.2832000000000221</v>
+      </c>
+      <c r="H90" s="2">
+        <f t="shared" si="101"/>
+        <v>5.5456000000000216</v>
+      </c>
+      <c r="I90" s="2" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="J90" s="2" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
+      <c r="K90" s="2" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="L90" s="2" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="M90" s="2" t="str">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+      <c r="N90" s="2" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+      <c r="O90" s="2" t="str">
+        <f t="shared" si="108"/>
+        <v/>
+      </c>
+      <c r="P90" s="2" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="Q90" s="2" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="R90" s="2" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="S90" s="2" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="T90" s="2" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="U90" s="2" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="V90" s="2" t="str">
         <f t="shared" si="115"/>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="B90" s="2">
-        <f t="shared" si="94"/>
-        <v>9.8000000000000043</v>
-      </c>
-      <c r="C90" s="2">
-        <f t="shared" si="95"/>
-        <v>8.1500000000000021</v>
-      </c>
-      <c r="D90" s="2">
-        <f t="shared" si="96"/>
-        <v>6.5600000000000023</v>
-      </c>
-      <c r="E90" s="2">
-        <f t="shared" si="97"/>
-        <v>5.0300000000000011</v>
-      </c>
-      <c r="F90" s="2">
-        <f t="shared" si="98"/>
-        <v>3.5600000000000023</v>
-      </c>
-      <c r="G90" s="2">
-        <f t="shared" si="99"/>
-        <v>3.2832000000000221</v>
-      </c>
-      <c r="H90" s="2">
-        <f t="shared" si="100"/>
-        <v>5.5456000000000216</v>
-      </c>
-      <c r="I90" s="2" t="str">
-        <f t="shared" si="101"/>
-        <v/>
-      </c>
-      <c r="J90" s="2" t="str">
-        <f t="shared" si="102"/>
-        <v/>
-      </c>
-      <c r="K90" s="2" t="str">
-        <f t="shared" si="103"/>
-        <v/>
-      </c>
-      <c r="L90" s="2" t="str">
-        <f t="shared" si="104"/>
-        <v/>
-      </c>
-      <c r="M90" s="2" t="str">
-        <f t="shared" si="105"/>
-        <v/>
-      </c>
-      <c r="N90" s="2" t="str">
-        <f t="shared" si="106"/>
-        <v/>
-      </c>
-      <c r="O90" s="2" t="str">
-        <f t="shared" si="107"/>
-        <v/>
-      </c>
-      <c r="P90" s="2" t="str">
-        <f t="shared" si="108"/>
-        <v/>
-      </c>
-      <c r="Q90" s="2" t="str">
-        <f t="shared" si="109"/>
-        <v/>
-      </c>
-      <c r="R90" s="2" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
-      <c r="S90" s="2" t="str">
-        <f t="shared" si="111"/>
-        <v/>
-      </c>
-      <c r="T90" s="2" t="str">
-        <f t="shared" si="112"/>
-        <v/>
-      </c>
-      <c r="U90" s="2" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="V90" s="2" t="str">
-        <f t="shared" si="114"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
+        <f t="shared" si="116"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="B91" s="2">
+        <f t="shared" si="95"/>
+        <v>12.583200000000019</v>
+      </c>
+      <c r="C91" s="2">
+        <f t="shared" si="96"/>
+        <v>9.480000000000004</v>
+      </c>
+      <c r="D91" s="2">
+        <f t="shared" si="97"/>
+        <v>7.7700000000000031</v>
+      </c>
+      <c r="E91" s="2">
+        <f t="shared" si="98"/>
+        <v>6.8832000000000164</v>
+      </c>
+      <c r="F91" s="2">
+        <f t="shared" si="99"/>
+        <v>7.6832000000000136</v>
+      </c>
+      <c r="G91" s="2">
+        <f t="shared" si="100"/>
+        <v>9.4582000000000193</v>
+      </c>
+      <c r="H91" s="2">
+        <f t="shared" si="101"/>
+        <v>11.983200000000025</v>
+      </c>
+      <c r="I91" s="2">
+        <f t="shared" si="102"/>
+        <v>15.033200000000022</v>
+      </c>
+      <c r="J91" s="2" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
+      <c r="K91" s="2" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="L91" s="2" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="M91" s="2" t="str">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+      <c r="N91" s="2" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+      <c r="O91" s="2" t="str">
+        <f t="shared" si="108"/>
+        <v/>
+      </c>
+      <c r="P91" s="2" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="Q91" s="2" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="R91" s="2" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="S91" s="2" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="T91" s="2" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="U91" s="2" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="V91" s="2" t="str">
         <f t="shared" si="115"/>
-        <v>1.5000000000000002</v>
-      </c>
-      <c r="B91" s="2">
-        <f t="shared" si="94"/>
-        <v>12.583200000000019</v>
-      </c>
-      <c r="C91" s="2">
-        <f t="shared" si="95"/>
-        <v>9.480000000000004</v>
-      </c>
-      <c r="D91" s="2">
-        <f t="shared" si="96"/>
-        <v>7.7700000000000031</v>
-      </c>
-      <c r="E91" s="2">
-        <f t="shared" si="97"/>
-        <v>6.8832000000000164</v>
-      </c>
-      <c r="F91" s="2">
-        <f t="shared" si="98"/>
-        <v>7.6832000000000136</v>
-      </c>
-      <c r="G91" s="2">
-        <f t="shared" si="99"/>
-        <v>9.4582000000000193</v>
-      </c>
-      <c r="H91" s="2">
-        <f t="shared" si="100"/>
-        <v>11.983200000000025</v>
-      </c>
-      <c r="I91" s="2">
-        <f t="shared" si="101"/>
-        <v>15.033200000000022</v>
-      </c>
-      <c r="J91" s="2" t="str">
-        <f t="shared" si="102"/>
-        <v/>
-      </c>
-      <c r="K91" s="2" t="str">
-        <f t="shared" si="103"/>
-        <v/>
-      </c>
-      <c r="L91" s="2" t="str">
-        <f t="shared" si="104"/>
-        <v/>
-      </c>
-      <c r="M91" s="2" t="str">
-        <f t="shared" si="105"/>
-        <v/>
-      </c>
-      <c r="N91" s="2" t="str">
-        <f t="shared" si="106"/>
-        <v/>
-      </c>
-      <c r="O91" s="2" t="str">
-        <f t="shared" si="107"/>
-        <v/>
-      </c>
-      <c r="P91" s="2" t="str">
-        <f t="shared" si="108"/>
-        <v/>
-      </c>
-      <c r="Q91" s="2" t="str">
-        <f t="shared" si="109"/>
-        <v/>
-      </c>
-      <c r="R91" s="2" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
-      <c r="S91" s="2" t="str">
-        <f t="shared" si="111"/>
-        <v/>
-      </c>
-      <c r="T91" s="2" t="str">
-        <f t="shared" si="112"/>
-        <v/>
-      </c>
-      <c r="U91" s="2" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="V91" s="2" t="str">
-        <f t="shared" si="114"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
+        <f t="shared" si="116"/>
+        <v>1.6000000000000003</v>
+      </c>
+      <c r="B92" s="2">
+        <f t="shared" si="95"/>
+        <v>20.083200000000019</v>
+      </c>
+      <c r="C92" s="2">
+        <f t="shared" si="96"/>
+        <v>16.191200000000009</v>
+      </c>
+      <c r="D92" s="2">
+        <f t="shared" si="97"/>
+        <v>14.147200000000012</v>
+      </c>
+      <c r="E92" s="2">
+        <f t="shared" si="98"/>
+        <v>13.699200000000019</v>
+      </c>
+      <c r="F92" s="2">
+        <f t="shared" si="99"/>
+        <v>14.59520000000002</v>
+      </c>
+      <c r="G92" s="2">
+        <f t="shared" si="100"/>
+        <v>16.583200000000019</v>
+      </c>
+      <c r="H92" s="2">
+        <f t="shared" si="101"/>
+        <v>19.411200000000022</v>
+      </c>
+      <c r="I92" s="2">
+        <f t="shared" si="102"/>
+        <v>22.827200000000019</v>
+      </c>
+      <c r="J92" s="2" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
+      <c r="K92" s="2" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="L92" s="2" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="M92" s="2" t="str">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+      <c r="N92" s="2" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+      <c r="O92" s="2" t="str">
+        <f t="shared" si="108"/>
+        <v/>
+      </c>
+      <c r="P92" s="2" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="Q92" s="2" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="R92" s="2" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="S92" s="2" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="T92" s="2" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="U92" s="2" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="V92" s="2" t="str">
         <f t="shared" si="115"/>
-        <v>1.6000000000000003</v>
-      </c>
-      <c r="B92" s="2">
-        <f t="shared" si="94"/>
-        <v>20.083200000000019</v>
-      </c>
-      <c r="C92" s="2">
-        <f t="shared" si="95"/>
-        <v>16.191200000000009</v>
-      </c>
-      <c r="D92" s="2">
-        <f t="shared" si="96"/>
-        <v>14.147200000000012</v>
-      </c>
-      <c r="E92" s="2">
-        <f t="shared" si="97"/>
-        <v>13.699200000000019</v>
-      </c>
-      <c r="F92" s="2">
-        <f t="shared" si="98"/>
-        <v>14.59520000000002</v>
-      </c>
-      <c r="G92" s="2">
-        <f t="shared" si="99"/>
-        <v>16.583200000000019</v>
-      </c>
-      <c r="H92" s="2">
-        <f t="shared" si="100"/>
-        <v>19.411200000000022</v>
-      </c>
-      <c r="I92" s="2">
-        <f t="shared" si="101"/>
-        <v>22.827200000000019</v>
-      </c>
-      <c r="J92" s="2" t="str">
-        <f t="shared" si="102"/>
-        <v/>
-      </c>
-      <c r="K92" s="2" t="str">
-        <f t="shared" si="103"/>
-        <v/>
-      </c>
-      <c r="L92" s="2" t="str">
-        <f t="shared" si="104"/>
-        <v/>
-      </c>
-      <c r="M92" s="2" t="str">
-        <f t="shared" si="105"/>
-        <v/>
-      </c>
-      <c r="N92" s="2" t="str">
-        <f t="shared" si="106"/>
-        <v/>
-      </c>
-      <c r="O92" s="2" t="str">
-        <f t="shared" si="107"/>
-        <v/>
-      </c>
-      <c r="P92" s="2" t="str">
-        <f t="shared" si="108"/>
-        <v/>
-      </c>
-      <c r="Q92" s="2" t="str">
-        <f t="shared" si="109"/>
-        <v/>
-      </c>
-      <c r="R92" s="2" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
-      <c r="S92" s="2" t="str">
-        <f t="shared" si="111"/>
-        <v/>
-      </c>
-      <c r="T92" s="2" t="str">
-        <f t="shared" si="112"/>
-        <v/>
-      </c>
-      <c r="U92" s="2" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="V92" s="2" t="str">
-        <f t="shared" si="114"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
+        <f t="shared" si="116"/>
+        <v>1.7000000000000004</v>
+      </c>
+      <c r="B93" s="2">
+        <f t="shared" si="95"/>
+        <v>28.583200000000033</v>
+      </c>
+      <c r="C93" s="2">
+        <f t="shared" si="96"/>
+        <v>24.218600000000023</v>
+      </c>
+      <c r="D93" s="2">
+        <f t="shared" si="97"/>
+        <v>21.926400000000029</v>
+      </c>
+      <c r="E93" s="2">
+        <f t="shared" si="98"/>
+        <v>21.424000000000021</v>
+      </c>
+      <c r="F93" s="2">
+        <f t="shared" si="99"/>
+        <v>22.428800000000024</v>
+      </c>
+      <c r="G93" s="2">
+        <f t="shared" si="100"/>
+        <v>24.658200000000036</v>
+      </c>
+      <c r="H93" s="2">
+        <f t="shared" si="101"/>
+        <v>27.829600000000042</v>
+      </c>
+      <c r="I93" s="2">
+        <f t="shared" si="102"/>
+        <v>31.660400000000038</v>
+      </c>
+      <c r="J93" s="2">
+        <f t="shared" si="103"/>
+        <v>35.868000000000038</v>
+      </c>
+      <c r="K93" s="2" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="L93" s="2" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="M93" s="2" t="str">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+      <c r="N93" s="2" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+      <c r="O93" s="2" t="str">
+        <f t="shared" si="108"/>
+        <v/>
+      </c>
+      <c r="P93" s="2" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="Q93" s="2" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="R93" s="2" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="S93" s="2" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="T93" s="2" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="U93" s="2" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="V93" s="2" t="str">
         <f t="shared" si="115"/>
-        <v>1.7000000000000004</v>
-      </c>
-      <c r="B93" s="2">
-        <f t="shared" si="94"/>
-        <v>28.583200000000033</v>
-      </c>
-      <c r="C93" s="2">
-        <f t="shared" si="95"/>
-        <v>24.218600000000023</v>
-      </c>
-      <c r="D93" s="2">
-        <f t="shared" si="96"/>
-        <v>21.926400000000029</v>
-      </c>
-      <c r="E93" s="2">
-        <f t="shared" si="97"/>
-        <v>21.424000000000021</v>
-      </c>
-      <c r="F93" s="2">
-        <f t="shared" si="98"/>
-        <v>22.428800000000024</v>
-      </c>
-      <c r="G93" s="2">
-        <f t="shared" si="99"/>
-        <v>24.658200000000036</v>
-      </c>
-      <c r="H93" s="2">
-        <f t="shared" si="100"/>
-        <v>27.829600000000042</v>
-      </c>
-      <c r="I93" s="2">
-        <f t="shared" si="101"/>
-        <v>31.660400000000038</v>
-      </c>
-      <c r="J93" s="2">
-        <f t="shared" si="102"/>
-        <v>35.868000000000038</v>
-      </c>
-      <c r="K93" s="2" t="str">
-        <f t="shared" si="103"/>
-        <v/>
-      </c>
-      <c r="L93" s="2" t="str">
-        <f t="shared" si="104"/>
-        <v/>
-      </c>
-      <c r="M93" s="2" t="str">
-        <f t="shared" si="105"/>
-        <v/>
-      </c>
-      <c r="N93" s="2" t="str">
-        <f t="shared" si="106"/>
-        <v/>
-      </c>
-      <c r="O93" s="2" t="str">
-        <f t="shared" si="107"/>
-        <v/>
-      </c>
-      <c r="P93" s="2" t="str">
-        <f t="shared" si="108"/>
-        <v/>
-      </c>
-      <c r="Q93" s="2" t="str">
-        <f t="shared" si="109"/>
-        <v/>
-      </c>
-      <c r="R93" s="2" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
-      <c r="S93" s="2" t="str">
-        <f t="shared" si="111"/>
-        <v/>
-      </c>
-      <c r="T93" s="2" t="str">
-        <f t="shared" si="112"/>
-        <v/>
-      </c>
-      <c r="U93" s="2" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="V93" s="2" t="str">
-        <f t="shared" si="114"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
+        <f t="shared" si="116"/>
+        <v>1.8000000000000005</v>
+      </c>
+      <c r="B94" s="2">
+        <f t="shared" si="95"/>
+        <v>38.083200000000033</v>
+      </c>
+      <c r="C94" s="2">
+        <f t="shared" si="96"/>
+        <v>33.190400000000025</v>
+      </c>
+      <c r="D94" s="2">
+        <f t="shared" si="97"/>
+        <v>30.620800000000017</v>
+      </c>
+      <c r="E94" s="2">
+        <f t="shared" si="98"/>
+        <v>30.057600000000022</v>
+      </c>
+      <c r="F94" s="2">
+        <f t="shared" si="99"/>
+        <v>31.184000000000026</v>
+      </c>
+      <c r="G94" s="2">
+        <f t="shared" si="100"/>
+        <v>33.683200000000028</v>
+      </c>
+      <c r="H94" s="2">
+        <f t="shared" si="101"/>
+        <v>37.238400000000027</v>
+      </c>
+      <c r="I94" s="2">
+        <f t="shared" si="102"/>
+        <v>41.532800000000023</v>
+      </c>
+      <c r="J94" s="2">
+        <f t="shared" si="103"/>
+        <v>46.249600000000029</v>
+      </c>
+      <c r="K94" s="2" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="L94" s="2" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="M94" s="2" t="str">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+      <c r="N94" s="2" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+      <c r="O94" s="2" t="str">
+        <f t="shared" si="108"/>
+        <v/>
+      </c>
+      <c r="P94" s="2" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="Q94" s="2" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="R94" s="2" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="S94" s="2" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="T94" s="2" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="U94" s="2" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="V94" s="2" t="str">
         <f t="shared" si="115"/>
-        <v>1.8000000000000005</v>
-      </c>
-      <c r="B94" s="2">
-        <f t="shared" si="94"/>
-        <v>38.083200000000033</v>
-      </c>
-      <c r="C94" s="2">
-        <f t="shared" si="95"/>
-        <v>33.190400000000025</v>
-      </c>
-      <c r="D94" s="2">
-        <f t="shared" si="96"/>
-        <v>30.620800000000017</v>
-      </c>
-      <c r="E94" s="2">
-        <f t="shared" si="97"/>
-        <v>30.057600000000022</v>
-      </c>
-      <c r="F94" s="2">
-        <f t="shared" si="98"/>
-        <v>31.184000000000026</v>
-      </c>
-      <c r="G94" s="2">
-        <f t="shared" si="99"/>
-        <v>33.683200000000028</v>
-      </c>
-      <c r="H94" s="2">
-        <f t="shared" si="100"/>
-        <v>37.238400000000027</v>
-      </c>
-      <c r="I94" s="2">
-        <f t="shared" si="101"/>
-        <v>41.532800000000023</v>
-      </c>
-      <c r="J94" s="2">
-        <f t="shared" si="102"/>
-        <v>46.249600000000029</v>
-      </c>
-      <c r="K94" s="2" t="str">
-        <f t="shared" si="103"/>
-        <v/>
-      </c>
-      <c r="L94" s="2" t="str">
-        <f t="shared" si="104"/>
-        <v/>
-      </c>
-      <c r="M94" s="2" t="str">
-        <f t="shared" si="105"/>
-        <v/>
-      </c>
-      <c r="N94" s="2" t="str">
-        <f t="shared" si="106"/>
-        <v/>
-      </c>
-      <c r="O94" s="2" t="str">
-        <f t="shared" si="107"/>
-        <v/>
-      </c>
-      <c r="P94" s="2" t="str">
-        <f t="shared" si="108"/>
-        <v/>
-      </c>
-      <c r="Q94" s="2" t="str">
-        <f t="shared" si="109"/>
-        <v/>
-      </c>
-      <c r="R94" s="2" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
-      <c r="S94" s="2" t="str">
-        <f t="shared" si="111"/>
-        <v/>
-      </c>
-      <c r="T94" s="2" t="str">
-        <f t="shared" si="112"/>
-        <v/>
-      </c>
-      <c r="U94" s="2" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="V94" s="2" t="str">
-        <f t="shared" si="114"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
+        <f t="shared" si="116"/>
+        <v>1.9000000000000006</v>
+      </c>
+      <c r="B95" s="2">
+        <f t="shared" si="95"/>
+        <v>48.583200000000076</v>
+      </c>
+      <c r="C95" s="2">
+        <f t="shared" si="96"/>
+        <v>43.106600000000057</v>
+      </c>
+      <c r="D95" s="2">
+        <f t="shared" si="97"/>
+        <v>40.23040000000006</v>
+      </c>
+      <c r="E95" s="2">
+        <f t="shared" si="98"/>
+        <v>39.600000000000065</v>
+      </c>
+      <c r="F95" s="2">
+        <f t="shared" si="99"/>
+        <v>40.860800000000054</v>
+      </c>
+      <c r="G95" s="2">
+        <f t="shared" si="100"/>
+        <v>43.658200000000065</v>
+      </c>
+      <c r="H95" s="2">
+        <f t="shared" si="101"/>
+        <v>47.637600000000077</v>
+      </c>
+      <c r="I95" s="2">
+        <f t="shared" si="102"/>
+        <v>52.444400000000073</v>
+      </c>
+      <c r="J95" s="2">
+        <f t="shared" si="103"/>
+        <v>57.724000000000075</v>
+      </c>
+      <c r="K95" s="2" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="L95" s="2" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="M95" s="2" t="str">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+      <c r="N95" s="2" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+      <c r="O95" s="2" t="str">
+        <f t="shared" si="108"/>
+        <v/>
+      </c>
+      <c r="P95" s="2" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="Q95" s="2" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="R95" s="2" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="S95" s="2" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="T95" s="2" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="U95" s="2" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="V95" s="2" t="str">
         <f t="shared" si="115"/>
-        <v>1.9000000000000006</v>
-      </c>
-      <c r="B95" s="2">
-        <f t="shared" si="94"/>
-        <v>48.583200000000076</v>
-      </c>
-      <c r="C95" s="2">
-        <f t="shared" si="95"/>
-        <v>43.106600000000057</v>
-      </c>
-      <c r="D95" s="2">
-        <f t="shared" si="96"/>
-        <v>40.23040000000006</v>
-      </c>
-      <c r="E95" s="2">
-        <f t="shared" si="97"/>
-        <v>39.600000000000065</v>
-      </c>
-      <c r="F95" s="2">
-        <f t="shared" si="98"/>
-        <v>40.860800000000054</v>
-      </c>
-      <c r="G95" s="2">
-        <f t="shared" si="99"/>
-        <v>43.658200000000065</v>
-      </c>
-      <c r="H95" s="2">
-        <f t="shared" si="100"/>
-        <v>47.637600000000077</v>
-      </c>
-      <c r="I95" s="2">
-        <f t="shared" si="101"/>
-        <v>52.444400000000073</v>
-      </c>
-      <c r="J95" s="2">
-        <f t="shared" si="102"/>
-        <v>57.724000000000075</v>
-      </c>
-      <c r="K95" s="2" t="str">
-        <f t="shared" si="103"/>
-        <v/>
-      </c>
-      <c r="L95" s="2" t="str">
-        <f t="shared" si="104"/>
-        <v/>
-      </c>
-      <c r="M95" s="2" t="str">
-        <f t="shared" si="105"/>
-        <v/>
-      </c>
-      <c r="N95" s="2" t="str">
-        <f t="shared" si="106"/>
-        <v/>
-      </c>
-      <c r="O95" s="2" t="str">
-        <f t="shared" si="107"/>
-        <v/>
-      </c>
-      <c r="P95" s="2" t="str">
-        <f t="shared" si="108"/>
-        <v/>
-      </c>
-      <c r="Q95" s="2" t="str">
-        <f t="shared" si="109"/>
-        <v/>
-      </c>
-      <c r="R95" s="2" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
-      <c r="S95" s="2" t="str">
-        <f t="shared" si="111"/>
-        <v/>
-      </c>
-      <c r="T95" s="2" t="str">
-        <f t="shared" si="112"/>
-        <v/>
-      </c>
-      <c r="U95" s="2" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="V95" s="2" t="str">
-        <f t="shared" si="114"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
+        <f t="shared" si="116"/>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="B96" s="2">
+        <f t="shared" si="95"/>
+        <v>60.083200000000033</v>
+      </c>
+      <c r="C96" s="2">
+        <f t="shared" si="96"/>
+        <v>53.967200000000034</v>
+      </c>
+      <c r="D96" s="2">
+        <f t="shared" si="97"/>
+        <v>50.755200000000031</v>
+      </c>
+      <c r="E96" s="2">
+        <f t="shared" si="98"/>
+        <v>50.051200000000023</v>
+      </c>
+      <c r="F96" s="2">
+        <f t="shared" si="99"/>
+        <v>51.459200000000024</v>
+      </c>
+      <c r="G96" s="2">
+        <f t="shared" si="100"/>
+        <v>54.583200000000033</v>
+      </c>
+      <c r="H96" s="2">
+        <f t="shared" si="101"/>
+        <v>59.027200000000036</v>
+      </c>
+      <c r="I96" s="2">
+        <f t="shared" si="102"/>
+        <v>64.395200000000031</v>
+      </c>
+      <c r="J96" s="2">
+        <f t="shared" si="103"/>
+        <v>70.291200000000032</v>
+      </c>
+      <c r="K96" s="2">
+        <f t="shared" si="104"/>
+        <v>76.319200000000038</v>
+      </c>
+      <c r="L96" s="2" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="M96" s="2" t="str">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+      <c r="N96" s="2" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+      <c r="O96" s="2" t="str">
+        <f t="shared" si="108"/>
+        <v/>
+      </c>
+      <c r="P96" s="2" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="Q96" s="2" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="R96" s="2" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="S96" s="2" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="T96" s="2" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="U96" s="2" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="V96" s="2" t="str">
         <f t="shared" si="115"/>
-        <v>2.0000000000000004</v>
-      </c>
-      <c r="B96" s="2">
-        <f t="shared" si="94"/>
-        <v>60.083200000000033</v>
-      </c>
-      <c r="C96" s="2">
-        <f t="shared" si="95"/>
-        <v>53.967200000000034</v>
-      </c>
-      <c r="D96" s="2">
-        <f t="shared" si="96"/>
-        <v>50.755200000000031</v>
-      </c>
-      <c r="E96" s="2">
-        <f t="shared" si="97"/>
-        <v>50.051200000000023</v>
-      </c>
-      <c r="F96" s="2">
-        <f t="shared" si="98"/>
-        <v>51.459200000000024</v>
-      </c>
-      <c r="G96" s="2">
-        <f t="shared" si="99"/>
-        <v>54.583200000000033</v>
-      </c>
-      <c r="H96" s="2">
-        <f t="shared" si="100"/>
-        <v>59.027200000000036</v>
-      </c>
-      <c r="I96" s="2">
-        <f t="shared" si="101"/>
-        <v>64.395200000000031</v>
-      </c>
-      <c r="J96" s="2">
-        <f t="shared" si="102"/>
-        <v>70.291200000000032</v>
-      </c>
-      <c r="K96" s="2">
-        <f t="shared" si="103"/>
-        <v>76.319200000000038</v>
-      </c>
-      <c r="L96" s="2" t="str">
-        <f t="shared" si="104"/>
-        <v/>
-      </c>
-      <c r="M96" s="2" t="str">
-        <f t="shared" si="105"/>
-        <v/>
-      </c>
-      <c r="N96" s="2" t="str">
-        <f t="shared" si="106"/>
-        <v/>
-      </c>
-      <c r="O96" s="2" t="str">
-        <f t="shared" si="107"/>
-        <v/>
-      </c>
-      <c r="P96" s="2" t="str">
-        <f t="shared" si="108"/>
-        <v/>
-      </c>
-      <c r="Q96" s="2" t="str">
-        <f t="shared" si="109"/>
-        <v/>
-      </c>
-      <c r="R96" s="2" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
-      <c r="S96" s="2" t="str">
-        <f t="shared" si="111"/>
-        <v/>
-      </c>
-      <c r="T96" s="2" t="str">
-        <f t="shared" si="112"/>
-        <v/>
-      </c>
-      <c r="U96" s="2" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="V96" s="2" t="str">
-        <f t="shared" si="114"/>
         <v/>
       </c>
     </row>
@@ -14775,763 +14603,763 @@
         <v>2.1000000000000005</v>
       </c>
       <c r="B97" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>72.583200000000076</v>
       </c>
       <c r="C97" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>65.772200000000055</v>
       </c>
       <c r="D97" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>62.195200000000057</v>
       </c>
       <c r="E97" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>61.411200000000065</v>
       </c>
       <c r="F97" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>62.979200000000063</v>
       </c>
       <c r="G97" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>66.458200000000076</v>
       </c>
       <c r="H97" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>71.407200000000074</v>
       </c>
       <c r="I97" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>77.385200000000069</v>
       </c>
       <c r="J97" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>83.951200000000057</v>
       </c>
       <c r="K97" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>90.664200000000079</v>
       </c>
       <c r="L97" s="2" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v/>
       </c>
       <c r="M97" s="2" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="N97" s="2" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v/>
       </c>
       <c r="O97" s="2" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="P97" s="2" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="Q97" s="2" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="R97" s="2" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="S97" s="2" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v/>
       </c>
       <c r="T97" s="2" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v/>
       </c>
       <c r="U97" s="2" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="V97" s="2" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <f t="shared" ref="A98:A106" si="116">A97+0.1</f>
+        <f t="shared" ref="A98:A106" si="117">A97+0.1</f>
         <v>2.2000000000000006</v>
       </c>
       <c r="B98" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>86.08320000000009</v>
       </c>
       <c r="C98" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>78.521600000000063</v>
       </c>
       <c r="D98" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>74.550400000000067</v>
       </c>
       <c r="E98" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>73.680000000000078</v>
       </c>
       <c r="F98" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>75.420800000000071</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>79.283200000000079</v>
       </c>
       <c r="H98" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>84.777600000000092</v>
       </c>
       <c r="I98" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>91.414400000000086</v>
       </c>
       <c r="J98" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>98.704000000000093</v>
       </c>
       <c r="K98" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>106.15680000000009</v>
       </c>
       <c r="L98" s="2">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>113.28320000000011</v>
       </c>
       <c r="M98" s="2" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="N98" s="2" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v/>
       </c>
       <c r="O98" s="2" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="P98" s="2" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="Q98" s="2" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="R98" s="2" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="S98" s="2" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v/>
       </c>
       <c r="T98" s="2" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v/>
       </c>
       <c r="U98" s="2" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="V98" s="2" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>2.3000000000000007</v>
       </c>
       <c r="B99" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>100.58320000000012</v>
       </c>
       <c r="C99" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>92.215400000000102</v>
       </c>
       <c r="D99" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>87.820800000000105</v>
       </c>
       <c r="E99" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>86.857600000000105</v>
       </c>
       <c r="F99" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>88.784000000000106</v>
       </c>
       <c r="G99" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>93.058200000000113</v>
       </c>
       <c r="H99" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>99.138400000000104</v>
       </c>
       <c r="I99" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>106.48280000000011</v>
       </c>
       <c r="J99" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>114.54960000000011</v>
       </c>
       <c r="K99" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>122.79700000000011</v>
       </c>
       <c r="L99" s="2">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>130.68320000000014</v>
       </c>
       <c r="M99" s="2" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="N99" s="2" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v/>
       </c>
       <c r="O99" s="2" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="P99" s="2" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="Q99" s="2" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="R99" s="2" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="S99" s="2" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v/>
       </c>
       <c r="T99" s="2" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v/>
       </c>
       <c r="U99" s="2" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="V99" s="2" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>2.4000000000000008</v>
       </c>
       <c r="B100" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>116.08320000000018</v>
       </c>
       <c r="C100" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>106.85360000000014</v>
       </c>
       <c r="D100" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>102.00640000000013</v>
       </c>
       <c r="E100" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>100.94400000000013</v>
       </c>
       <c r="F100" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>103.06880000000012</v>
       </c>
       <c r="G100" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>107.78320000000016</v>
       </c>
       <c r="H100" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>114.48960000000017</v>
       </c>
       <c r="I100" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>122.59040000000016</v>
       </c>
       <c r="J100" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>131.48800000000017</v>
       </c>
       <c r="K100" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>140.58480000000017</v>
       </c>
       <c r="L100" s="2">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>149.28320000000019</v>
       </c>
       <c r="M100" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>156.98560000000018</v>
       </c>
       <c r="N100" s="2" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v/>
       </c>
       <c r="O100" s="2" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="P100" s="2" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="Q100" s="2" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="R100" s="2" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="S100" s="2" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v/>
       </c>
       <c r="T100" s="2" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v/>
       </c>
       <c r="U100" s="2" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="V100" s="2" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>2.5000000000000009</v>
       </c>
       <c r="B101" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>132.58320000000015</v>
       </c>
       <c r="C101" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>122.43620000000013</v>
       </c>
       <c r="D101" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>117.10720000000012</v>
       </c>
       <c r="E101" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>115.93920000000011</v>
       </c>
       <c r="F101" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>118.27520000000013</v>
       </c>
       <c r="G101" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>123.45820000000015</v>
       </c>
       <c r="H101" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>130.83120000000014</v>
       </c>
       <c r="I101" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>139.73720000000014</v>
       </c>
       <c r="J101" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>149.51920000000015</v>
       </c>
       <c r="K101" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>159.52020000000016</v>
       </c>
       <c r="L101" s="2">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>169.08320000000018</v>
       </c>
       <c r="M101" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>177.55120000000016</v>
       </c>
       <c r="N101" s="2" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v/>
       </c>
       <c r="O101" s="2" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="P101" s="2" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="Q101" s="2" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="R101" s="2" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="S101" s="2" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v/>
       </c>
       <c r="T101" s="2" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v/>
       </c>
       <c r="U101" s="2" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="V101" s="2" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>2.600000000000001</v>
       </c>
       <c r="B102" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>150.08320000000018</v>
       </c>
       <c r="C102" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>138.96320000000014</v>
       </c>
       <c r="D102" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>133.12320000000014</v>
       </c>
       <c r="E102" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>131.84320000000014</v>
       </c>
       <c r="F102" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>134.40320000000017</v>
       </c>
       <c r="G102" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>140.08320000000018</v>
       </c>
       <c r="H102" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>148.16320000000019</v>
       </c>
       <c r="I102" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>157.92320000000018</v>
       </c>
       <c r="J102" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>168.64320000000018</v>
       </c>
       <c r="K102" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>179.60320000000019</v>
       </c>
       <c r="L102" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>190.08320000000023</v>
       </c>
       <c r="M102" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>199.36320000000021</v>
       </c>
       <c r="N102" s="1">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>206.72320000000016</v>
       </c>
       <c r="O102" s="1" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="P102" s="1" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="Q102" s="1" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="R102" s="1" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="S102" s="1" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v/>
       </c>
       <c r="T102" s="1" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v/>
       </c>
       <c r="U102" s="1" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="V102" s="1" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>2.7000000000000011</v>
       </c>
       <c r="B103" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>168.58320000000018</v>
       </c>
       <c r="C103" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>156.43460000000013</v>
       </c>
       <c r="D103" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>150.05440000000013</v>
       </c>
       <c r="E103" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>148.65600000000012</v>
       </c>
       <c r="F103" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>151.45280000000014</v>
       </c>
       <c r="G103" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>157.65820000000016</v>
       </c>
       <c r="H103" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>166.48560000000015</v>
       </c>
       <c r="I103" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>177.14840000000015</v>
       </c>
       <c r="J103" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>188.86000000000016</v>
       </c>
       <c r="K103" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>200.83380000000017</v>
       </c>
       <c r="L103" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>212.28320000000016</v>
       </c>
       <c r="M103" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>222.42160000000015</v>
       </c>
       <c r="N103" s="1">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>230.46240000000014</v>
       </c>
       <c r="O103" s="1" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="P103" s="1" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="Q103" s="1" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="R103" s="1" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="S103" s="1" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v/>
       </c>
       <c r="T103" s="1" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v/>
       </c>
       <c r="U103" s="1" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="V103" s="1" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>2.8000000000000012</v>
       </c>
       <c r="B104" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>188.08320000000023</v>
       </c>
       <c r="C104" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>174.85040000000018</v>
       </c>
       <c r="D104" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>167.9008000000002</v>
       </c>
       <c r="E104" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>166.3776000000002</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>169.42400000000021</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>176.18320000000023</v>
       </c>
       <c r="H104" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>185.79840000000021</v>
       </c>
       <c r="I104" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>197.41280000000023</v>
       </c>
       <c r="J104" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>210.1696000000002</v>
       </c>
       <c r="K104" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>223.21200000000024</v>
       </c>
       <c r="L104" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>235.68320000000026</v>
       </c>
       <c r="M104" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>246.72640000000027</v>
       </c>
       <c r="N104" s="1">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>255.48480000000021</v>
       </c>
       <c r="O104" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>261.1016000000003</v>
       </c>
       <c r="P104" s="1" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="Q104" s="1" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="R104" s="1" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="S104" s="1" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v/>
       </c>
       <c r="T104" s="1" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v/>
       </c>
       <c r="U104" s="1" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="V104" s="1" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>2.9000000000000012</v>
       </c>
       <c r="B105" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>208.58320000000029</v>
       </c>
       <c r="C105" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>194.21060000000026</v>
       </c>
       <c r="D105" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>186.66240000000025</v>
       </c>
       <c r="E105" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>185.00800000000027</v>
       </c>
       <c r="F105" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>188.31680000000026</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>195.65820000000028</v>
       </c>
       <c r="H105" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>206.10160000000027</v>
       </c>
       <c r="I105" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>218.71640000000028</v>
       </c>
       <c r="J105" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>232.57200000000032</v>
       </c>
       <c r="K105" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>246.73780000000031</v>
       </c>
       <c r="L105" s="1">
@@ -15539,133 +15367,133 @@
         <v>260.28320000000042</v>
       </c>
       <c r="M105" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>272.27760000000035</v>
       </c>
       <c r="N105" s="1">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>281.79040000000032</v>
       </c>
       <c r="O105" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>287.89100000000042</v>
       </c>
       <c r="P105" s="1" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="Q105" s="1" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="R105" s="1" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="S105" s="1" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v/>
       </c>
       <c r="T105" s="1" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v/>
       </c>
       <c r="U105" s="1" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="V105" s="1" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>3.0000000000000013</v>
       </c>
       <c r="B106" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>230.08320000000023</v>
       </c>
       <c r="C106" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>214.51520000000019</v>
       </c>
       <c r="D106" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>206.3392000000002</v>
       </c>
       <c r="E106" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>204.5472000000002</v>
       </c>
       <c r="F106" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>208.13120000000023</v>
       </c>
       <c r="G106" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>216.08320000000023</v>
       </c>
       <c r="H106" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>227.39520000000024</v>
       </c>
       <c r="I106" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>241.05920000000023</v>
       </c>
       <c r="J106" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>256.0672000000003</v>
       </c>
       <c r="K106" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>271.41120000000024</v>
       </c>
       <c r="L106" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>286.08320000000026</v>
       </c>
       <c r="M106" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>299.07520000000022</v>
       </c>
       <c r="N106" s="1">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>309.3792000000002</v>
       </c>
       <c r="O106" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>315.98720000000037</v>
       </c>
       <c r="P106" s="1">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>317.89120000000025</v>
       </c>
       <c r="Q106" s="1" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="R106" s="1" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="S106" s="1" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v/>
       </c>
       <c r="T106" s="1" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v/>
       </c>
       <c r="U106" s="1" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="V106" s="2" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
     </row>
